--- a/data/env.xlsx
+++ b/data/env.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubap\Documents\THESIS\gitrepo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubap\Documents\THESIS\gitrepo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9EA1DC-4FD2-4C8D-95D1-35FFE8D8D3CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30393E91-344C-4F75-BD11-20A96F7AC2FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2100" windowWidth="31530" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BATHY" sheetId="1" r:id="rId1"/>
@@ -1800,10 +1800,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,2696 +1972,2850 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>1512.139375</v>
+        <v>1512.0884959999999</v>
       </c>
       <c r="C3">
-        <v>1521.06457</v>
+        <v>1521.560156</v>
       </c>
       <c r="D3">
-        <v>1538.8904299999999</v>
+        <v>1539.2604105</v>
       </c>
       <c r="E3">
-        <v>1526.786016</v>
+        <v>1526.7895315000001</v>
       </c>
       <c r="F3">
-        <v>1473.299336</v>
+        <v>1473.0966404999999</v>
       </c>
       <c r="G3">
-        <v>1477.0105080000001</v>
+        <v>1477.0930665000001</v>
       </c>
       <c r="H3">
-        <v>1491.653828</v>
+        <v>1491.9278125000001</v>
       </c>
       <c r="I3">
-        <v>1481.584141</v>
+        <v>1481.3816409999999</v>
       </c>
       <c r="J3">
-        <v>1472.113906</v>
+        <v>1472.1967184999999</v>
       </c>
       <c r="K3">
-        <v>1470.8175389999999</v>
+        <v>1470.5174414999999</v>
       </c>
       <c r="L3">
-        <v>1463.894219</v>
+        <v>1463.9660939999999</v>
       </c>
       <c r="M3">
-        <v>1466.7293749999999</v>
+        <v>1466.6858400000001</v>
       </c>
       <c r="N3">
-        <v>1473.1523440000001</v>
+        <v>1473.031133</v>
       </c>
       <c r="O3">
-        <v>1482.0299219999999</v>
+        <v>1482.4890624999998</v>
       </c>
       <c r="P3">
-        <v>1491.412969</v>
+        <v>1492.5332035000001</v>
       </c>
       <c r="Q3">
-        <v>1482.9314059999999</v>
+        <v>1482.8989449999999</v>
       </c>
       <c r="R3">
-        <v>1523.5215229999999</v>
+        <v>1523.4738279999999</v>
       </c>
       <c r="S3">
-        <v>1524.872734</v>
+        <v>1524.918711</v>
       </c>
       <c r="T3">
-        <v>1534.5662110000001</v>
+        <v>1534.6124610000002</v>
       </c>
       <c r="U3">
-        <v>1532.9946090000001</v>
+        <v>1532.9539450000002</v>
       </c>
       <c r="V3">
-        <v>1498.0477734374999</v>
+        <v>1498.1787109375</v>
       </c>
       <c r="W3">
-        <v>1491.8169531250001</v>
+        <v>1491.7784765625001</v>
       </c>
       <c r="X3">
-        <v>1484.0941015625001</v>
+        <v>1484.1309765625001</v>
       </c>
       <c r="Y3">
-        <v>1487.6765625</v>
+        <v>1487.6812304687501</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>1512.222188</v>
+        <v>1512.139375</v>
       </c>
       <c r="C4">
-        <v>1518.854102</v>
+        <v>1521.06457</v>
       </c>
       <c r="D4">
-        <v>1535.819297</v>
+        <v>1538.8904299999999</v>
       </c>
       <c r="E4">
-        <v>1526.6780859999999</v>
+        <v>1526.786016</v>
       </c>
       <c r="F4">
-        <v>1473.786445</v>
+        <v>1473.299336</v>
       </c>
       <c r="G4">
-        <v>1476.770469</v>
+        <v>1477.0105080000001</v>
       </c>
       <c r="H4">
-        <v>1489.571719</v>
+        <v>1491.653828</v>
       </c>
       <c r="I4">
-        <v>1482.143867</v>
+        <v>1481.584141</v>
       </c>
       <c r="J4">
-        <v>1472.135078</v>
+        <v>1472.113906</v>
       </c>
       <c r="K4">
-        <v>1470.907852</v>
+        <v>1470.8175389999999</v>
       </c>
       <c r="L4">
-        <v>1463.928359</v>
+        <v>1463.894219</v>
       </c>
       <c r="M4">
-        <v>1466.716719</v>
+        <v>1466.7293749999999</v>
       </c>
       <c r="N4">
-        <v>1473.391797</v>
+        <v>1473.1523440000001</v>
       </c>
       <c r="O4">
-        <v>1480.9275</v>
+        <v>1482.0299219999999</v>
       </c>
       <c r="P4">
-        <v>1488.587266</v>
+        <v>1491.412969</v>
       </c>
       <c r="Q4">
-        <v>1483.4296879999999</v>
+        <v>1482.9314059999999</v>
       </c>
       <c r="R4">
-        <v>1523.444375</v>
+        <v>1523.5215229999999</v>
       </c>
       <c r="S4">
-        <v>1524.7361330000001</v>
+        <v>1524.872734</v>
       </c>
       <c r="T4">
-        <v>1533.818867</v>
+        <v>1534.5662110000001</v>
       </c>
       <c r="U4">
-        <v>1532.775977</v>
+        <v>1532.9946090000001</v>
       </c>
       <c r="V4">
-        <v>1497.8057812500001</v>
+        <v>1498.0477734374999</v>
       </c>
       <c r="W4">
-        <v>1491.8614062500001</v>
+        <v>1491.8169531250001</v>
       </c>
       <c r="X4">
-        <v>1484.1343359375001</v>
+        <v>1484.0941015625001</v>
       </c>
       <c r="Y4">
-        <v>1487.3158203124999</v>
+        <v>1487.6765625</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>1512.273516</v>
+        <v>1512.1807815</v>
       </c>
       <c r="C5">
-        <v>1516.212227</v>
+        <v>1519.9593359999999</v>
       </c>
       <c r="D5">
-        <v>1528.5941800000001</v>
+        <v>1537.3548635</v>
       </c>
       <c r="E5">
-        <v>1526.1616409999999</v>
+        <v>1526.732051</v>
       </c>
       <c r="F5">
-        <v>1474.271328</v>
+        <v>1473.5428904999999</v>
       </c>
       <c r="G5">
-        <v>1476.422773</v>
+        <v>1476.8904885000002</v>
       </c>
       <c r="H5">
-        <v>1486.7663669999999</v>
+        <v>1490.6127735</v>
       </c>
       <c r="I5">
-        <v>1482.5261720000001</v>
+        <v>1481.864004</v>
       </c>
       <c r="J5">
-        <v>1472.1064060000001</v>
+        <v>1472.1244919999999</v>
       </c>
       <c r="K5">
-        <v>1470.970039</v>
+        <v>1470.8626955</v>
       </c>
       <c r="L5">
-        <v>1463.674258</v>
+        <v>1463.9112890000001</v>
       </c>
       <c r="M5">
-        <v>1466.6757419999999</v>
+        <v>1466.723047</v>
       </c>
       <c r="N5">
-        <v>1473.932969</v>
+        <v>1473.2720705000002</v>
       </c>
       <c r="O5">
-        <v>1480.3535159999999</v>
+        <v>1481.478711</v>
       </c>
       <c r="P5">
-        <v>1486.031328</v>
+        <v>1490.0001175</v>
       </c>
       <c r="Q5">
-        <v>1483.595</v>
+        <v>1483.1805469999999</v>
       </c>
       <c r="R5">
-        <v>1523.1022270000001</v>
+        <v>1523.482949</v>
       </c>
       <c r="S5">
-        <v>1523.96668</v>
+        <v>1524.8044335</v>
       </c>
       <c r="T5">
-        <v>1529.9738669999999</v>
+        <v>1534.1925390000001</v>
       </c>
       <c r="U5">
-        <v>1531.663086</v>
+        <v>1532.885293</v>
       </c>
       <c r="V5">
-        <v>1497.2805859375001</v>
+        <v>1497.92677734375</v>
       </c>
       <c r="W5">
-        <v>1491.9354687499999</v>
+        <v>1491.8391796875001</v>
       </c>
       <c r="X5">
-        <v>1484.118203125</v>
+        <v>1484.11421875</v>
       </c>
       <c r="Y5">
-        <v>1487.2274609374999</v>
+        <v>1487.4961914062501</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>1512.465273</v>
+        <v>1512.222188</v>
       </c>
       <c r="C6">
-        <v>1513.3691409999999</v>
+        <v>1518.854102</v>
       </c>
       <c r="D6">
-        <v>1517.786484</v>
+        <v>1535.819297</v>
       </c>
       <c r="E6">
-        <v>1521.349297</v>
+        <v>1526.6780859999999</v>
       </c>
       <c r="F6">
-        <v>1475.117383</v>
+        <v>1473.786445</v>
       </c>
       <c r="G6">
-        <v>1476.1859770000001</v>
+        <v>1476.770469</v>
       </c>
       <c r="H6">
-        <v>1482.8298830000001</v>
+        <v>1489.571719</v>
       </c>
       <c r="I6">
-        <v>1482.896172</v>
+        <v>1482.143867</v>
       </c>
       <c r="J6">
-        <v>1471.131523</v>
+        <v>1472.135078</v>
       </c>
       <c r="K6">
-        <v>1470.440625</v>
+        <v>1470.907852</v>
       </c>
       <c r="L6">
-        <v>1463.768867</v>
+        <v>1463.928359</v>
       </c>
       <c r="M6">
-        <v>1466.0944919999999</v>
+        <v>1466.716719</v>
       </c>
       <c r="N6">
-        <v>1475.27125</v>
+        <v>1473.391797</v>
       </c>
       <c r="O6">
-        <v>1479.461953</v>
+        <v>1480.9275</v>
       </c>
       <c r="P6">
-        <v>1482.6244529999999</v>
+        <v>1488.587266</v>
       </c>
       <c r="Q6">
-        <v>1484.245547</v>
+        <v>1483.4296879999999</v>
       </c>
       <c r="R6">
-        <v>1521.6816799999999</v>
+        <v>1523.444375</v>
       </c>
       <c r="S6">
-        <v>1520.728867</v>
+        <v>1524.7361330000001</v>
       </c>
       <c r="T6">
-        <v>1521.773242</v>
+        <v>1533.818867</v>
       </c>
       <c r="U6">
-        <v>1524.978359</v>
+        <v>1532.775977</v>
       </c>
       <c r="V6">
-        <v>1494.409921875</v>
+        <v>1497.8057812500001</v>
       </c>
       <c r="W6">
-        <v>1492.0413281250001</v>
+        <v>1491.8614062500001</v>
       </c>
       <c r="X6">
-        <v>1484.4277734375</v>
+        <v>1484.1343359375001</v>
       </c>
       <c r="Y6">
-        <v>1487.0805078124999</v>
+        <v>1487.3158203124999</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>1512.7958980000001</v>
+        <v>1512.273516</v>
       </c>
       <c r="C7">
-        <v>1512.291289</v>
+        <v>1516.212227</v>
       </c>
       <c r="D7">
-        <v>1514.196406</v>
+        <v>1528.5941800000001</v>
       </c>
       <c r="E7">
-        <v>1515.840469</v>
+        <v>1526.1616409999999</v>
       </c>
       <c r="F7">
-        <v>1476.967695</v>
+        <v>1474.271328</v>
       </c>
       <c r="G7">
-        <v>1476.8006640000001</v>
+        <v>1476.422773</v>
       </c>
       <c r="H7">
-        <v>1481.2262499999999</v>
+        <v>1486.7663669999999</v>
       </c>
       <c r="I7">
-        <v>1483.1432420000001</v>
+        <v>1482.5261720000001</v>
       </c>
       <c r="J7">
-        <v>1468.3367969999999</v>
+        <v>1472.1064060000001</v>
       </c>
       <c r="K7">
-        <v>1470.0382030000001</v>
+        <v>1470.970039</v>
       </c>
       <c r="L7">
-        <v>1463.486641</v>
+        <v>1463.674258</v>
       </c>
       <c r="M7">
-        <v>1465.0263669999999</v>
+        <v>1466.6757419999999</v>
       </c>
       <c r="N7">
-        <v>1476.4621090000001</v>
+        <v>1473.932969</v>
       </c>
       <c r="O7">
-        <v>1478.1396090000001</v>
+        <v>1480.3535159999999</v>
       </c>
       <c r="P7">
-        <v>1479.402891</v>
+        <v>1486.031328</v>
       </c>
       <c r="Q7">
-        <v>1483.119375</v>
+        <v>1483.595</v>
       </c>
       <c r="R7">
-        <v>1518.315977</v>
+        <v>1523.1022270000001</v>
       </c>
       <c r="S7">
-        <v>1517.2796880000001</v>
+        <v>1523.96668</v>
       </c>
       <c r="T7">
-        <v>1517.0253520000001</v>
+        <v>1529.9738669999999</v>
       </c>
       <c r="U7">
-        <v>1517.4333590000001</v>
+        <v>1531.663086</v>
       </c>
       <c r="V7">
-        <v>1487.2205468750001</v>
+        <v>1497.2805859375001</v>
       </c>
       <c r="W7">
-        <v>1490.86796875</v>
+        <v>1491.9354687499999</v>
       </c>
       <c r="X7">
-        <v>1485.2805859375001</v>
+        <v>1484.118203125</v>
       </c>
       <c r="Y7">
-        <v>1484.5416406249999</v>
+        <v>1487.2274609374999</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>1512.945547</v>
+        <v>1512.465273</v>
       </c>
       <c r="C8">
-        <v>1512.1833590000001</v>
+        <v>1513.3691409999999</v>
       </c>
       <c r="D8">
-        <v>1513.1333199999999</v>
+        <v>1517.786484</v>
       </c>
       <c r="E8">
-        <v>1513.961914</v>
+        <v>1521.349297</v>
       </c>
       <c r="F8">
-        <v>1477.9137109999999</v>
+        <v>1475.117383</v>
       </c>
       <c r="G8">
-        <v>1477.29043</v>
+        <v>1476.1859770000001</v>
       </c>
       <c r="H8">
-        <v>1480.556953</v>
+        <v>1482.8298830000001</v>
       </c>
       <c r="I8">
-        <v>1482.8987890000001</v>
+        <v>1482.896172</v>
       </c>
       <c r="J8">
-        <v>1465.5102340000001</v>
+        <v>1471.131523</v>
       </c>
       <c r="K8">
-        <v>1470.338203</v>
+        <v>1470.440625</v>
       </c>
       <c r="L8">
-        <v>1463.827227</v>
+        <v>1463.768867</v>
       </c>
       <c r="M8">
-        <v>1465.115</v>
+        <v>1466.0944919999999</v>
       </c>
       <c r="N8">
-        <v>1477.3219529999999</v>
+        <v>1475.27125</v>
       </c>
       <c r="O8">
-        <v>1477.4092969999999</v>
+        <v>1479.461953</v>
       </c>
       <c r="P8">
-        <v>1477.125078</v>
+        <v>1482.6244529999999</v>
       </c>
       <c r="Q8">
-        <v>1480.3152339999999</v>
+        <v>1484.245547</v>
       </c>
       <c r="R8">
-        <v>1514.9060159999999</v>
+        <v>1521.6816799999999</v>
       </c>
       <c r="S8">
-        <v>1514.305742</v>
+        <v>1520.728867</v>
       </c>
       <c r="T8">
-        <v>1514.193438</v>
+        <v>1521.773242</v>
       </c>
       <c r="U8">
-        <v>1513.7305080000001</v>
+        <v>1524.978359</v>
       </c>
       <c r="V8">
-        <v>1482.3615234375</v>
+        <v>1494.409921875</v>
       </c>
       <c r="W8">
-        <v>1485.1766796874999</v>
+        <v>1492.0413281250001</v>
       </c>
       <c r="X8">
-        <v>1483.6668749999999</v>
+        <v>1484.4277734375</v>
       </c>
       <c r="Y8">
-        <v>1481.940625</v>
+        <v>1487.0805078124999</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="B9">
-        <v>1513.0383589999999</v>
+        <v>1512.7958980000001</v>
       </c>
       <c r="C9">
-        <v>1512.4023050000001</v>
+        <v>1512.291289</v>
       </c>
       <c r="D9">
-        <v>1512.9895309999999</v>
+        <v>1514.196406</v>
       </c>
       <c r="E9">
-        <v>1513.4716020000001</v>
+        <v>1515.840469</v>
       </c>
       <c r="F9">
-        <v>1479.0608199999999</v>
+        <v>1476.967695</v>
       </c>
       <c r="G9">
-        <v>1477.9857810000001</v>
+        <v>1476.8006640000001</v>
       </c>
       <c r="H9">
-        <v>1480.4660160000001</v>
+        <v>1481.2262499999999</v>
       </c>
       <c r="I9">
-        <v>1482.893789</v>
+        <v>1483.1432420000001</v>
       </c>
       <c r="J9">
-        <v>1465.3691409999999</v>
+        <v>1468.3367969999999</v>
       </c>
       <c r="K9">
-        <v>1469.5370700000001</v>
+        <v>1470.0382030000001</v>
       </c>
       <c r="L9">
-        <v>1464.3539450000001</v>
+        <v>1463.486641</v>
       </c>
       <c r="M9">
-        <v>1465.2597659999999</v>
+        <v>1465.0263669999999</v>
       </c>
       <c r="N9">
-        <v>1478.080391</v>
+        <v>1476.4621090000001</v>
       </c>
       <c r="O9">
-        <v>1477.300156</v>
+        <v>1478.1396090000001</v>
       </c>
       <c r="P9">
-        <v>1476.082969</v>
+        <v>1479.402891</v>
       </c>
       <c r="Q9">
-        <v>1478.8367969999999</v>
+        <v>1483.119375</v>
       </c>
       <c r="R9">
-        <v>1512.134141</v>
+        <v>1518.315977</v>
       </c>
       <c r="S9">
-        <v>1512.236406</v>
+        <v>1517.2796880000001</v>
       </c>
       <c r="T9">
-        <v>1511.859453</v>
+        <v>1517.0253520000001</v>
       </c>
       <c r="U9">
-        <v>1511.4394139999999</v>
+        <v>1517.4333590000001</v>
       </c>
       <c r="V9">
-        <v>1480.2336328125</v>
+        <v>1487.2205468750001</v>
       </c>
       <c r="W9">
-        <v>1481.7601953124999</v>
+        <v>1490.86796875</v>
       </c>
       <c r="X9">
-        <v>1481.9255859375</v>
+        <v>1485.2805859375001</v>
       </c>
       <c r="Y9">
-        <v>1480.6675390625001</v>
+        <v>1484.5416406249999</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="B10">
-        <v>1513.3319530000001</v>
+        <v>1512.945547</v>
       </c>
       <c r="C10">
-        <v>1512.6410550000001</v>
+        <v>1512.1833590000001</v>
       </c>
       <c r="D10">
-        <v>1513.0397270000001</v>
+        <v>1513.1333199999999</v>
       </c>
       <c r="E10">
-        <v>1513.334883</v>
+        <v>1513.961914</v>
       </c>
       <c r="F10">
-        <v>1479.7005469999999</v>
+        <v>1477.9137109999999</v>
       </c>
       <c r="G10">
-        <v>1478.5327339999999</v>
+        <v>1477.29043</v>
       </c>
       <c r="H10">
-        <v>1480.3175000000001</v>
+        <v>1480.556953</v>
       </c>
       <c r="I10">
-        <v>1482.862813</v>
+        <v>1482.8987890000001</v>
       </c>
       <c r="J10">
-        <v>1465.8956250000001</v>
+        <v>1465.5102340000001</v>
       </c>
       <c r="K10">
-        <v>1469.236367</v>
+        <v>1470.338203</v>
       </c>
       <c r="L10">
-        <v>1465.659844</v>
+        <v>1463.827227</v>
       </c>
       <c r="M10">
-        <v>1465.418359</v>
+        <v>1465.115</v>
       </c>
       <c r="N10">
-        <v>1478.550234</v>
+        <v>1477.3219529999999</v>
       </c>
       <c r="O10">
-        <v>1477.3667190000001</v>
+        <v>1477.4092969999999</v>
       </c>
       <c r="P10">
-        <v>1475.7248440000001</v>
+        <v>1477.125078</v>
       </c>
       <c r="Q10">
-        <v>1478.1304689999999</v>
+        <v>1480.3152339999999</v>
       </c>
       <c r="R10">
-        <v>1510.2128130000001</v>
+        <v>1514.9060159999999</v>
       </c>
       <c r="S10">
-        <v>1510.0565630000001</v>
+        <v>1514.305742</v>
       </c>
       <c r="T10">
-        <v>1509.872969</v>
+        <v>1514.193438</v>
       </c>
       <c r="U10">
-        <v>1509.8218750000001</v>
+        <v>1513.7305080000001</v>
       </c>
       <c r="V10">
-        <v>1479.1431250000001</v>
+        <v>1482.3615234375</v>
       </c>
       <c r="W10">
-        <v>1480.0795703125</v>
+        <v>1485.1766796874999</v>
       </c>
       <c r="X10">
-        <v>1479.6641796875001</v>
+        <v>1483.6668749999999</v>
       </c>
       <c r="Y10">
-        <v>1479.5258984375</v>
+        <v>1481.940625</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="B11">
-        <v>1513.6962109999999</v>
+        <v>1513.0383589999999</v>
       </c>
       <c r="C11">
-        <v>1513.2103910000001</v>
+        <v>1512.4023050000001</v>
       </c>
       <c r="D11">
-        <v>1513.3568359999999</v>
+        <v>1512.9895309999999</v>
       </c>
       <c r="E11">
-        <v>1513.5104690000001</v>
+        <v>1513.4716020000001</v>
       </c>
       <c r="F11">
-        <v>1480.354609</v>
+        <v>1479.0608199999999</v>
       </c>
       <c r="G11">
-        <v>1478.9312890000001</v>
+        <v>1477.9857810000001</v>
       </c>
       <c r="H11">
-        <v>1480.021992</v>
+        <v>1480.4660160000001</v>
       </c>
       <c r="I11">
-        <v>1483.043672</v>
+        <v>1482.893789</v>
       </c>
       <c r="J11">
-        <v>1466.7619529999999</v>
+        <v>1465.3691409999999</v>
       </c>
       <c r="K11">
-        <v>1470.5885940000001</v>
+        <v>1469.5370700000001</v>
       </c>
       <c r="L11">
-        <v>1467.7663279999999</v>
+        <v>1464.3539450000001</v>
       </c>
       <c r="M11">
-        <v>1466.341289</v>
+        <v>1465.2597659999999</v>
       </c>
       <c r="N11">
-        <v>1479.334844</v>
+        <v>1478.080391</v>
       </c>
       <c r="O11">
-        <v>1477.2762499999999</v>
+        <v>1477.300156</v>
       </c>
       <c r="P11">
-        <v>1475.6624220000001</v>
+        <v>1476.082969</v>
       </c>
       <c r="Q11">
-        <v>1477.6375780000001</v>
+        <v>1478.8367969999999</v>
       </c>
       <c r="R11">
-        <v>1507.4638279999999</v>
+        <v>1512.134141</v>
       </c>
       <c r="S11">
-        <v>1507.601406</v>
+        <v>1512.236406</v>
       </c>
       <c r="T11">
-        <v>1507.5698829999999</v>
+        <v>1511.859453</v>
       </c>
       <c r="U11">
-        <v>1507.189453</v>
+        <v>1511.4394139999999</v>
       </c>
       <c r="V11">
-        <v>1478.5412890625</v>
+        <v>1480.2336328125</v>
       </c>
       <c r="W11">
-        <v>1478.673125</v>
+        <v>1481.7601953124999</v>
       </c>
       <c r="X11">
-        <v>1478.0572265625001</v>
+        <v>1481.9255859375</v>
       </c>
       <c r="Y11">
-        <v>1478.356953125</v>
+        <v>1480.6675390625001</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="B12">
-        <v>1514.141406</v>
+        <v>1513.3319530000001</v>
       </c>
       <c r="C12">
-        <v>1513.78457</v>
+        <v>1512.6410550000001</v>
       </c>
       <c r="D12">
-        <v>1513.794492</v>
+        <v>1513.0397270000001</v>
       </c>
       <c r="E12">
-        <v>1514.0571090000001</v>
+        <v>1513.334883</v>
       </c>
       <c r="F12">
-        <v>1480.9690230000001</v>
+        <v>1479.7005469999999</v>
       </c>
       <c r="G12">
-        <v>1479.3278519999999</v>
+        <v>1478.5327339999999</v>
       </c>
       <c r="H12">
-        <v>1479.6055080000001</v>
+        <v>1480.3175000000001</v>
       </c>
       <c r="I12">
-        <v>1483.1496480000001</v>
+        <v>1482.862813</v>
       </c>
       <c r="J12">
-        <v>1467.4761329999999</v>
+        <v>1465.8956250000001</v>
       </c>
       <c r="K12">
-        <v>1470.7497269999999</v>
+        <v>1469.236367</v>
       </c>
       <c r="L12">
-        <v>1469.3111329999999</v>
+        <v>1465.659844</v>
       </c>
       <c r="M12">
-        <v>1467.7797270000001</v>
+        <v>1465.418359</v>
       </c>
       <c r="N12">
-        <v>1477.3767969999999</v>
+        <v>1478.550234</v>
       </c>
       <c r="O12">
-        <v>1476.467695</v>
+        <v>1477.3667190000001</v>
       </c>
       <c r="P12">
-        <v>1475.7817190000001</v>
+        <v>1475.7248440000001</v>
       </c>
       <c r="Q12">
-        <v>1476.038047</v>
+        <v>1478.1304689999999</v>
       </c>
       <c r="R12">
-        <v>1505.6489059999999</v>
+        <v>1510.2128130000001</v>
       </c>
       <c r="S12">
-        <v>1505.739102</v>
+        <v>1510.0565630000001</v>
       </c>
       <c r="T12">
-        <v>1505.6367969999999</v>
+        <v>1509.872969</v>
       </c>
       <c r="U12">
-        <v>1505.4365230000001</v>
+        <v>1509.8218750000001</v>
       </c>
       <c r="V12">
-        <v>1478.2459375000001</v>
+        <v>1479.1431250000001</v>
       </c>
       <c r="W12">
-        <v>1478.3406640625001</v>
+        <v>1480.0795703125</v>
       </c>
       <c r="X12">
-        <v>1477.86203125</v>
+        <v>1479.6641796875001</v>
       </c>
       <c r="Y12">
-        <v>1478.665078125</v>
+        <v>1479.5258984375</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B13">
-        <v>1514.516523</v>
+        <v>1513.6962109999999</v>
       </c>
       <c r="C13">
-        <v>1514.35</v>
+        <v>1513.2103910000001</v>
       </c>
       <c r="D13">
-        <v>1514.236484</v>
+        <v>1513.3568359999999</v>
       </c>
       <c r="E13">
-        <v>1514.300313</v>
+        <v>1513.5104690000001</v>
       </c>
       <c r="F13">
-        <v>1480.994766</v>
+        <v>1480.354609</v>
       </c>
       <c r="G13">
-        <v>1479.1836330000001</v>
+        <v>1478.9312890000001</v>
       </c>
       <c r="H13">
-        <v>1478.9907029999999</v>
+        <v>1480.021992</v>
       </c>
       <c r="I13">
-        <v>1482.6280859999999</v>
+        <v>1483.043672</v>
       </c>
       <c r="J13">
-        <v>1469.3191019999999</v>
+        <v>1466.7619529999999</v>
       </c>
       <c r="K13">
-        <v>1471.8015230000001</v>
+        <v>1470.5885940000001</v>
       </c>
       <c r="L13">
-        <v>1468.500117</v>
+        <v>1467.7663279999999</v>
       </c>
       <c r="M13">
-        <v>1469.231016</v>
+        <v>1466.341289</v>
       </c>
       <c r="N13">
-        <v>1476.623398</v>
+        <v>1479.334844</v>
       </c>
       <c r="O13">
-        <v>1475.7862110000001</v>
+        <v>1477.2762499999999</v>
       </c>
       <c r="P13">
-        <v>1475.3708200000001</v>
+        <v>1475.6624220000001</v>
       </c>
       <c r="Q13">
-        <v>1475.463477</v>
+        <v>1477.6375780000001</v>
       </c>
       <c r="R13">
-        <v>1504.2089450000001</v>
+        <v>1507.4638279999999</v>
       </c>
       <c r="S13">
-        <v>1504.324492</v>
+        <v>1507.601406</v>
       </c>
       <c r="T13">
-        <v>1503.9147660000001</v>
+        <v>1507.5698829999999</v>
       </c>
       <c r="U13">
-        <v>1503.888516</v>
+        <v>1507.189453</v>
       </c>
       <c r="V13">
-        <v>1478.7901171875001</v>
+        <v>1478.5412890625</v>
       </c>
       <c r="W13">
-        <v>1478.9294921875</v>
+        <v>1478.673125</v>
       </c>
       <c r="X13">
-        <v>1478.8173046874999</v>
+        <v>1478.0572265625001</v>
       </c>
       <c r="Y13">
-        <v>1478.8409765624999</v>
+        <v>1478.356953125</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="B14">
-        <v>1515.0100585</v>
+        <v>1514.141406</v>
       </c>
       <c r="C14">
-        <v>1514.8581835</v>
+        <v>1513.78457</v>
       </c>
       <c r="D14">
-        <v>1514.7195505</v>
+        <v>1513.794492</v>
       </c>
       <c r="E14">
-        <v>1514.8095510000001</v>
+        <v>1514.0571090000001</v>
       </c>
       <c r="F14">
-        <v>1480.8268164999999</v>
+        <v>1480.9690230000001</v>
       </c>
       <c r="G14">
-        <v>1478.917539</v>
+        <v>1479.3278519999999</v>
       </c>
       <c r="H14">
-        <v>1478.551367</v>
+        <v>1479.6055080000001</v>
       </c>
       <c r="I14">
-        <v>1481.9293164999999</v>
+        <v>1483.1496480000001</v>
       </c>
       <c r="J14">
-        <v>1469.7944534999999</v>
+        <v>1467.4761329999999</v>
       </c>
       <c r="K14">
-        <v>1472.1918945</v>
+        <v>1470.7497269999999</v>
       </c>
       <c r="L14">
-        <v>1469.2792380000001</v>
+        <v>1469.3111329999999</v>
       </c>
       <c r="M14">
-        <v>1470.0585550000001</v>
+        <v>1467.7797270000001</v>
       </c>
       <c r="N14">
-        <v>1476.1077339999999</v>
+        <v>1477.3767969999999</v>
       </c>
       <c r="O14">
-        <v>1475.5143945</v>
+        <v>1476.467695</v>
       </c>
       <c r="P14">
-        <v>1475.109277</v>
+        <v>1475.7817190000001</v>
       </c>
       <c r="Q14">
-        <v>1475.2120315</v>
+        <v>1476.038047</v>
       </c>
       <c r="R14">
-        <v>1502.750078</v>
+        <v>1505.6489059999999</v>
       </c>
       <c r="S14">
-        <v>1502.8942380000001</v>
+        <v>1505.739102</v>
       </c>
       <c r="T14">
-        <v>1502.4461524999999</v>
+        <v>1505.6367969999999</v>
       </c>
       <c r="U14">
-        <v>1502.5912304999999</v>
+        <v>1505.4365230000001</v>
       </c>
       <c r="V14">
-        <v>1479.47681640625</v>
+        <v>1478.2459375000001</v>
       </c>
       <c r="W14">
-        <v>1479.6246093750001</v>
+        <v>1478.3406640625001</v>
       </c>
       <c r="X14">
-        <v>1479.49337890625</v>
+        <v>1477.86203125</v>
       </c>
       <c r="Y14">
-        <v>1479.4825585937499</v>
+        <v>1478.665078125</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B15">
-        <v>1515.503594</v>
+        <v>1514.516523</v>
       </c>
       <c r="C15">
-        <v>1515.3663670000001</v>
+        <v>1514.35</v>
       </c>
       <c r="D15">
-        <v>1515.2026169999999</v>
+        <v>1514.236484</v>
       </c>
       <c r="E15">
-        <v>1515.3187889999999</v>
+        <v>1514.300313</v>
       </c>
       <c r="F15">
-        <v>1480.6588670000001</v>
+        <v>1480.994766</v>
       </c>
       <c r="G15">
-        <v>1478.651445</v>
+        <v>1479.1836330000001</v>
       </c>
       <c r="H15">
-        <v>1478.1120309999999</v>
+        <v>1478.9907029999999</v>
       </c>
       <c r="I15">
-        <v>1481.2305469999999</v>
+        <v>1482.6280859999999</v>
       </c>
       <c r="J15">
-        <v>1470.2698049999999</v>
+        <v>1469.3191019999999</v>
       </c>
       <c r="K15">
-        <v>1472.5822659999999</v>
+        <v>1471.8015230000001</v>
       </c>
       <c r="L15">
-        <v>1470.0583590000001</v>
+        <v>1468.500117</v>
       </c>
       <c r="M15">
-        <v>1470.886094</v>
+        <v>1469.231016</v>
       </c>
       <c r="N15">
-        <v>1475.5920699999999</v>
+        <v>1476.623398</v>
       </c>
       <c r="O15">
-        <v>1475.2425780000001</v>
+        <v>1475.7862110000001</v>
       </c>
       <c r="P15">
-        <v>1474.8477339999999</v>
+        <v>1475.3708200000001</v>
       </c>
       <c r="Q15">
-        <v>1474.9605859999999</v>
+        <v>1475.463477</v>
       </c>
       <c r="R15">
-        <v>1501.291211</v>
+        <v>1504.2089450000001</v>
       </c>
       <c r="S15">
-        <v>1501.463984</v>
+        <v>1504.324492</v>
       </c>
       <c r="T15">
-        <v>1500.977539</v>
+        <v>1503.9147660000001</v>
       </c>
       <c r="U15">
-        <v>1501.2939449999999</v>
+        <v>1503.888516</v>
       </c>
       <c r="V15">
-        <v>1480.1635156249999</v>
+        <v>1478.7901171875001</v>
       </c>
       <c r="W15">
-        <v>1480.3197265624999</v>
+        <v>1478.9294921875</v>
       </c>
       <c r="X15">
-        <v>1480.169453125</v>
+        <v>1478.8173046874999</v>
       </c>
       <c r="Y15">
-        <v>1480.1241406250001</v>
+        <v>1478.8409765624999</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="B16">
-        <v>1516.013379</v>
+        <v>1515.0100585</v>
       </c>
       <c r="C16">
-        <v>1515.9086915</v>
+        <v>1514.8581835</v>
       </c>
       <c r="D16">
-        <v>1515.782246</v>
+        <v>1514.7195505</v>
       </c>
       <c r="E16">
-        <v>1515.9096485</v>
+        <v>1514.8095509999998</v>
       </c>
       <c r="F16">
-        <v>1479.513672</v>
+        <v>1480.8268164999999</v>
       </c>
       <c r="G16">
-        <v>1477.6825389999999</v>
+        <v>1478.917539</v>
       </c>
       <c r="H16">
-        <v>1477.354863</v>
+        <v>1478.551367</v>
       </c>
       <c r="I16">
-        <v>1480.1816405</v>
+        <v>1481.9293164999999</v>
       </c>
       <c r="J16">
-        <v>1471.329043</v>
+        <v>1469.7944534999999</v>
       </c>
       <c r="K16">
-        <v>1473.3675395</v>
+        <v>1472.1918945</v>
       </c>
       <c r="L16">
-        <v>1470.7875389999999</v>
+        <v>1469.2792380000001</v>
       </c>
       <c r="M16">
-        <v>1471.7254495</v>
+        <v>1470.0585550000001</v>
       </c>
       <c r="N16">
-        <v>1475.3135155</v>
+        <v>1476.1077339999999</v>
       </c>
       <c r="O16">
-        <v>1474.8881249999999</v>
+        <v>1475.5143945</v>
       </c>
       <c r="P16">
-        <v>1474.5694920000001</v>
+        <v>1475.109277</v>
       </c>
       <c r="Q16">
-        <v>1474.8110744999999</v>
+        <v>1475.2120315</v>
       </c>
       <c r="R16">
-        <v>1499.8724609999999</v>
+        <v>1502.750078</v>
       </c>
       <c r="S16">
-        <v>1499.91957</v>
+        <v>1502.8942379999999</v>
       </c>
       <c r="T16">
-        <v>1499.5458985</v>
+        <v>1502.4461525000002</v>
       </c>
       <c r="U16">
-        <v>1499.9457420000001</v>
+        <v>1502.5912304999999</v>
       </c>
       <c r="V16">
-        <v>1480.4778515625001</v>
+        <v>1479.47681640625</v>
       </c>
       <c r="W16">
-        <v>1480.7025195312499</v>
+        <v>1479.6246093750001</v>
       </c>
       <c r="X16">
-        <v>1480.5711328125001</v>
+        <v>1479.49337890625</v>
       </c>
       <c r="Y16">
-        <v>1480.5255468749999</v>
+        <v>1479.4825585937501</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B17">
-        <v>1516.523164</v>
+        <v>1515.503594</v>
       </c>
       <c r="C17">
-        <v>1516.451016</v>
+        <v>1515.3663670000001</v>
       </c>
       <c r="D17">
-        <v>1516.3618750000001</v>
+        <v>1515.2026169999999</v>
       </c>
       <c r="E17">
-        <v>1516.5005080000001</v>
+        <v>1515.3187889999999</v>
       </c>
       <c r="F17">
-        <v>1478.368477</v>
+        <v>1480.6588670000001</v>
       </c>
       <c r="G17">
-        <v>1476.7136330000001</v>
+        <v>1478.651445</v>
       </c>
       <c r="H17">
-        <v>1476.5976949999999</v>
+        <v>1478.1120309999999</v>
       </c>
       <c r="I17">
-        <v>1479.132734</v>
+        <v>1481.2305469999999</v>
       </c>
       <c r="J17">
-        <v>1472.388281</v>
+        <v>1470.2698049999999</v>
       </c>
       <c r="K17">
-        <v>1474.1528129999999</v>
+        <v>1472.5822659999999</v>
       </c>
       <c r="L17">
-        <v>1471.516719</v>
+        <v>1470.0583590000001</v>
       </c>
       <c r="M17">
-        <v>1472.564805</v>
+        <v>1470.886094</v>
       </c>
       <c r="N17">
-        <v>1475.0349610000001</v>
+        <v>1475.5920699999999</v>
       </c>
       <c r="O17">
-        <v>1474.533672</v>
+        <v>1475.2425780000001</v>
       </c>
       <c r="P17">
-        <v>1474.29125</v>
+        <v>1474.8477339999999</v>
       </c>
       <c r="Q17">
-        <v>1474.6615629999999</v>
+        <v>1474.9605859999999</v>
       </c>
       <c r="R17">
-        <v>1498.4537110000001</v>
+        <v>1501.291211</v>
       </c>
       <c r="S17">
-        <v>1498.3751560000001</v>
+        <v>1501.463984</v>
       </c>
       <c r="T17">
-        <v>1498.1142580000001</v>
+        <v>1500.977539</v>
       </c>
       <c r="U17">
-        <v>1498.5975390000001</v>
+        <v>1501.2939449999999</v>
       </c>
       <c r="V17">
-        <v>1480.7921875</v>
+        <v>1480.1635156249999</v>
       </c>
       <c r="W17">
-        <v>1481.0853125000001</v>
+        <v>1480.3197265624999</v>
       </c>
       <c r="X17">
-        <v>1480.9728124999999</v>
+        <v>1480.169453125</v>
       </c>
       <c r="Y17">
-        <v>1480.926953125</v>
+        <v>1480.1241406250001</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="B18">
-        <v>1517.1454490000001</v>
+        <v>1516.013379</v>
       </c>
       <c r="C18">
-        <v>1517.1143360000001</v>
+        <v>1515.9086915</v>
       </c>
       <c r="D18">
-        <v>1516.8857814999999</v>
+        <v>1515.782246</v>
       </c>
       <c r="E18">
-        <v>1517.1271485</v>
+        <v>1515.9096485</v>
       </c>
       <c r="F18">
-        <v>1476.3881054999999</v>
+        <v>1479.513672</v>
       </c>
       <c r="G18">
-        <v>1475.03</v>
+        <v>1477.6825389999999</v>
       </c>
       <c r="H18">
-        <v>1475.1743750000001</v>
+        <v>1477.354863</v>
       </c>
       <c r="I18">
-        <v>1477.4155075000001</v>
+        <v>1480.1816405</v>
       </c>
       <c r="J18">
-        <v>1472.8697655000001</v>
+        <v>1471.329043</v>
       </c>
       <c r="K18">
-        <v>1474.5950785</v>
+        <v>1473.3675395</v>
       </c>
       <c r="L18">
-        <v>1471.7936135</v>
+        <v>1470.7875389999999</v>
       </c>
       <c r="M18">
-        <v>1473.0950785</v>
+        <v>1471.7254495</v>
       </c>
       <c r="N18">
-        <v>1475.3484375</v>
+        <v>1475.3135155</v>
       </c>
       <c r="O18">
-        <v>1474.8780469999999</v>
+        <v>1474.8881249999999</v>
       </c>
       <c r="P18">
-        <v>1474.721074</v>
+        <v>1474.5694920000001</v>
       </c>
       <c r="Q18">
-        <v>1475.1936525000001</v>
+        <v>1474.8110744999999</v>
       </c>
       <c r="R18">
-        <v>1497.2042775</v>
+        <v>1499.8724609999999</v>
       </c>
       <c r="S18">
-        <v>1497.105742</v>
+        <v>1499.91957</v>
       </c>
       <c r="T18">
-        <v>1497.0359765000001</v>
+        <v>1499.5458985</v>
       </c>
       <c r="U18">
-        <v>1497.3011915</v>
+        <v>1499.9457419999999</v>
       </c>
       <c r="V18">
-        <v>1480.9862499999999</v>
+        <v>1480.4778515624998</v>
       </c>
       <c r="W18">
-        <v>1481.17140625</v>
+        <v>1480.7025195312499</v>
       </c>
       <c r="X18">
-        <v>1480.9155078125</v>
+        <v>1480.5711328124999</v>
       </c>
       <c r="Y18">
-        <v>1480.93673828125</v>
+        <v>1480.5255468750001</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B19">
-        <v>1517.767734</v>
+        <v>1516.523164</v>
       </c>
       <c r="C19">
-        <v>1517.777656</v>
+        <v>1516.451016</v>
       </c>
       <c r="D19">
-        <v>1517.409688</v>
+        <v>1516.3618750000001</v>
       </c>
       <c r="E19">
-        <v>1517.7537890000001</v>
+        <v>1516.5005080000001</v>
       </c>
       <c r="F19">
-        <v>1474.4077339999999</v>
+        <v>1478.368477</v>
       </c>
       <c r="G19">
-        <v>1473.3463670000001</v>
+        <v>1476.7136330000001</v>
       </c>
       <c r="H19">
-        <v>1473.751055</v>
+        <v>1476.5976949999999</v>
       </c>
       <c r="I19">
-        <v>1475.698281</v>
+        <v>1479.132734</v>
       </c>
       <c r="J19">
-        <v>1473.3512499999999</v>
+        <v>1472.388281</v>
       </c>
       <c r="K19">
-        <v>1475.0373440000001</v>
+        <v>1474.1528129999999</v>
       </c>
       <c r="L19">
-        <v>1472.070508</v>
+        <v>1471.516719</v>
       </c>
       <c r="M19">
-        <v>1473.625352</v>
+        <v>1472.564805</v>
       </c>
       <c r="N19">
-        <v>1475.661914</v>
+        <v>1475.0349610000001</v>
       </c>
       <c r="O19">
-        <v>1475.2224220000001</v>
+        <v>1474.533672</v>
       </c>
       <c r="P19">
-        <v>1475.1508980000001</v>
+        <v>1474.29125</v>
       </c>
       <c r="Q19">
-        <v>1475.7257420000001</v>
+        <v>1474.6615629999999</v>
       </c>
       <c r="R19">
-        <v>1495.9548440000001</v>
+        <v>1498.4537110000001</v>
       </c>
       <c r="S19">
-        <v>1495.8363280000001</v>
+        <v>1498.3751560000001</v>
       </c>
       <c r="T19">
-        <v>1495.9576950000001</v>
+        <v>1498.1142580000001</v>
       </c>
       <c r="U19">
-        <v>1496.004844</v>
+        <v>1498.5975390000001</v>
       </c>
       <c r="V19">
-        <v>1481.1803124999999</v>
+        <v>1480.7921875</v>
       </c>
       <c r="W19">
-        <v>1481.2574999999999</v>
+        <v>1481.0853125000001</v>
       </c>
       <c r="X19">
-        <v>1480.858203125</v>
+        <v>1480.9728124999999</v>
       </c>
       <c r="Y19">
-        <v>1480.9465234375</v>
+        <v>1480.926953125</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="B20">
-        <v>1518.3868944999999</v>
+        <v>1517.1454490000001</v>
       </c>
       <c r="C20">
-        <v>1518.360371</v>
+        <v>1517.1143360000001</v>
       </c>
       <c r="D20">
-        <v>1518.21127</v>
+        <v>1516.8857815000001</v>
       </c>
       <c r="E20">
-        <v>1518.3868749999999</v>
+        <v>1517.1271485000002</v>
       </c>
       <c r="F20">
-        <v>1472.5625</v>
+        <v>1476.3881054999999</v>
       </c>
       <c r="G20">
-        <v>1471.2070699999999</v>
+        <v>1475.0300000000002</v>
       </c>
       <c r="H20">
-        <v>1471.586309</v>
+        <v>1475.1743750000001</v>
       </c>
       <c r="I20">
-        <v>1473.4102929999999</v>
+        <v>1477.4155074999999</v>
       </c>
       <c r="J20">
-        <v>1473.3871095</v>
+        <v>1472.8697655000001</v>
       </c>
       <c r="K20">
-        <v>1475.0689064999999</v>
+        <v>1474.5950785</v>
       </c>
       <c r="L20">
-        <v>1473.0569335</v>
+        <v>1471.7936135</v>
       </c>
       <c r="M20">
-        <v>1474.1133594999999</v>
+        <v>1473.0950785</v>
       </c>
       <c r="N20">
-        <v>1476.0782225</v>
+        <v>1475.3484375</v>
       </c>
       <c r="O20">
-        <v>1475.649883</v>
+        <v>1474.8780470000002</v>
       </c>
       <c r="P20">
-        <v>1475.4968555</v>
+        <v>1474.721074</v>
       </c>
       <c r="Q20">
-        <v>1476.101367</v>
+        <v>1475.1936525000001</v>
       </c>
       <c r="R20">
-        <v>1494.96</v>
+        <v>1497.2042775</v>
       </c>
       <c r="S20">
-        <v>1494.8534179999999</v>
+        <v>1497.1057420000002</v>
       </c>
       <c r="T20">
-        <v>1494.8388084999999</v>
+        <v>1497.0359765000001</v>
       </c>
       <c r="U20">
-        <v>1494.8987500000001</v>
+        <v>1497.3011915000002</v>
       </c>
       <c r="V20">
-        <v>1481.1761328125001</v>
+        <v>1480.9862499999999</v>
       </c>
       <c r="W20">
-        <v>1481.2382421875</v>
+        <v>1481.17140625</v>
       </c>
       <c r="X20">
-        <v>1480.91255859375</v>
+        <v>1480.9155078125</v>
       </c>
       <c r="Y20">
-        <v>1481.00341796875</v>
+        <v>1480.93673828125</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="B21">
-        <v>1519.0060550000001</v>
+        <v>1517.767734</v>
       </c>
       <c r="C21">
-        <v>1518.943086</v>
+        <v>1517.777656</v>
       </c>
       <c r="D21">
-        <v>1519.0128520000001</v>
+        <v>1517.409688</v>
       </c>
       <c r="E21">
-        <v>1519.019961</v>
+        <v>1517.7537890000001</v>
       </c>
       <c r="F21">
-        <v>1470.7172660000001</v>
+        <v>1474.4077339999999</v>
       </c>
       <c r="G21">
-        <v>1469.067773</v>
+        <v>1473.3463670000001</v>
       </c>
       <c r="H21">
-        <v>1469.4215630000001</v>
+        <v>1473.751055</v>
       </c>
       <c r="I21">
-        <v>1471.1223050000001</v>
+        <v>1475.698281</v>
       </c>
       <c r="J21">
-        <v>1473.422969</v>
+        <v>1473.3512499999999</v>
       </c>
       <c r="K21">
-        <v>1475.100469</v>
+        <v>1475.0373440000001</v>
       </c>
       <c r="L21">
-        <v>1474.043359</v>
+        <v>1472.070508</v>
       </c>
       <c r="M21">
-        <v>1474.601367</v>
+        <v>1473.625352</v>
       </c>
       <c r="N21">
-        <v>1476.4945310000001</v>
+        <v>1475.661914</v>
       </c>
       <c r="O21">
-        <v>1476.077344</v>
+        <v>1475.2224220000001</v>
       </c>
       <c r="P21">
-        <v>1475.842813</v>
+        <v>1475.1508980000001</v>
       </c>
       <c r="Q21">
-        <v>1476.4769920000001</v>
+        <v>1475.7257420000001</v>
       </c>
       <c r="R21">
-        <v>1493.965156</v>
+        <v>1495.9548440000001</v>
       </c>
       <c r="S21">
-        <v>1493.870508</v>
+        <v>1495.8363280000001</v>
       </c>
       <c r="T21">
-        <v>1493.719922</v>
+        <v>1495.9576950000001</v>
       </c>
       <c r="U21">
-        <v>1493.7926560000001</v>
+        <v>1496.004844</v>
       </c>
       <c r="V21">
-        <v>1481.1719531250001</v>
+        <v>1481.1803124999999</v>
       </c>
       <c r="W21">
-        <v>1481.218984375</v>
+        <v>1481.2574999999999</v>
       </c>
       <c r="X21">
-        <v>1480.9669140625001</v>
+        <v>1480.858203125</v>
       </c>
       <c r="Y21">
-        <v>1481.0603125</v>
+        <v>1480.9465234375</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="B22">
-        <v>1519.770215</v>
+        <v>1518.3868944999999</v>
       </c>
       <c r="C22">
-        <v>1519.6938474999999</v>
+        <v>1518.360371</v>
       </c>
       <c r="D22">
-        <v>1519.7205664999999</v>
+        <v>1518.21127</v>
       </c>
       <c r="E22">
-        <v>1519.794785</v>
+        <v>1518.3868750000001</v>
       </c>
       <c r="F22">
-        <v>1468.1802540000001</v>
+        <v>1472.5625</v>
       </c>
       <c r="G22">
-        <v>1467.1525779999999</v>
+        <v>1471.2070699999999</v>
       </c>
       <c r="H22">
-        <v>1467.6490429999999</v>
+        <v>1471.586309</v>
       </c>
       <c r="I22">
-        <v>1469.775625</v>
+        <v>1473.4102929999999</v>
       </c>
       <c r="J22">
-        <v>1473.8252540000001</v>
+        <v>1473.3871095</v>
       </c>
       <c r="K22">
-        <v>1474.7616210000001</v>
+        <v>1475.0689065000001</v>
       </c>
       <c r="L22">
-        <v>1474.2738280000001</v>
+        <v>1473.0569335</v>
       </c>
       <c r="M22">
-        <v>1474.8601169999999</v>
+        <v>1474.1133595000001</v>
       </c>
       <c r="N22">
-        <v>1476.7236324999999</v>
+        <v>1476.0782225</v>
       </c>
       <c r="O22">
-        <v>1476.4506445</v>
+        <v>1475.649883</v>
       </c>
       <c r="P22">
-        <v>1476.3140825</v>
+        <v>1475.4968555</v>
       </c>
       <c r="Q22">
-        <v>1476.9211325000001</v>
+        <v>1476.1013670000002</v>
       </c>
       <c r="R22">
-        <v>1493.1319335000001</v>
+        <v>1494.96</v>
       </c>
       <c r="S22">
-        <v>1492.9921875</v>
+        <v>1494.8534180000001</v>
       </c>
       <c r="T22">
-        <v>1492.8970704999999</v>
+        <v>1494.8388085000001</v>
       </c>
       <c r="U22">
-        <v>1493.0822654999999</v>
+        <v>1494.8987500000001</v>
       </c>
       <c r="V22">
-        <v>1481.38818359375</v>
+        <v>1481.1761328124999</v>
       </c>
       <c r="W22">
-        <v>1481.43826171875</v>
+        <v>1481.2382421875</v>
       </c>
       <c r="X22">
-        <v>1481.1612695312499</v>
+        <v>1480.91255859375</v>
       </c>
       <c r="Y22">
-        <v>1481.26001953125</v>
+        <v>1481.00341796875</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="B23">
-        <v>1520.534375</v>
+        <v>1519.0060550000001</v>
       </c>
       <c r="C23">
-        <v>1520.4446089999999</v>
+        <v>1518.943086</v>
       </c>
       <c r="D23">
-        <v>1520.428281</v>
+        <v>1519.0128520000001</v>
       </c>
       <c r="E23">
-        <v>1520.5696089999999</v>
+        <v>1519.019961</v>
       </c>
       <c r="F23">
-        <v>1465.6432420000001</v>
+        <v>1470.7172660000001</v>
       </c>
       <c r="G23">
-        <v>1465.2373829999999</v>
+        <v>1469.067773</v>
       </c>
       <c r="H23">
-        <v>1465.8765229999999</v>
+        <v>1469.4215630000001</v>
       </c>
       <c r="I23">
-        <v>1468.4289450000001</v>
+        <v>1471.1223050000001</v>
       </c>
       <c r="J23">
-        <v>1474.227539</v>
+        <v>1473.422969</v>
       </c>
       <c r="K23">
-        <v>1474.422773</v>
+        <v>1475.100469</v>
       </c>
       <c r="L23">
-        <v>1474.504297</v>
+        <v>1474.043359</v>
       </c>
       <c r="M23">
-        <v>1475.1188669999999</v>
+        <v>1474.601367</v>
       </c>
       <c r="N23">
-        <v>1476.952734</v>
+        <v>1476.4945310000001</v>
       </c>
       <c r="O23">
-        <v>1476.8239450000001</v>
+        <v>1476.077344</v>
       </c>
       <c r="P23">
-        <v>1476.7853520000001</v>
+        <v>1475.842813</v>
       </c>
       <c r="Q23">
-        <v>1477.3652729999999</v>
+        <v>1476.4769920000001</v>
       </c>
       <c r="R23">
-        <v>1492.2987109999999</v>
+        <v>1493.965156</v>
       </c>
       <c r="S23">
-        <v>1492.113867</v>
+        <v>1493.870508</v>
       </c>
       <c r="T23">
-        <v>1492.0742190000001</v>
+        <v>1493.719922</v>
       </c>
       <c r="U23">
-        <v>1492.371875</v>
+        <v>1493.7926560000001</v>
       </c>
       <c r="V23">
-        <v>1481.6044140624999</v>
+        <v>1481.1719531250001</v>
       </c>
       <c r="W23">
-        <v>1481.6575390625001</v>
+        <v>1481.218984375</v>
       </c>
       <c r="X23">
-        <v>1481.3556249999999</v>
+        <v>1480.9669140625001</v>
       </c>
       <c r="Y23">
-        <v>1481.4597265625</v>
+        <v>1481.0603125</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="B24">
-        <v>1521.2582614999999</v>
+        <v>1519.770215</v>
       </c>
       <c r="C24">
-        <v>1521.2323240000001</v>
+        <v>1519.6938474999999</v>
       </c>
       <c r="D24">
-        <v>1521.2091989999999</v>
+        <v>1519.7205665000001</v>
       </c>
       <c r="E24">
-        <v>1521.2701950000001</v>
+        <v>1519.794785</v>
       </c>
       <c r="F24">
-        <v>1465.0787110000001</v>
+        <v>1468.1802540000001</v>
       </c>
       <c r="G24">
-        <v>1464.7344925</v>
+        <v>1467.1525779999999</v>
       </c>
       <c r="H24">
-        <v>1465.0337305</v>
+        <v>1467.6490429999999</v>
       </c>
       <c r="I24">
-        <v>1466.9506835</v>
+        <v>1469.7756250000002</v>
       </c>
       <c r="J24">
-        <v>1474.8513865</v>
+        <v>1473.8252539999999</v>
       </c>
       <c r="K24">
-        <v>1474.9796679999999</v>
+        <v>1474.7616210000001</v>
       </c>
       <c r="L24">
-        <v>1474.977578</v>
+        <v>1474.2738279999999</v>
       </c>
       <c r="M24">
-        <v>1475.3697850000001</v>
+        <v>1474.8601169999999</v>
       </c>
       <c r="N24">
-        <v>1477.3989644999999</v>
+        <v>1476.7236324999999</v>
       </c>
       <c r="O24">
-        <v>1477.3309959999999</v>
+        <v>1476.4506445000002</v>
       </c>
       <c r="P24">
-        <v>1477.2515235000001</v>
+        <v>1476.3140825</v>
       </c>
       <c r="Q24">
-        <v>1477.6835739999999</v>
+        <v>1476.9211325000001</v>
       </c>
       <c r="R24">
-        <v>1491.9751759999999</v>
+        <v>1493.1319334999998</v>
       </c>
       <c r="S24">
-        <v>1492.0337890000001</v>
+        <v>1492.9921875</v>
       </c>
       <c r="T24">
-        <v>1491.8491015</v>
+        <v>1492.8970705000002</v>
       </c>
       <c r="U24">
-        <v>1492.0845704999999</v>
+        <v>1493.0822655000002</v>
       </c>
       <c r="V24">
-        <v>1481.3201562500001</v>
+        <v>1481.38818359375</v>
       </c>
       <c r="W24">
-        <v>1481.3959374999999</v>
+        <v>1481.43826171875</v>
       </c>
       <c r="X24">
-        <v>1481.15138671875</v>
+        <v>1481.1612695312501</v>
       </c>
       <c r="Y24">
-        <v>1481.2944140625</v>
+        <v>1481.26001953125</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="B25">
-        <v>1521.9821480000001</v>
+        <v>1520.534375</v>
       </c>
       <c r="C25">
-        <v>1522.020039</v>
+        <v>1520.4446089999999</v>
       </c>
       <c r="D25">
-        <v>1521.9901170000001</v>
+        <v>1520.428281</v>
       </c>
       <c r="E25">
-        <v>1521.970781</v>
+        <v>1520.5696089999999</v>
       </c>
       <c r="F25">
-        <v>1464.5141799999999</v>
+        <v>1465.6432420000001</v>
       </c>
       <c r="G25">
-        <v>1464.2316020000001</v>
+        <v>1465.2373829999999</v>
       </c>
       <c r="H25">
-        <v>1464.190938</v>
+        <v>1465.8765229999999</v>
       </c>
       <c r="I25">
-        <v>1465.4724220000001</v>
+        <v>1468.4289450000001</v>
       </c>
       <c r="J25">
-        <v>1475.475234</v>
+        <v>1474.227539</v>
       </c>
       <c r="K25">
-        <v>1475.5365629999999</v>
+        <v>1474.422773</v>
       </c>
       <c r="L25">
-        <v>1475.450859</v>
+        <v>1474.504297</v>
       </c>
       <c r="M25">
-        <v>1475.620703</v>
+        <v>1475.1188669999999</v>
       </c>
       <c r="N25">
-        <v>1477.8451950000001</v>
+        <v>1476.952734</v>
       </c>
       <c r="O25">
-        <v>1477.838047</v>
+        <v>1476.8239450000001</v>
       </c>
       <c r="P25">
-        <v>1477.717695</v>
+        <v>1476.7853520000001</v>
       </c>
       <c r="Q25">
-        <v>1478.0018749999999</v>
+        <v>1477.3652729999999</v>
       </c>
       <c r="R25">
-        <v>1491.6516409999999</v>
+        <v>1492.2987109999999</v>
       </c>
       <c r="S25">
-        <v>1491.9537110000001</v>
+        <v>1492.113867</v>
       </c>
       <c r="T25">
-        <v>1491.6239840000001</v>
+        <v>1492.0742190000001</v>
       </c>
       <c r="U25">
-        <v>1491.797266</v>
+        <v>1492.371875</v>
       </c>
       <c r="V25">
-        <v>1481.0358984375</v>
+        <v>1481.6044140624999</v>
       </c>
       <c r="W25">
-        <v>1481.1343359375001</v>
+        <v>1481.6575390625001</v>
       </c>
       <c r="X25">
-        <v>1480.9471484374999</v>
+        <v>1481.3556249999999</v>
       </c>
       <c r="Y25">
-        <v>1481.1291015625</v>
+        <v>1481.4597265625</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="B26">
-        <v>1522.744414</v>
+        <v>1521.2582615000001</v>
       </c>
       <c r="C26">
-        <v>1522.7851760000001</v>
+        <v>1521.2323240000001</v>
       </c>
       <c r="D26">
-        <v>1522.7403125000001</v>
+        <v>1521.2091989999999</v>
       </c>
       <c r="E26">
-        <v>1522.8062110000001</v>
+        <v>1521.2701950000001</v>
       </c>
       <c r="F26">
-        <v>1464.2823245</v>
+        <v>1465.0787110000001</v>
       </c>
       <c r="G26">
-        <v>1464.200918</v>
+        <v>1464.7344925</v>
       </c>
       <c r="H26">
-        <v>1464.0230274999999</v>
+        <v>1465.0337304999998</v>
       </c>
       <c r="I26">
-        <v>1464.9803515000001</v>
+        <v>1466.9506835000002</v>
       </c>
       <c r="J26">
-        <v>1475.9346089999999</v>
+        <v>1474.8513865</v>
       </c>
       <c r="K26">
-        <v>1476.1303129999999</v>
+        <v>1474.9796679999999</v>
       </c>
       <c r="L26">
-        <v>1475.7575194999999</v>
+        <v>1474.977578</v>
       </c>
       <c r="M26">
-        <v>1476.0933984999999</v>
+        <v>1475.3697849999999</v>
       </c>
       <c r="N26">
-        <v>1478.2592380000001</v>
+        <v>1477.3989645000001</v>
       </c>
       <c r="O26">
-        <v>1478.2394724999999</v>
+        <v>1477.3309960000001</v>
       </c>
       <c r="P26">
-        <v>1478.1686915</v>
+        <v>1477.2515235000001</v>
       </c>
       <c r="Q26">
-        <v>1478.3829490000001</v>
+        <v>1477.6835739999999</v>
       </c>
       <c r="R26">
-        <v>1491.8273830000001</v>
+        <v>1491.9751759999999</v>
       </c>
       <c r="S26">
-        <v>1492.081426</v>
+        <v>1492.0337890000001</v>
       </c>
       <c r="T26">
-        <v>1491.7361324999999</v>
+        <v>1491.8491015</v>
       </c>
       <c r="U26">
-        <v>1491.8194925</v>
+        <v>1492.0845705000002</v>
       </c>
       <c r="V26">
-        <v>1481.1234570312499</v>
+        <v>1481.3201562499999</v>
       </c>
       <c r="W26">
-        <v>1481.2032812499999</v>
+        <v>1481.3959374999999</v>
       </c>
       <c r="X26">
-        <v>1480.9640039062499</v>
+        <v>1481.15138671875</v>
       </c>
       <c r="Y26">
-        <v>1481.1564257812499</v>
+        <v>1481.2944140625</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="B27">
-        <v>1523.50668</v>
+        <v>1521.9821480000001</v>
       </c>
       <c r="C27">
-        <v>1523.550313</v>
+        <v>1522.020039</v>
       </c>
       <c r="D27">
-        <v>1523.4905080000001</v>
+        <v>1521.9901170000001</v>
       </c>
       <c r="E27">
-        <v>1523.6416409999999</v>
+        <v>1521.970781</v>
       </c>
       <c r="F27">
-        <v>1464.050469</v>
+        <v>1464.5141799999999</v>
       </c>
       <c r="G27">
-        <v>1464.1702339999999</v>
+        <v>1464.2316020000001</v>
       </c>
       <c r="H27">
-        <v>1463.8551170000001</v>
+        <v>1464.190938</v>
       </c>
       <c r="I27">
-        <v>1464.4882809999999</v>
+        <v>1465.4724220000001</v>
       </c>
       <c r="J27">
-        <v>1476.393984</v>
+        <v>1475.475234</v>
       </c>
       <c r="K27">
-        <v>1476.7240629999999</v>
+        <v>1475.5365629999999</v>
       </c>
       <c r="L27">
-        <v>1476.0641800000001</v>
+        <v>1475.450859</v>
       </c>
       <c r="M27">
-        <v>1476.566094</v>
+        <v>1475.620703</v>
       </c>
       <c r="N27">
-        <v>1478.6732810000001</v>
+        <v>1477.8451950000001</v>
       </c>
       <c r="O27">
-        <v>1478.6408980000001</v>
+        <v>1477.838047</v>
       </c>
       <c r="P27">
-        <v>1478.619688</v>
+        <v>1477.717695</v>
       </c>
       <c r="Q27">
-        <v>1478.764023</v>
+        <v>1478.0018749999999</v>
       </c>
       <c r="R27">
-        <v>1492.003125</v>
+        <v>1491.6516409999999</v>
       </c>
       <c r="S27">
-        <v>1492.209141</v>
+        <v>1491.9537110000001</v>
       </c>
       <c r="T27">
-        <v>1491.848281</v>
+        <v>1491.6239840000001</v>
       </c>
       <c r="U27">
-        <v>1491.841719</v>
+        <v>1491.797266</v>
       </c>
       <c r="V27">
-        <v>1481.2110156250001</v>
+        <v>1481.0358984375</v>
       </c>
       <c r="W27">
-        <v>1481.2722265625</v>
+        <v>1481.1343359375001</v>
       </c>
       <c r="X27">
-        <v>1480.9808593749999</v>
+        <v>1480.9471484374999</v>
       </c>
       <c r="Y27">
-        <v>1481.1837499999999</v>
+        <v>1481.1291015625</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="B28">
-        <v>1524.3022464999999</v>
+        <v>1522.744414</v>
       </c>
       <c r="C28">
-        <v>1524.3734770000001</v>
+        <v>1522.7851759999999</v>
       </c>
       <c r="D28">
-        <v>1524.3079299999999</v>
+        <v>1522.7403125000001</v>
       </c>
       <c r="E28">
-        <v>1524.4506644999999</v>
+        <v>1522.8062110000001</v>
       </c>
       <c r="F28">
-        <v>1464.380547</v>
+        <v>1464.2823245</v>
       </c>
       <c r="G28">
-        <v>1464.4809375</v>
+        <v>1464.200918</v>
       </c>
       <c r="H28">
-        <v>1464.3630275</v>
+        <v>1464.0230274999999</v>
       </c>
       <c r="I28">
-        <v>1464.6075390000001</v>
+        <v>1464.9803514999999</v>
       </c>
       <c r="J28">
-        <v>1476.853574</v>
+        <v>1475.9346089999999</v>
       </c>
       <c r="K28">
-        <v>1477.0881055</v>
+        <v>1476.1303129999999</v>
       </c>
       <c r="L28">
-        <v>1476.8118945000001</v>
+        <v>1475.7575194999999</v>
       </c>
       <c r="M28">
-        <v>1477.1178124999999</v>
+        <v>1476.0933985000001</v>
       </c>
       <c r="N28">
-        <v>1479.1371875</v>
+        <v>1478.2592380000001</v>
       </c>
       <c r="O28">
-        <v>1479.0790625</v>
+        <v>1478.2394724999999</v>
       </c>
       <c r="P28">
-        <v>1479.1106055</v>
+        <v>1478.1686915</v>
       </c>
       <c r="Q28">
-        <v>1479.2394139999999</v>
+        <v>1478.3829489999998</v>
       </c>
       <c r="R28">
-        <v>1492.2425390000001</v>
+        <v>1491.8273829999998</v>
       </c>
       <c r="S28">
-        <v>1492.417383</v>
+        <v>1492.0814260000002</v>
       </c>
       <c r="T28">
-        <v>1492.1945700000001</v>
+        <v>1491.7361325000002</v>
       </c>
       <c r="U28">
-        <v>1492.0911719999999</v>
+        <v>1491.8194925</v>
       </c>
       <c r="V28">
-        <v>1481.3721875000001</v>
+        <v>1481.1234570312499</v>
       </c>
       <c r="W28">
-        <v>1481.4353125</v>
+        <v>1481.2032812500001</v>
       </c>
       <c r="X28">
-        <v>1481.2051367187501</v>
+        <v>1480.9640039062499</v>
       </c>
       <c r="Y28">
-        <v>1481.3370507812499</v>
+        <v>1481.1564257812499</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="B29">
-        <v>1525.0978130000001</v>
+        <v>1523.50668</v>
       </c>
       <c r="C29">
-        <v>1525.196641</v>
+        <v>1523.550313</v>
       </c>
       <c r="D29">
-        <v>1525.125352</v>
+        <v>1523.4905080000001</v>
       </c>
       <c r="E29">
-        <v>1525.2596880000001</v>
+        <v>1523.6416409999999</v>
       </c>
       <c r="F29">
-        <v>1464.7106249999999</v>
+        <v>1464.050469</v>
       </c>
       <c r="G29">
-        <v>1464.791641</v>
+        <v>1464.1702339999999</v>
       </c>
       <c r="H29">
-        <v>1464.870938</v>
+        <v>1463.8551170000001</v>
       </c>
       <c r="I29">
-        <v>1464.726797</v>
+        <v>1464.4882809999999</v>
       </c>
       <c r="J29">
-        <v>1477.3131639999999</v>
+        <v>1476.393984</v>
       </c>
       <c r="K29">
-        <v>1477.4521480000001</v>
+        <v>1476.7240629999999</v>
       </c>
       <c r="L29">
-        <v>1477.5596089999999</v>
+        <v>1476.0641800000001</v>
       </c>
       <c r="M29">
-        <v>1477.669531</v>
+        <v>1476.566094</v>
       </c>
       <c r="N29">
-        <v>1479.6010940000001</v>
+        <v>1478.6732810000001</v>
       </c>
       <c r="O29">
-        <v>1479.517227</v>
+        <v>1478.6408980000001</v>
       </c>
       <c r="P29">
-        <v>1479.601523</v>
+        <v>1478.619688</v>
       </c>
       <c r="Q29">
-        <v>1479.7148050000001</v>
+        <v>1478.764023</v>
       </c>
       <c r="R29">
-        <v>1492.481953</v>
+        <v>1492.003125</v>
       </c>
       <c r="S29">
-        <v>1492.6256249999999</v>
+        <v>1492.209141</v>
       </c>
       <c r="T29">
-        <v>1492.540859</v>
+        <v>1491.848281</v>
       </c>
       <c r="U29">
-        <v>1492.340625</v>
+        <v>1491.841719</v>
       </c>
       <c r="V29">
-        <v>1481.5333593749999</v>
+        <v>1481.2110156250001</v>
       </c>
       <c r="W29">
-        <v>1481.5983984375</v>
+        <v>1481.2722265625</v>
       </c>
       <c r="X29">
-        <v>1481.4294140625</v>
+        <v>1480.9808593749999</v>
       </c>
       <c r="Y29">
-        <v>1481.4903515625001</v>
+        <v>1481.1837499999999</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1150</v>
+        <v>1050</v>
       </c>
       <c r="B30">
-        <v>1525.9330665</v>
+        <v>1524.3022464999999</v>
       </c>
       <c r="C30">
-        <v>1526.0188869999999</v>
+        <v>1524.3734770000001</v>
       </c>
       <c r="D30">
-        <v>1525.9560355000001</v>
+        <v>1524.3079299999999</v>
       </c>
       <c r="E30">
-        <v>1526.0552735000001</v>
+        <v>1524.4506645000001</v>
       </c>
       <c r="F30">
-        <v>1465.4459959999999</v>
+        <v>1464.380547</v>
       </c>
       <c r="G30">
-        <v>1465.4136524999999</v>
+        <v>1464.4809375</v>
       </c>
       <c r="H30">
-        <v>1465.4426370000001</v>
+        <v>1464.3630275</v>
       </c>
       <c r="I30">
-        <v>1465.3699610000001</v>
+        <v>1464.6075390000001</v>
       </c>
       <c r="J30">
-        <v>1477.8290625</v>
+        <v>1476.853574</v>
       </c>
       <c r="K30">
-        <v>1477.9952929999999</v>
+        <v>1477.0881055</v>
       </c>
       <c r="L30">
-        <v>1477.9313474999999</v>
+        <v>1476.8118945000001</v>
       </c>
       <c r="M30">
-        <v>1478.2385935</v>
+        <v>1477.1178125000001</v>
       </c>
       <c r="N30">
-        <v>1480.0672265000001</v>
+        <v>1479.1371875</v>
       </c>
       <c r="O30">
-        <v>1480.0532035000001</v>
+        <v>1479.0790625</v>
       </c>
       <c r="P30">
-        <v>1480.103398</v>
+        <v>1479.1106055</v>
       </c>
       <c r="Q30">
-        <v>1480.225723</v>
+        <v>1479.2394140000001</v>
       </c>
       <c r="R30">
-        <v>1492.7146095000001</v>
+        <v>1492.2425389999999</v>
       </c>
       <c r="S30">
-        <v>1492.8024805</v>
+        <v>1492.417383</v>
       </c>
       <c r="T30">
-        <v>1492.6823824999999</v>
+        <v>1492.1945700000001</v>
       </c>
       <c r="U30">
-        <v>1492.5907225000001</v>
+        <v>1492.0911719999999</v>
       </c>
       <c r="V30">
-        <v>1481.8746484374999</v>
+        <v>1481.3721875000001</v>
       </c>
       <c r="W30">
-        <v>1481.9328515625</v>
+        <v>1481.4353125</v>
       </c>
       <c r="X30">
-        <v>1481.7254882812499</v>
+        <v>1481.2051367187501</v>
       </c>
       <c r="Y30">
-        <v>1481.8331250000001</v>
+        <v>1481.3370507812501</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="B31">
-        <v>1526.7683199999999</v>
+        <v>1525.0978130000001</v>
       </c>
       <c r="C31">
-        <v>1526.8411329999999</v>
+        <v>1525.196641</v>
       </c>
       <c r="D31">
-        <v>1526.7867189999999</v>
+        <v>1525.125352</v>
       </c>
       <c r="E31">
-        <v>1526.8508589999999</v>
+        <v>1525.2596880000001</v>
       </c>
       <c r="F31">
-        <v>1466.1813669999999</v>
+        <v>1464.7106249999999</v>
       </c>
       <c r="G31">
-        <v>1466.035664</v>
+        <v>1464.791641</v>
       </c>
       <c r="H31">
-        <v>1466.014336</v>
+        <v>1464.870938</v>
       </c>
       <c r="I31">
-        <v>1466.0131249999999</v>
+        <v>1464.726797</v>
       </c>
       <c r="J31">
-        <v>1478.344961</v>
+        <v>1477.3131639999999</v>
       </c>
       <c r="K31">
-        <v>1478.538438</v>
+        <v>1477.4521480000001</v>
       </c>
       <c r="L31">
-        <v>1478.3030859999999</v>
+        <v>1477.5596089999999</v>
       </c>
       <c r="M31">
-        <v>1478.807656</v>
+        <v>1477.669531</v>
       </c>
       <c r="N31">
-        <v>1480.533359</v>
+        <v>1479.6010940000001</v>
       </c>
       <c r="O31">
-        <v>1480.5891799999999</v>
+        <v>1479.517227</v>
       </c>
       <c r="P31">
-        <v>1480.6052729999999</v>
+        <v>1479.601523</v>
       </c>
       <c r="Q31">
-        <v>1480.736641</v>
+        <v>1479.7148050000001</v>
       </c>
       <c r="R31">
-        <v>1492.9472659999999</v>
+        <v>1492.481953</v>
       </c>
       <c r="S31">
-        <v>1492.9793360000001</v>
+        <v>1492.6256249999999</v>
       </c>
       <c r="T31">
-        <v>1492.8239060000001</v>
+        <v>1492.540859</v>
       </c>
       <c r="U31">
-        <v>1492.8408199999999</v>
+        <v>1492.340625</v>
       </c>
       <c r="V31">
-        <v>1482.2159375000001</v>
+        <v>1481.5333593749999</v>
       </c>
       <c r="W31">
-        <v>1482.2673046875</v>
+        <v>1481.5983984375</v>
       </c>
       <c r="X31">
-        <v>1482.0215625000001</v>
+        <v>1481.4294140625</v>
       </c>
       <c r="Y31">
-        <v>1482.1758984375001</v>
+        <v>1481.4903515625001</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1250</v>
+        <v>1150</v>
       </c>
       <c r="B32">
-        <v>1527.590625</v>
+        <v>1525.9330665</v>
       </c>
       <c r="C32">
-        <v>1527.6698635</v>
+        <v>1526.0188869999999</v>
       </c>
       <c r="D32">
-        <v>1527.6401760000001</v>
+        <v>1525.9560354999999</v>
       </c>
       <c r="E32">
-        <v>1527.6459179999999</v>
+        <v>1526.0552735000001</v>
       </c>
       <c r="F32">
-        <v>1466.6745309999999</v>
+        <v>1465.4459959999999</v>
       </c>
       <c r="G32">
-        <v>1466.6342385</v>
+        <v>1465.4136524999999</v>
       </c>
       <c r="H32">
-        <v>1466.5975974999999</v>
+        <v>1465.4426370000001</v>
       </c>
       <c r="I32">
-        <v>1466.6288474999999</v>
+        <v>1465.3699609999999</v>
       </c>
       <c r="J32">
-        <v>1479.0877734999999</v>
+        <v>1477.8290625</v>
       </c>
       <c r="K32">
-        <v>1479.1948635000001</v>
+        <v>1477.9952929999999</v>
       </c>
       <c r="L32">
-        <v>1479.012168</v>
+        <v>1477.9313474999999</v>
       </c>
       <c r="M32">
-        <v>1479.2927345000001</v>
+        <v>1478.2385935</v>
       </c>
       <c r="N32">
-        <v>1481.0516405000001</v>
+        <v>1480.0672265000001</v>
       </c>
       <c r="O32">
-        <v>1481.0794535</v>
+        <v>1480.0532035000001</v>
       </c>
       <c r="P32">
-        <v>1481.090273</v>
+        <v>1480.103398</v>
       </c>
       <c r="Q32">
-        <v>1481.242559</v>
+        <v>1480.225723</v>
       </c>
       <c r="R32">
-        <v>1493.2017189999999</v>
+        <v>1492.7146094999998</v>
       </c>
       <c r="S32">
-        <v>1493.1747654999999</v>
+        <v>1492.8024805</v>
       </c>
       <c r="T32">
-        <v>1493.047656</v>
+        <v>1492.6823825000001</v>
       </c>
       <c r="U32">
-        <v>1493.0004100000001</v>
+        <v>1492.5907225000001</v>
       </c>
       <c r="V32">
-        <v>1482.7379687499999</v>
+        <v>1481.8746484375001</v>
       </c>
       <c r="W32">
-        <v>1482.7879101562501</v>
+        <v>1481.9328515625</v>
       </c>
       <c r="X32">
-        <v>1482.6297070312501</v>
+        <v>1481.7254882812499</v>
       </c>
       <c r="Y32">
-        <v>1482.6956250000001</v>
+        <v>1481.8331250000001</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="B33">
-        <v>1528.41293</v>
+        <v>1526.7683199999999</v>
       </c>
       <c r="C33">
-        <v>1528.4985939999999</v>
+        <v>1526.8411329999999</v>
       </c>
       <c r="D33">
-        <v>1528.493633</v>
+        <v>1526.7867189999999</v>
       </c>
       <c r="E33">
-        <v>1528.440977</v>
+        <v>1526.8508589999999</v>
       </c>
       <c r="F33">
-        <v>1467.1676950000001</v>
+        <v>1466.1813669999999</v>
       </c>
       <c r="G33">
-        <v>1467.2328130000001</v>
+        <v>1466.035664</v>
       </c>
       <c r="H33">
-        <v>1467.1808590000001</v>
+        <v>1466.014336</v>
       </c>
       <c r="I33">
-        <v>1467.2445700000001</v>
+        <v>1466.0131249999999</v>
       </c>
       <c r="J33">
-        <v>1479.830586</v>
+        <v>1478.344961</v>
       </c>
       <c r="K33">
-        <v>1479.851289</v>
+        <v>1478.538438</v>
       </c>
       <c r="L33">
-        <v>1479.7212500000001</v>
+        <v>1478.3030859999999</v>
       </c>
       <c r="M33">
-        <v>1479.7778129999999</v>
+        <v>1478.807656</v>
       </c>
       <c r="N33">
-        <v>1481.5699219999999</v>
+        <v>1480.533359</v>
       </c>
       <c r="O33">
-        <v>1481.5697270000001</v>
+        <v>1480.5891799999999</v>
       </c>
       <c r="P33">
-        <v>1481.5752729999999</v>
+        <v>1480.6052729999999</v>
       </c>
       <c r="Q33">
-        <v>1481.7484770000001</v>
+        <v>1480.736641</v>
       </c>
       <c r="R33">
-        <v>1493.4561719999999</v>
+        <v>1492.9472659999999</v>
       </c>
       <c r="S33">
-        <v>1493.370195</v>
+        <v>1492.9793360000001</v>
       </c>
       <c r="T33">
-        <v>1493.2714060000001</v>
+        <v>1492.8239060000001</v>
       </c>
       <c r="U33">
-        <v>1493.16</v>
+        <v>1492.8408199999999</v>
       </c>
       <c r="V33">
-        <v>1483.26</v>
+        <v>1482.2159375000001</v>
       </c>
       <c r="W33">
-        <v>1483.3085156249999</v>
+        <v>1482.2673046875</v>
       </c>
       <c r="X33">
-        <v>1483.2378515625001</v>
+        <v>1482.0215625000001</v>
       </c>
       <c r="Y33">
-        <v>1483.2153515625</v>
+        <v>1482.1758984375001</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1350</v>
+        <v>1250</v>
       </c>
       <c r="B34">
-        <v>1529.2372069999999</v>
+        <v>1527.5906249999998</v>
       </c>
       <c r="C34">
-        <v>1529.3319925000001</v>
+        <v>1527.6698634999998</v>
       </c>
       <c r="D34">
-        <v>1529.292637</v>
+        <v>1527.6401759999999</v>
       </c>
       <c r="E34">
-        <v>1529.2762895000001</v>
+        <v>1527.6459179999999</v>
       </c>
       <c r="F34">
-        <v>1467.914824</v>
+        <v>1466.6745310000001</v>
       </c>
       <c r="G34">
-        <v>1467.9537895000001</v>
+        <v>1466.6342385</v>
       </c>
       <c r="H34">
-        <v>1467.88582</v>
+        <v>1466.5975975000001</v>
       </c>
       <c r="I34">
-        <v>1467.9238475</v>
+        <v>1466.6288475000001</v>
       </c>
       <c r="J34">
-        <v>1480.5698440000001</v>
+        <v>1479.0877734999999</v>
       </c>
       <c r="K34">
-        <v>1480.6312499999999</v>
+        <v>1479.1948634999999</v>
       </c>
       <c r="L34">
-        <v>1480.3707615000001</v>
+        <v>1479.012168</v>
       </c>
       <c r="M34">
-        <v>1480.5056255</v>
+        <v>1479.2927344999998</v>
       </c>
       <c r="N34">
-        <v>1482.1012499999999</v>
+        <v>1481.0516404999998</v>
       </c>
       <c r="O34">
-        <v>1482.117344</v>
+        <v>1481.0794535</v>
       </c>
       <c r="P34">
-        <v>1482.1235154999999</v>
+        <v>1481.0902729999998</v>
       </c>
       <c r="Q34">
-        <v>1482.240918</v>
+        <v>1481.242559</v>
       </c>
       <c r="R34">
-        <v>1493.5886330000001</v>
+        <v>1493.2017189999999</v>
       </c>
       <c r="S34">
-        <v>1493.3734569999999</v>
+        <v>1493.1747654999999</v>
       </c>
       <c r="T34">
-        <v>1493.4794529999999</v>
+        <v>1493.0476560000002</v>
       </c>
       <c r="U34">
-        <v>1493.386426</v>
+        <v>1493.0004100000001</v>
       </c>
       <c r="V34">
-        <v>1483.8715625</v>
+        <v>1482.7379687500002</v>
       </c>
       <c r="W34">
-        <v>1483.90380859375</v>
+        <v>1482.7879101562498</v>
       </c>
       <c r="X34">
-        <v>1483.79591796875</v>
+        <v>1482.6297070312501</v>
       </c>
       <c r="Y34">
-        <v>1483.8104687499999</v>
+        <v>1482.6956250000001</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="B35">
-        <v>1530.0614840000001</v>
+        <v>1528.41293</v>
       </c>
       <c r="C35">
-        <v>1530.165391</v>
+        <v>1528.4985939999999</v>
       </c>
       <c r="D35">
-        <v>1530.091641</v>
+        <v>1528.493633</v>
       </c>
       <c r="E35">
-        <v>1530.1116019999999</v>
+        <v>1528.440977</v>
       </c>
       <c r="F35">
-        <v>1468.661953</v>
+        <v>1467.1676950000001</v>
       </c>
       <c r="G35">
-        <v>1468.6747660000001</v>
+        <v>1467.2328130000001</v>
       </c>
       <c r="H35">
-        <v>1468.5907810000001</v>
+        <v>1467.1808590000001</v>
       </c>
       <c r="I35">
-        <v>1468.6031250000001</v>
+        <v>1467.2445700000001</v>
       </c>
       <c r="J35">
-        <v>1481.3091019999999</v>
+        <v>1479.830586</v>
       </c>
       <c r="K35">
-        <v>1481.4112110000001</v>
+        <v>1479.851289</v>
       </c>
       <c r="L35">
-        <v>1481.0202730000001</v>
+        <v>1479.7212500000001</v>
       </c>
       <c r="M35">
-        <v>1481.233438</v>
+        <v>1479.7778129999999</v>
       </c>
       <c r="N35">
-        <v>1482.632578</v>
+        <v>1481.5699219999999</v>
       </c>
       <c r="O35">
-        <v>1482.6649609999999</v>
+        <v>1481.5697270000001</v>
       </c>
       <c r="P35">
-        <v>1482.671758</v>
+        <v>1481.5752729999999</v>
       </c>
       <c r="Q35">
-        <v>1482.7333590000001</v>
+        <v>1481.7484770000001</v>
       </c>
       <c r="R35">
-        <v>1493.721094</v>
+        <v>1493.4561719999999</v>
       </c>
       <c r="S35">
-        <v>1493.3767190000001</v>
+        <v>1493.370195</v>
       </c>
       <c r="T35">
-        <v>1493.6875</v>
+        <v>1493.2714060000001</v>
       </c>
       <c r="U35">
-        <v>1493.612852</v>
+        <v>1493.16</v>
       </c>
       <c r="V35">
-        <v>1484.483125</v>
+        <v>1483.26</v>
       </c>
       <c r="W35">
-        <v>1484.4991015625001</v>
+        <v>1483.3085156249999</v>
       </c>
       <c r="X35">
-        <v>1484.353984375</v>
+        <v>1483.2378515625001</v>
       </c>
       <c r="Y35">
-        <v>1484.4055859375001</v>
+        <v>1483.2153515625</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="B36">
-        <v>1530.8956055000001</v>
+        <v>1529.2372070000001</v>
       </c>
       <c r="C36">
-        <v>1530.9715624999999</v>
+        <v>1529.3319925000001</v>
       </c>
       <c r="D36">
-        <v>1530.9170509999999</v>
+        <v>1529.292637</v>
       </c>
       <c r="E36">
-        <v>1530.9906054999999</v>
+        <v>1529.2762895000001</v>
       </c>
       <c r="F36">
-        <v>1469.4187305</v>
+        <v>1467.914824</v>
       </c>
       <c r="G36">
-        <v>1469.3841995</v>
+        <v>1467.9537895000001</v>
       </c>
       <c r="H36">
-        <v>1469.3336325</v>
+        <v>1467.88582</v>
       </c>
       <c r="I36">
-        <v>1469.271504</v>
+        <v>1467.9238475000002</v>
       </c>
       <c r="J36">
-        <v>1481.8000199999999</v>
+        <v>1480.5698440000001</v>
       </c>
       <c r="K36">
-        <v>1481.8980859999999</v>
+        <v>1480.6312499999999</v>
       </c>
       <c r="L36">
-        <v>1481.6895115</v>
+        <v>1480.3707615000001</v>
       </c>
       <c r="M36">
-        <v>1481.7530274999999</v>
+        <v>1480.5056255</v>
       </c>
       <c r="N36">
-        <v>1483.1761915</v>
+        <v>1482.1012499999999</v>
       </c>
       <c r="O36">
-        <v>1483.231133</v>
+        <v>1482.117344</v>
       </c>
       <c r="P36">
-        <v>1483.2496679999999</v>
+        <v>1482.1235154999999</v>
       </c>
       <c r="Q36">
-        <v>1483.2312305</v>
+        <v>1482.240918</v>
       </c>
       <c r="R36">
-        <v>1493.851582</v>
+        <v>1493.5886329999998</v>
       </c>
       <c r="S36">
-        <v>1493.4649804999999</v>
+        <v>1493.3734570000001</v>
       </c>
       <c r="T36">
-        <v>1493.65959</v>
+        <v>1493.4794529999999</v>
       </c>
       <c r="U36">
-        <v>1493.8061135</v>
+        <v>1493.386426</v>
       </c>
       <c r="V36">
-        <v>1485.0437890625001</v>
+        <v>1483.8715625</v>
       </c>
       <c r="W36">
-        <v>1485.0538867187499</v>
+        <v>1483.90380859375</v>
       </c>
       <c r="X36">
-        <v>1484.9132031250001</v>
+        <v>1483.79591796875</v>
       </c>
       <c r="Y36">
-        <v>1484.9884374999999</v>
+        <v>1483.8104687499999</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>1400</v>
+      </c>
+      <c r="B37">
+        <v>1530.0614840000001</v>
+      </c>
+      <c r="C37">
+        <v>1530.165391</v>
+      </c>
+      <c r="D37">
+        <v>1530.091641</v>
+      </c>
+      <c r="E37">
+        <v>1530.1116019999999</v>
+      </c>
+      <c r="F37">
+        <v>1468.661953</v>
+      </c>
+      <c r="G37">
+        <v>1468.6747660000001</v>
+      </c>
+      <c r="H37">
+        <v>1468.5907810000001</v>
+      </c>
+      <c r="I37">
+        <v>1468.6031250000001</v>
+      </c>
+      <c r="J37">
+        <v>1481.3091019999999</v>
+      </c>
+      <c r="K37">
+        <v>1481.4112110000001</v>
+      </c>
+      <c r="L37">
+        <v>1481.0202730000001</v>
+      </c>
+      <c r="M37">
+        <v>1481.233438</v>
+      </c>
+      <c r="N37">
+        <v>1482.632578</v>
+      </c>
+      <c r="O37">
+        <v>1482.6649609999999</v>
+      </c>
+      <c r="P37">
+        <v>1482.671758</v>
+      </c>
+      <c r="Q37">
+        <v>1482.7333590000001</v>
+      </c>
+      <c r="R37">
+        <v>1493.721094</v>
+      </c>
+      <c r="S37">
+        <v>1493.3767190000001</v>
+      </c>
+      <c r="T37">
+        <v>1493.6875</v>
+      </c>
+      <c r="U37">
+        <v>1493.612852</v>
+      </c>
+      <c r="V37">
+        <v>1484.483125</v>
+      </c>
+      <c r="W37">
+        <v>1484.4991015625001</v>
+      </c>
+      <c r="X37">
+        <v>1484.353984375</v>
+      </c>
+      <c r="Y37">
+        <v>1484.4055859375001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1450</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1530.8956054999999</v>
+      </c>
+      <c r="C38">
+        <v>1530.9715624999999</v>
+      </c>
+      <c r="D38">
+        <v>1530.9170509999999</v>
+      </c>
+      <c r="E38">
+        <v>1530.9906055000001</v>
+      </c>
+      <c r="F38">
+        <v>1469.4187305</v>
+      </c>
+      <c r="G38">
+        <v>1469.3841995</v>
+      </c>
+      <c r="H38">
+        <v>1469.3336325</v>
+      </c>
+      <c r="I38">
+        <v>1469.271504</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1481.8000200000001</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1481.8980860000001</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1481.6895115000002</v>
+      </c>
+      <c r="M38">
+        <v>1481.7530274999999</v>
+      </c>
+      <c r="N38">
+        <v>1483.1761915</v>
+      </c>
+      <c r="O38">
+        <v>1483.231133</v>
+      </c>
+      <c r="P38">
+        <v>1483.2496679999999</v>
+      </c>
+      <c r="Q38">
+        <v>1483.2312305</v>
+      </c>
+      <c r="R38">
+        <v>1493.851582</v>
+      </c>
+      <c r="S38">
+        <v>1493.4649804999999</v>
+      </c>
+      <c r="T38">
+        <v>1493.65959</v>
+      </c>
+      <c r="U38">
+        <v>1493.8061135</v>
+      </c>
+      <c r="V38" s="3">
+        <v>1485.0437890624999</v>
+      </c>
+      <c r="W38" s="3">
+        <v>1485.0538867187502</v>
+      </c>
+      <c r="X38">
+        <v>1484.9132031250001</v>
+      </c>
+      <c r="Y38">
+        <v>1484.9884375000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>1500</v>
       </c>
-      <c r="B37">
+      <c r="B39" s="3">
         <v>1531.7297269999999</v>
       </c>
-      <c r="C37">
+      <c r="C39">
         <v>1531.777734</v>
       </c>
-      <c r="D37">
+      <c r="D39">
         <v>1531.742461</v>
       </c>
-      <c r="E37">
+      <c r="E39">
         <v>1531.8696090000001</v>
       </c>
-      <c r="F37">
+      <c r="F39">
         <v>1470.175508</v>
       </c>
-      <c r="G37">
+      <c r="G39">
         <v>1470.093633</v>
       </c>
-      <c r="H37">
+      <c r="H39">
         <v>1470.0764839999999</v>
       </c>
-      <c r="I37">
+      <c r="I39">
         <v>1469.939883</v>
       </c>
-      <c r="J37">
+      <c r="J39" s="3">
         <v>1482.2909380000001</v>
       </c>
-      <c r="K37">
+      <c r="K39" s="3">
         <v>1482.384961</v>
       </c>
-      <c r="L37">
+      <c r="L39" s="3">
         <v>1482.3587500000001</v>
       </c>
-      <c r="M37">
+      <c r="M39">
         <v>1482.2726170000001</v>
       </c>
-      <c r="N37">
+      <c r="N39">
         <v>1483.719805</v>
       </c>
-      <c r="O37">
+      <c r="O39">
         <v>1483.7973050000001</v>
       </c>
-      <c r="P37">
+      <c r="P39">
         <v>1483.8275779999999</v>
       </c>
-      <c r="Q37">
+      <c r="Q39">
         <v>1483.729102</v>
       </c>
-      <c r="R37">
+      <c r="R39">
         <v>1493.98207</v>
       </c>
-      <c r="S37">
+      <c r="S39">
         <v>1493.553242</v>
       </c>
-      <c r="T37">
+      <c r="T39">
         <v>1493.63168</v>
       </c>
-      <c r="U37">
+      <c r="U39">
         <v>1493.9993750000001</v>
       </c>
-      <c r="V37">
+      <c r="V39" s="3">
         <v>1485.604453125</v>
       </c>
-      <c r="W37">
+      <c r="W39" s="3">
         <v>1485.608671875</v>
       </c>
-      <c r="X37">
+      <c r="X39">
         <v>1485.472421875</v>
       </c>
-      <c r="Y37">
+      <c r="Y39">
         <v>1485.5712890625</v>
       </c>
     </row>
@@ -23369,7 +23523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25310,10 +25466,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Y37"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:Y39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25321,3140 +25477,3342 @@
     <col min="2" max="2" width="17.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1512.037617</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>1522.055742</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>1539.6303909999999</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>1526.7930469999999</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>1472.893945</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>1477.1756250000001</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>1492.2017969999999</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>1481.1791410000001</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>1472.2795309999999</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>1470.2173439999999</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>1464.037969</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>1466.6423050000001</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>1472.9099220000001</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>1482.9482029999999</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>1493.6534380000001</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>1482.8664839999999</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="3">
         <v>1523.4261329999999</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="3">
         <v>1524.964688</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="3">
         <v>1534.658711</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="3">
         <v>1532.9132810000001</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="3">
         <v>1498.3096484375001</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="3">
         <v>1491.74</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="3">
         <v>1484.1678515624999</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="3">
         <v>1487.6858984375001</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <f>(B2+B4)/2</f>
+        <v>1512.0884959999999</v>
+      </c>
+      <c r="C3" s="3">
+        <f>(C2+C4)/2</f>
+        <v>1521.560156</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:Y3" si="0">(D2+D4)/2</f>
+        <v>1539.2604105</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" si="0"/>
+        <v>1526.7895315000001</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
+        <v>1473.0966404999999</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
+        <v>1477.0930665000001</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="0"/>
+        <v>1491.9278125000001</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" si="0"/>
+        <v>1481.3816409999999</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
+        <v>1472.1967184999999</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="0"/>
+        <v>1470.5174414999999</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
+        <v>1463.9660939999999</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" si="0"/>
+        <v>1466.6858400000001</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="0"/>
+        <v>1473.031133</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="0"/>
+        <v>1482.4890624999998</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" si="0"/>
+        <v>1492.5332035000001</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" si="0"/>
+        <v>1482.8989449999999</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" si="0"/>
+        <v>1523.4738279999999</v>
+      </c>
+      <c r="S3" s="3">
+        <f t="shared" si="0"/>
+        <v>1524.918711</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" si="0"/>
+        <v>1534.6124610000002</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" si="0"/>
+        <v>1532.9539450000002</v>
+      </c>
+      <c r="V3" s="3">
+        <f t="shared" si="0"/>
+        <v>1498.1787109375</v>
+      </c>
+      <c r="W3" s="3">
+        <f t="shared" si="0"/>
+        <v>1491.7784765625001</v>
+      </c>
+      <c r="X3" s="3">
+        <f t="shared" si="0"/>
+        <v>1484.1309765625001</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" si="0"/>
+        <v>1487.6812304687501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="3">
         <v>1512.139375</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="3">
         <v>1521.06457</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="3">
         <v>1538.8904299999999</v>
       </c>
-      <c r="E3">
+      <c r="E4" s="3">
         <v>1526.786016</v>
       </c>
-      <c r="F3">
+      <c r="F4" s="3">
         <v>1473.299336</v>
       </c>
-      <c r="G3">
+      <c r="G4" s="3">
         <v>1477.0105080000001</v>
       </c>
-      <c r="H3">
+      <c r="H4" s="3">
         <v>1491.653828</v>
       </c>
-      <c r="I3">
+      <c r="I4" s="3">
         <v>1481.584141</v>
       </c>
-      <c r="J3">
+      <c r="J4" s="3">
         <v>1472.113906</v>
       </c>
-      <c r="K3">
+      <c r="K4" s="3">
         <v>1470.8175389999999</v>
       </c>
-      <c r="L3">
+      <c r="L4" s="3">
         <v>1463.894219</v>
       </c>
-      <c r="M3">
+      <c r="M4" s="3">
         <v>1466.7293749999999</v>
       </c>
-      <c r="N3">
+      <c r="N4" s="3">
         <v>1473.1523440000001</v>
       </c>
-      <c r="O3">
+      <c r="O4" s="3">
         <v>1482.0299219999999</v>
       </c>
-      <c r="P3">
+      <c r="P4" s="3">
         <v>1491.412969</v>
       </c>
-      <c r="Q3">
+      <c r="Q4" s="3">
         <v>1482.9314059999999</v>
       </c>
-      <c r="R3">
+      <c r="R4" s="3">
         <v>1523.5215229999999</v>
       </c>
-      <c r="S3">
+      <c r="S4" s="3">
         <v>1524.872734</v>
       </c>
-      <c r="T3">
+      <c r="T4" s="3">
         <v>1534.5662110000001</v>
       </c>
-      <c r="U3">
+      <c r="U4" s="3">
         <v>1532.9946090000001</v>
       </c>
-      <c r="V3">
+      <c r="V4" s="3">
         <v>1498.0477734374999</v>
       </c>
-      <c r="W3">
+      <c r="W4" s="3">
         <v>1491.8169531250001</v>
       </c>
-      <c r="X3">
+      <c r="X4" s="3">
         <v>1484.0941015625001</v>
       </c>
-      <c r="Y3">
+      <c r="Y4" s="3">
         <v>1487.6765625</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
+        <f>(B4+B6)/2</f>
+        <v>1512.1807815</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:Y5" si="1">(C4+C6)/2</f>
+        <v>1519.9593359999999</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>1537.3548635</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>1526.732051</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>1473.5428904999999</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>1476.8904885000002</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>1490.6127735</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="1"/>
+        <v>1481.864004</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>1472.1244919999999</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="1"/>
+        <v>1470.8626955</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="1"/>
+        <v>1463.9112890000001</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="1"/>
+        <v>1466.723047</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="1"/>
+        <v>1473.2720705000002</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="1"/>
+        <v>1481.478711</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="1"/>
+        <v>1490.0001175</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="1"/>
+        <v>1483.1805469999999</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="1"/>
+        <v>1523.482949</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" si="1"/>
+        <v>1524.8044335</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" si="1"/>
+        <v>1534.1925390000001</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" si="1"/>
+        <v>1532.885293</v>
+      </c>
+      <c r="V5" s="3">
+        <f t="shared" si="1"/>
+        <v>1497.92677734375</v>
+      </c>
+      <c r="W5" s="3">
+        <f t="shared" si="1"/>
+        <v>1491.8391796875001</v>
+      </c>
+      <c r="X5" s="3">
+        <f t="shared" si="1"/>
+        <v>1484.11421875</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="1"/>
+        <v>1487.4961914062501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B6" s="3">
         <v>1512.222188</v>
       </c>
-      <c r="C4">
+      <c r="C6" s="3">
         <v>1518.854102</v>
       </c>
-      <c r="D4">
+      <c r="D6" s="3">
         <v>1535.819297</v>
       </c>
-      <c r="E4">
+      <c r="E6" s="3">
         <v>1526.6780859999999</v>
       </c>
-      <c r="F4">
+      <c r="F6" s="3">
         <v>1473.786445</v>
       </c>
-      <c r="G4">
+      <c r="G6" s="3">
         <v>1476.770469</v>
       </c>
-      <c r="H4">
+      <c r="H6" s="3">
         <v>1489.571719</v>
       </c>
-      <c r="I4">
+      <c r="I6" s="3">
         <v>1482.143867</v>
       </c>
-      <c r="J4">
+      <c r="J6" s="3">
         <v>1472.135078</v>
       </c>
-      <c r="K4">
+      <c r="K6" s="3">
         <v>1470.907852</v>
       </c>
-      <c r="L4">
+      <c r="L6" s="3">
         <v>1463.928359</v>
       </c>
-      <c r="M4">
+      <c r="M6" s="3">
         <v>1466.716719</v>
       </c>
-      <c r="N4">
+      <c r="N6" s="3">
         <v>1473.391797</v>
       </c>
-      <c r="O4">
+      <c r="O6" s="3">
         <v>1480.9275</v>
       </c>
-      <c r="P4">
+      <c r="P6" s="3">
         <v>1488.587266</v>
       </c>
-      <c r="Q4">
+      <c r="Q6" s="3">
         <v>1483.4296879999999</v>
       </c>
-      <c r="R4">
+      <c r="R6" s="3">
         <v>1523.444375</v>
       </c>
-      <c r="S4">
+      <c r="S6" s="3">
         <v>1524.7361330000001</v>
       </c>
-      <c r="T4">
+      <c r="T6" s="3">
         <v>1533.818867</v>
       </c>
-      <c r="U4">
+      <c r="U6" s="3">
         <v>1532.775977</v>
       </c>
-      <c r="V4">
+      <c r="V6" s="3">
         <v>1497.8057812500001</v>
       </c>
-      <c r="W4">
+      <c r="W6" s="3">
         <v>1491.8614062500001</v>
       </c>
-      <c r="X4">
+      <c r="X6" s="3">
         <v>1484.1343359375001</v>
       </c>
-      <c r="Y4">
+      <c r="Y6" s="3">
         <v>1487.3158203124999</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="7" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>30</v>
       </c>
-      <c r="B5">
+      <c r="B7" s="3">
         <v>1512.273516</v>
       </c>
-      <c r="C5">
+      <c r="C7" s="3">
         <v>1516.212227</v>
       </c>
-      <c r="D5">
+      <c r="D7" s="3">
         <v>1528.5941800000001</v>
       </c>
-      <c r="E5">
+      <c r="E7" s="3">
         <v>1526.1616409999999</v>
       </c>
-      <c r="F5">
+      <c r="F7" s="3">
         <v>1474.271328</v>
       </c>
-      <c r="G5">
+      <c r="G7" s="3">
         <v>1476.422773</v>
       </c>
-      <c r="H5">
+      <c r="H7" s="3">
         <v>1486.7663669999999</v>
       </c>
-      <c r="I5">
+      <c r="I7" s="3">
         <v>1482.5261720000001</v>
       </c>
-      <c r="J5">
+      <c r="J7" s="3">
         <v>1472.1064060000001</v>
       </c>
-      <c r="K5">
+      <c r="K7" s="3">
         <v>1470.970039</v>
       </c>
-      <c r="L5">
+      <c r="L7" s="3">
         <v>1463.674258</v>
       </c>
-      <c r="M5">
+      <c r="M7" s="3">
         <v>1466.6757419999999</v>
       </c>
-      <c r="N5">
+      <c r="N7" s="3">
         <v>1473.932969</v>
       </c>
-      <c r="O5">
+      <c r="O7" s="3">
         <v>1480.3535159999999</v>
       </c>
-      <c r="P5">
+      <c r="P7" s="3">
         <v>1486.031328</v>
       </c>
-      <c r="Q5">
+      <c r="Q7" s="3">
         <v>1483.595</v>
       </c>
-      <c r="R5">
+      <c r="R7" s="3">
         <v>1523.1022270000001</v>
       </c>
-      <c r="S5">
+      <c r="S7" s="3">
         <v>1523.96668</v>
       </c>
-      <c r="T5">
+      <c r="T7" s="3">
         <v>1529.9738669999999</v>
       </c>
-      <c r="U5">
+      <c r="U7" s="3">
         <v>1531.663086</v>
       </c>
-      <c r="V5">
+      <c r="V7" s="3">
         <v>1497.2805859375001</v>
       </c>
-      <c r="W5">
+      <c r="W7" s="3">
         <v>1491.9354687499999</v>
       </c>
-      <c r="X5">
+      <c r="X7" s="3">
         <v>1484.118203125</v>
       </c>
-      <c r="Y5">
+      <c r="Y7" s="3">
         <v>1487.2274609374999</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="8" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>50</v>
       </c>
-      <c r="B6">
+      <c r="B8" s="3">
         <v>1512.465273</v>
       </c>
-      <c r="C6">
+      <c r="C8" s="3">
         <v>1513.3691409999999</v>
       </c>
-      <c r="D6">
+      <c r="D8" s="3">
         <v>1517.786484</v>
       </c>
-      <c r="E6">
+      <c r="E8" s="3">
         <v>1521.349297</v>
       </c>
-      <c r="F6">
+      <c r="F8" s="3">
         <v>1475.117383</v>
       </c>
-      <c r="G6">
+      <c r="G8" s="3">
         <v>1476.1859770000001</v>
       </c>
-      <c r="H6">
+      <c r="H8" s="3">
         <v>1482.8298830000001</v>
       </c>
-      <c r="I6">
+      <c r="I8" s="3">
         <v>1482.896172</v>
       </c>
-      <c r="J6">
+      <c r="J8" s="3">
         <v>1471.131523</v>
       </c>
-      <c r="K6">
+      <c r="K8" s="3">
         <v>1470.440625</v>
       </c>
-      <c r="L6">
+      <c r="L8" s="3">
         <v>1463.768867</v>
       </c>
-      <c r="M6">
+      <c r="M8" s="3">
         <v>1466.0944919999999</v>
       </c>
-      <c r="N6">
+      <c r="N8" s="3">
         <v>1475.27125</v>
       </c>
-      <c r="O6">
+      <c r="O8" s="3">
         <v>1479.461953</v>
       </c>
-      <c r="P6">
+      <c r="P8" s="3">
         <v>1482.6244529999999</v>
       </c>
-      <c r="Q6">
+      <c r="Q8" s="3">
         <v>1484.245547</v>
       </c>
-      <c r="R6">
+      <c r="R8" s="3">
         <v>1521.6816799999999</v>
       </c>
-      <c r="S6">
+      <c r="S8" s="3">
         <v>1520.728867</v>
       </c>
-      <c r="T6">
+      <c r="T8" s="3">
         <v>1521.773242</v>
       </c>
-      <c r="U6">
+      <c r="U8" s="3">
         <v>1524.978359</v>
       </c>
-      <c r="V6">
+      <c r="V8" s="3">
         <v>1494.409921875</v>
       </c>
-      <c r="W6">
+      <c r="W8" s="3">
         <v>1492.0413281250001</v>
       </c>
-      <c r="X6">
+      <c r="X8" s="3">
         <v>1484.4277734375</v>
       </c>
-      <c r="Y6">
+      <c r="Y8" s="3">
         <v>1487.0805078124999</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>75</v>
-      </c>
-      <c r="B7">
+    <row r="9" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>70</v>
+      </c>
+      <c r="B9" s="3">
         <v>1512.7958980000001</v>
       </c>
-      <c r="C7">
+      <c r="C9" s="3">
         <v>1512.291289</v>
       </c>
-      <c r="D7">
+      <c r="D9" s="3">
         <v>1514.196406</v>
       </c>
-      <c r="E7">
+      <c r="E9" s="3">
         <v>1515.840469</v>
       </c>
-      <c r="F7">
+      <c r="F9" s="3">
         <v>1476.967695</v>
       </c>
-      <c r="G7">
+      <c r="G9" s="3">
         <v>1476.8006640000001</v>
       </c>
-      <c r="H7">
+      <c r="H9" s="3">
         <v>1481.2262499999999</v>
       </c>
-      <c r="I7">
+      <c r="I9" s="3">
         <v>1483.1432420000001</v>
       </c>
-      <c r="J7">
+      <c r="J9" s="3">
         <v>1468.3367969999999</v>
       </c>
-      <c r="K7">
+      <c r="K9" s="3">
         <v>1470.0382030000001</v>
       </c>
-      <c r="L7">
+      <c r="L9" s="3">
         <v>1463.486641</v>
       </c>
-      <c r="M7">
+      <c r="M9" s="3">
         <v>1465.0263669999999</v>
       </c>
-      <c r="N7">
+      <c r="N9" s="3">
         <v>1476.4621090000001</v>
       </c>
-      <c r="O7">
+      <c r="O9" s="3">
         <v>1478.1396090000001</v>
       </c>
-      <c r="P7">
+      <c r="P9" s="3">
         <v>1479.402891</v>
       </c>
-      <c r="Q7">
+      <c r="Q9" s="3">
         <v>1483.119375</v>
       </c>
-      <c r="R7">
+      <c r="R9" s="3">
         <v>1518.315977</v>
       </c>
-      <c r="S7">
+      <c r="S9" s="3">
         <v>1517.2796880000001</v>
       </c>
-      <c r="T7">
+      <c r="T9" s="3">
         <v>1517.0253520000001</v>
       </c>
-      <c r="U7">
+      <c r="U9" s="3">
         <v>1517.4333590000001</v>
       </c>
-      <c r="V7">
+      <c r="V9" s="3">
         <v>1487.2205468750001</v>
       </c>
-      <c r="W7">
+      <c r="W9" s="3">
         <v>1490.86796875</v>
       </c>
-      <c r="X7">
+      <c r="X9" s="3">
         <v>1485.2805859375001</v>
       </c>
-      <c r="Y7">
+      <c r="Y9" s="3">
         <v>1484.5416406249999</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>100</v>
       </c>
-      <c r="B8">
+      <c r="B10" s="3">
         <v>1512.945547</v>
       </c>
-      <c r="C8">
+      <c r="C10" s="3">
         <v>1512.1833590000001</v>
       </c>
-      <c r="D8">
+      <c r="D10" s="3">
         <v>1513.1333199999999</v>
       </c>
-      <c r="E8">
+      <c r="E10" s="3">
         <v>1513.961914</v>
       </c>
-      <c r="F8">
+      <c r="F10" s="3">
         <v>1477.9137109999999</v>
       </c>
-      <c r="G8">
+      <c r="G10" s="3">
         <v>1477.29043</v>
       </c>
-      <c r="H8">
+      <c r="H10" s="3">
         <v>1480.556953</v>
       </c>
-      <c r="I8">
+      <c r="I10" s="3">
         <v>1482.8987890000001</v>
       </c>
-      <c r="J8">
+      <c r="J10" s="3">
         <v>1465.5102340000001</v>
       </c>
-      <c r="K8">
+      <c r="K10" s="3">
         <v>1470.338203</v>
       </c>
-      <c r="L8">
+      <c r="L10" s="3">
         <v>1463.827227</v>
       </c>
-      <c r="M8">
+      <c r="M10" s="3">
         <v>1465.115</v>
       </c>
-      <c r="N8">
+      <c r="N10" s="3">
         <v>1477.3219529999999</v>
       </c>
-      <c r="O8">
+      <c r="O10" s="3">
         <v>1477.4092969999999</v>
       </c>
-      <c r="P8">
+      <c r="P10" s="3">
         <v>1477.125078</v>
       </c>
-      <c r="Q8">
+      <c r="Q10" s="3">
         <v>1480.3152339999999</v>
       </c>
-      <c r="R8">
+      <c r="R10" s="3">
         <v>1514.9060159999999</v>
       </c>
-      <c r="S8">
+      <c r="S10" s="3">
         <v>1514.305742</v>
       </c>
-      <c r="T8">
+      <c r="T10" s="3">
         <v>1514.193438</v>
       </c>
-      <c r="U8">
+      <c r="U10" s="3">
         <v>1513.7305080000001</v>
       </c>
-      <c r="V8">
+      <c r="V10" s="3">
         <v>1482.3615234375</v>
       </c>
-      <c r="W8">
+      <c r="W10" s="3">
         <v>1485.1766796874999</v>
       </c>
-      <c r="X8">
+      <c r="X10" s="3">
         <v>1483.6668749999999</v>
       </c>
-      <c r="Y8">
+      <c r="Y10" s="3">
         <v>1481.940625</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="11" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>125</v>
       </c>
-      <c r="B9">
+      <c r="B11" s="3">
         <v>1513.0383589999999</v>
       </c>
-      <c r="C9">
+      <c r="C11" s="3">
         <v>1512.4023050000001</v>
       </c>
-      <c r="D9">
+      <c r="D11" s="3">
         <v>1512.9895309999999</v>
       </c>
-      <c r="E9">
+      <c r="E11" s="3">
         <v>1513.4716020000001</v>
       </c>
-      <c r="F9">
+      <c r="F11" s="3">
         <v>1479.0608199999999</v>
       </c>
-      <c r="G9">
+      <c r="G11" s="3">
         <v>1477.9857810000001</v>
       </c>
-      <c r="H9">
+      <c r="H11" s="3">
         <v>1480.4660160000001</v>
       </c>
-      <c r="I9">
+      <c r="I11" s="3">
         <v>1482.893789</v>
       </c>
-      <c r="J9">
+      <c r="J11" s="3">
         <v>1465.3691409999999</v>
       </c>
-      <c r="K9">
+      <c r="K11" s="3">
         <v>1469.5370700000001</v>
       </c>
-      <c r="L9">
+      <c r="L11" s="3">
         <v>1464.3539450000001</v>
       </c>
-      <c r="M9">
+      <c r="M11" s="3">
         <v>1465.2597659999999</v>
       </c>
-      <c r="N9">
+      <c r="N11" s="3">
         <v>1478.080391</v>
       </c>
-      <c r="O9">
+      <c r="O11" s="3">
         <v>1477.300156</v>
       </c>
-      <c r="P9">
+      <c r="P11" s="3">
         <v>1476.082969</v>
       </c>
-      <c r="Q9">
+      <c r="Q11" s="3">
         <v>1478.8367969999999</v>
       </c>
-      <c r="R9">
+      <c r="R11" s="3">
         <v>1512.134141</v>
       </c>
-      <c r="S9">
+      <c r="S11" s="3">
         <v>1512.236406</v>
       </c>
-      <c r="T9">
+      <c r="T11" s="3">
         <v>1511.859453</v>
       </c>
-      <c r="U9">
+      <c r="U11" s="3">
         <v>1511.4394139999999</v>
       </c>
-      <c r="V9">
+      <c r="V11" s="3">
         <v>1480.2336328125</v>
       </c>
-      <c r="W9">
+      <c r="W11" s="3">
         <v>1481.7601953124999</v>
       </c>
-      <c r="X9">
+      <c r="X11" s="3">
         <v>1481.9255859375</v>
       </c>
-      <c r="Y9">
+      <c r="Y11" s="3">
         <v>1480.6675390625001</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="12" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>150</v>
       </c>
-      <c r="B10">
+      <c r="B12" s="3">
         <v>1513.3319530000001</v>
       </c>
-      <c r="C10">
+      <c r="C12" s="3">
         <v>1512.6410550000001</v>
       </c>
-      <c r="D10">
+      <c r="D12" s="3">
         <v>1513.0397270000001</v>
       </c>
-      <c r="E10">
+      <c r="E12" s="3">
         <v>1513.334883</v>
       </c>
-      <c r="F10">
+      <c r="F12" s="3">
         <v>1479.7005469999999</v>
       </c>
-      <c r="G10">
+      <c r="G12" s="3">
         <v>1478.5327339999999</v>
       </c>
-      <c r="H10">
+      <c r="H12" s="3">
         <v>1480.3175000000001</v>
       </c>
-      <c r="I10">
+      <c r="I12" s="3">
         <v>1482.862813</v>
       </c>
-      <c r="J10">
+      <c r="J12" s="3">
         <v>1465.8956250000001</v>
       </c>
-      <c r="K10">
+      <c r="K12" s="3">
         <v>1469.236367</v>
       </c>
-      <c r="L10">
+      <c r="L12" s="3">
         <v>1465.659844</v>
       </c>
-      <c r="M10">
+      <c r="M12" s="3">
         <v>1465.418359</v>
       </c>
-      <c r="N10">
+      <c r="N12" s="3">
         <v>1478.550234</v>
       </c>
-      <c r="O10">
+      <c r="O12" s="3">
         <v>1477.3667190000001</v>
       </c>
-      <c r="P10">
+      <c r="P12" s="3">
         <v>1475.7248440000001</v>
       </c>
-      <c r="Q10">
+      <c r="Q12" s="3">
         <v>1478.1304689999999</v>
       </c>
-      <c r="R10">
+      <c r="R12" s="3">
         <v>1510.2128130000001</v>
       </c>
-      <c r="S10">
+      <c r="S12" s="3">
         <v>1510.0565630000001</v>
       </c>
-      <c r="T10">
+      <c r="T12" s="3">
         <v>1509.872969</v>
       </c>
-      <c r="U10">
+      <c r="U12" s="3">
         <v>1509.8218750000001</v>
       </c>
-      <c r="V10">
+      <c r="V12" s="3">
         <v>1479.1431250000001</v>
       </c>
-      <c r="W10">
+      <c r="W12" s="3">
         <v>1480.0795703125</v>
       </c>
-      <c r="X10">
+      <c r="X12" s="3">
         <v>1479.6641796875001</v>
       </c>
-      <c r="Y10">
+      <c r="Y12" s="3">
         <v>1479.5258984375</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>200</v>
       </c>
-      <c r="B11">
+      <c r="B13" s="3">
         <v>1513.6962109999999</v>
       </c>
-      <c r="C11">
+      <c r="C13" s="3">
         <v>1513.2103910000001</v>
       </c>
-      <c r="D11">
+      <c r="D13" s="3">
         <v>1513.3568359999999</v>
       </c>
-      <c r="E11">
+      <c r="E13" s="3">
         <v>1513.5104690000001</v>
       </c>
-      <c r="F11">
+      <c r="F13" s="3">
         <v>1480.354609</v>
       </c>
-      <c r="G11">
+      <c r="G13" s="3">
         <v>1478.9312890000001</v>
       </c>
-      <c r="H11">
+      <c r="H13" s="3">
         <v>1480.021992</v>
       </c>
-      <c r="I11">
+      <c r="I13" s="3">
         <v>1483.043672</v>
       </c>
-      <c r="J11">
+      <c r="J13" s="3">
         <v>1466.7619529999999</v>
       </c>
-      <c r="K11">
+      <c r="K13" s="3">
         <v>1470.5885940000001</v>
       </c>
-      <c r="L11">
+      <c r="L13" s="3">
         <v>1467.7663279999999</v>
       </c>
-      <c r="M11">
+      <c r="M13" s="3">
         <v>1466.341289</v>
       </c>
-      <c r="N11">
+      <c r="N13" s="3">
         <v>1479.334844</v>
       </c>
-      <c r="O11">
+      <c r="O13" s="3">
         <v>1477.2762499999999</v>
       </c>
-      <c r="P11">
+      <c r="P13" s="3">
         <v>1475.6624220000001</v>
       </c>
-      <c r="Q11">
+      <c r="Q13" s="3">
         <v>1477.6375780000001</v>
       </c>
-      <c r="R11">
+      <c r="R13" s="3">
         <v>1507.4638279999999</v>
       </c>
-      <c r="S11">
+      <c r="S13" s="3">
         <v>1507.601406</v>
       </c>
-      <c r="T11">
+      <c r="T13" s="3">
         <v>1507.5698829999999</v>
       </c>
-      <c r="U11">
+      <c r="U13" s="3">
         <v>1507.189453</v>
       </c>
-      <c r="V11">
+      <c r="V13" s="3">
         <v>1478.5412890625</v>
       </c>
-      <c r="W11">
+      <c r="W13" s="3">
         <v>1478.673125</v>
       </c>
-      <c r="X11">
+      <c r="X13" s="3">
         <v>1478.0572265625001</v>
       </c>
-      <c r="Y11">
+      <c r="Y13" s="3">
         <v>1478.356953125</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>250</v>
       </c>
-      <c r="B12">
+      <c r="B14" s="3">
         <v>1514.141406</v>
       </c>
-      <c r="C12">
+      <c r="C14" s="3">
         <v>1513.78457</v>
       </c>
-      <c r="D12">
+      <c r="D14" s="3">
         <v>1513.794492</v>
       </c>
-      <c r="E12">
+      <c r="E14" s="3">
         <v>1514.0571090000001</v>
       </c>
-      <c r="F12">
+      <c r="F14" s="3">
         <v>1480.9690230000001</v>
       </c>
-      <c r="G12">
+      <c r="G14" s="3">
         <v>1479.3278519999999</v>
       </c>
-      <c r="H12">
+      <c r="H14" s="3">
         <v>1479.6055080000001</v>
       </c>
-      <c r="I12">
+      <c r="I14" s="3">
         <v>1483.1496480000001</v>
       </c>
-      <c r="J12">
+      <c r="J14" s="3">
         <v>1467.4761329999999</v>
       </c>
-      <c r="K12">
+      <c r="K14" s="3">
         <v>1470.7497269999999</v>
       </c>
-      <c r="L12">
+      <c r="L14" s="3">
         <v>1469.3111329999999</v>
       </c>
-      <c r="M12">
+      <c r="M14" s="3">
         <v>1467.7797270000001</v>
       </c>
-      <c r="N12">
+      <c r="N14" s="3">
         <v>1477.3767969999999</v>
       </c>
-      <c r="O12">
+      <c r="O14" s="3">
         <v>1476.467695</v>
       </c>
-      <c r="P12">
+      <c r="P14" s="3">
         <v>1475.7817190000001</v>
       </c>
-      <c r="Q12">
+      <c r="Q14" s="3">
         <v>1476.038047</v>
       </c>
-      <c r="R12">
+      <c r="R14" s="3">
         <v>1505.6489059999999</v>
       </c>
-      <c r="S12">
+      <c r="S14" s="3">
         <v>1505.739102</v>
       </c>
-      <c r="T12">
+      <c r="T14" s="3">
         <v>1505.6367969999999</v>
       </c>
-      <c r="U12">
+      <c r="U14" s="3">
         <v>1505.4365230000001</v>
       </c>
-      <c r="V12">
+      <c r="V14" s="3">
         <v>1478.2459375000001</v>
       </c>
-      <c r="W12">
+      <c r="W14" s="3">
         <v>1478.3406640625001</v>
       </c>
-      <c r="X12">
+      <c r="X14" s="3">
         <v>1477.86203125</v>
       </c>
-      <c r="Y12">
+      <c r="Y14" s="3">
         <v>1478.665078125</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="15" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>300</v>
       </c>
-      <c r="B13">
+      <c r="B15" s="3">
         <v>1514.516523</v>
       </c>
-      <c r="C13">
+      <c r="C15" s="3">
         <v>1514.35</v>
       </c>
-      <c r="D13">
+      <c r="D15" s="3">
         <v>1514.236484</v>
       </c>
-      <c r="E13">
+      <c r="E15" s="3">
         <v>1514.300313</v>
       </c>
-      <c r="F13">
+      <c r="F15" s="3">
         <v>1480.994766</v>
       </c>
-      <c r="G13">
+      <c r="G15" s="3">
         <v>1479.1836330000001</v>
       </c>
-      <c r="H13">
+      <c r="H15" s="3">
         <v>1478.9907029999999</v>
       </c>
-      <c r="I13">
+      <c r="I15" s="3">
         <v>1482.6280859999999</v>
       </c>
-      <c r="J13">
+      <c r="J15" s="3">
         <v>1469.3191019999999</v>
       </c>
-      <c r="K13">
+      <c r="K15" s="3">
         <v>1471.8015230000001</v>
       </c>
-      <c r="L13">
+      <c r="L15" s="3">
         <v>1468.500117</v>
       </c>
-      <c r="M13">
+      <c r="M15" s="3">
         <v>1469.231016</v>
       </c>
-      <c r="N13">
+      <c r="N15" s="3">
         <v>1476.623398</v>
       </c>
-      <c r="O13">
+      <c r="O15" s="3">
         <v>1475.7862110000001</v>
       </c>
-      <c r="P13">
+      <c r="P15" s="3">
         <v>1475.3708200000001</v>
       </c>
-      <c r="Q13">
+      <c r="Q15" s="3">
         <v>1475.463477</v>
       </c>
-      <c r="R13">
+      <c r="R15" s="3">
         <v>1504.2089450000001</v>
       </c>
-      <c r="S13">
+      <c r="S15" s="3">
         <v>1504.324492</v>
       </c>
-      <c r="T13">
+      <c r="T15" s="3">
         <v>1503.9147660000001</v>
       </c>
-      <c r="U13">
+      <c r="U15" s="3">
         <v>1503.888516</v>
       </c>
-      <c r="V13">
+      <c r="V15" s="3">
         <v>1478.7901171875001</v>
       </c>
-      <c r="W13">
+      <c r="W15" s="3">
         <v>1478.9294921875</v>
       </c>
-      <c r="X13">
+      <c r="X15" s="3">
         <v>1478.8173046874999</v>
       </c>
-      <c r="Y13">
+      <c r="Y15" s="3">
         <v>1478.8409765624999</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="16" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>350</v>
       </c>
-      <c r="B14">
-        <f t="shared" ref="B14:Y14" si="0">B13+(B15-B13)/2</f>
+      <c r="B16" s="3">
+        <f t="shared" ref="B16:Y16" si="2">B15+(B17-B15)/2</f>
         <v>1515.0100585</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
+      <c r="C16" s="3">
+        <f t="shared" si="2"/>
         <v>1514.8581835</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
+      <c r="D16" s="3">
+        <f t="shared" si="2"/>
         <v>1514.7195505</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
+      <c r="E16" s="3">
+        <f t="shared" si="2"/>
         <v>1514.8095509999998</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
+      <c r="F16" s="3">
+        <f t="shared" si="2"/>
         <v>1480.8268164999999</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
         <v>1478.917539</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
+      <c r="H16" s="3">
+        <f t="shared" si="2"/>
         <v>1478.551367</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
+      <c r="I16" s="3">
+        <f t="shared" si="2"/>
         <v>1481.9293164999999</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
+      <c r="J16" s="3">
+        <f t="shared" si="2"/>
         <v>1469.7944534999999</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
+      <c r="K16" s="3">
+        <f t="shared" si="2"/>
         <v>1472.1918945</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
+      <c r="L16" s="3">
+        <f t="shared" si="2"/>
         <v>1469.2792380000001</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
+      <c r="M16" s="3">
+        <f t="shared" si="2"/>
         <v>1470.0585550000001</v>
       </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
+      <c r="N16" s="3">
+        <f t="shared" si="2"/>
         <v>1476.1077339999999</v>
       </c>
-      <c r="O14">
-        <f t="shared" si="0"/>
+      <c r="O16" s="3">
+        <f t="shared" si="2"/>
         <v>1475.5143945</v>
       </c>
-      <c r="P14">
-        <f t="shared" si="0"/>
+      <c r="P16" s="3">
+        <f t="shared" si="2"/>
         <v>1475.109277</v>
       </c>
-      <c r="Q14">
-        <f t="shared" si="0"/>
+      <c r="Q16" s="3">
+        <f t="shared" si="2"/>
         <v>1475.2120315</v>
       </c>
-      <c r="R14">
-        <f t="shared" si="0"/>
+      <c r="R16" s="3">
+        <f t="shared" si="2"/>
         <v>1502.750078</v>
       </c>
-      <c r="S14">
-        <f t="shared" si="0"/>
+      <c r="S16" s="3">
+        <f t="shared" si="2"/>
         <v>1502.8942379999999</v>
       </c>
-      <c r="T14">
-        <f t="shared" si="0"/>
+      <c r="T16" s="3">
+        <f t="shared" si="2"/>
         <v>1502.4461525000002</v>
       </c>
-      <c r="U14">
-        <f t="shared" si="0"/>
+      <c r="U16" s="3">
+        <f t="shared" si="2"/>
         <v>1502.5912304999999</v>
       </c>
-      <c r="V14">
-        <f t="shared" si="0"/>
+      <c r="V16" s="3">
+        <f t="shared" si="2"/>
         <v>1479.47681640625</v>
       </c>
-      <c r="W14">
-        <f t="shared" si="0"/>
+      <c r="W16" s="3">
+        <f t="shared" si="2"/>
         <v>1479.6246093750001</v>
       </c>
-      <c r="X14">
-        <f t="shared" si="0"/>
+      <c r="X16" s="3">
+        <f t="shared" si="2"/>
         <v>1479.49337890625</v>
       </c>
-      <c r="Y14">
-        <f t="shared" si="0"/>
+      <c r="Y16" s="3">
+        <f t="shared" si="2"/>
         <v>1479.4825585937501</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="17" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>400</v>
       </c>
-      <c r="B15">
+      <c r="B17" s="3">
         <v>1515.503594</v>
       </c>
-      <c r="C15">
+      <c r="C17" s="3">
         <v>1515.3663670000001</v>
       </c>
-      <c r="D15">
+      <c r="D17" s="3">
         <v>1515.2026169999999</v>
       </c>
-      <c r="E15">
+      <c r="E17" s="3">
         <v>1515.3187889999999</v>
       </c>
-      <c r="F15">
+      <c r="F17" s="3">
         <v>1480.6588670000001</v>
       </c>
-      <c r="G15">
+      <c r="G17" s="3">
         <v>1478.651445</v>
       </c>
-      <c r="H15">
+      <c r="H17" s="3">
         <v>1478.1120309999999</v>
       </c>
-      <c r="I15">
+      <c r="I17" s="3">
         <v>1481.2305469999999</v>
       </c>
-      <c r="J15">
+      <c r="J17" s="3">
         <v>1470.2698049999999</v>
       </c>
-      <c r="K15">
+      <c r="K17" s="3">
         <v>1472.5822659999999</v>
       </c>
-      <c r="L15">
+      <c r="L17" s="3">
         <v>1470.0583590000001</v>
       </c>
-      <c r="M15">
+      <c r="M17" s="3">
         <v>1470.886094</v>
       </c>
-      <c r="N15">
+      <c r="N17" s="3">
         <v>1475.5920699999999</v>
       </c>
-      <c r="O15">
+      <c r="O17" s="3">
         <v>1475.2425780000001</v>
       </c>
-      <c r="P15">
+      <c r="P17" s="3">
         <v>1474.8477339999999</v>
       </c>
-      <c r="Q15">
+      <c r="Q17" s="3">
         <v>1474.9605859999999</v>
       </c>
-      <c r="R15">
+      <c r="R17" s="3">
         <v>1501.291211</v>
       </c>
-      <c r="S15">
+      <c r="S17" s="3">
         <v>1501.463984</v>
       </c>
-      <c r="T15">
+      <c r="T17" s="3">
         <v>1500.977539</v>
       </c>
-      <c r="U15">
+      <c r="U17" s="3">
         <v>1501.2939449999999</v>
       </c>
-      <c r="V15">
+      <c r="V17" s="3">
         <v>1480.1635156249999</v>
       </c>
-      <c r="W15">
+      <c r="W17" s="3">
         <v>1480.3197265624999</v>
       </c>
-      <c r="X15">
+      <c r="X17" s="3">
         <v>1480.169453125</v>
       </c>
-      <c r="Y15">
+      <c r="Y17" s="3">
         <v>1480.1241406250001</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="18" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>450</v>
       </c>
-      <c r="B16">
-        <f t="shared" ref="B16:Y16" si="1">B15+(B17-B15)/2</f>
+      <c r="B18" s="3">
+        <f t="shared" ref="B18:Y18" si="3">B17+(B19-B17)/2</f>
         <v>1516.013379</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
+      <c r="C18" s="3">
+        <f t="shared" si="3"/>
         <v>1515.9086915</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
+      <c r="D18" s="3">
+        <f t="shared" si="3"/>
         <v>1515.782246</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
+      <c r="E18" s="3">
+        <f t="shared" si="3"/>
         <v>1515.9096485</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
+      <c r="F18" s="3">
+        <f t="shared" si="3"/>
         <v>1479.513672</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
+      <c r="G18" s="3">
+        <f t="shared" si="3"/>
         <v>1477.6825389999999</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
+      <c r="H18" s="3">
+        <f t="shared" si="3"/>
         <v>1477.354863</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
+      <c r="I18" s="3">
+        <f t="shared" si="3"/>
         <v>1480.1816405</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
+      <c r="J18" s="3">
+        <f t="shared" si="3"/>
         <v>1471.329043</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
+      <c r="K18" s="3">
+        <f t="shared" si="3"/>
         <v>1473.3675395</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
+      <c r="L18" s="3">
+        <f t="shared" si="3"/>
         <v>1470.7875389999999</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="1"/>
+      <c r="M18" s="3">
+        <f t="shared" si="3"/>
         <v>1471.7254495</v>
       </c>
-      <c r="N16">
-        <f t="shared" si="1"/>
+      <c r="N18" s="3">
+        <f t="shared" si="3"/>
         <v>1475.3135155</v>
       </c>
-      <c r="O16">
-        <f t="shared" si="1"/>
+      <c r="O18" s="3">
+        <f t="shared" si="3"/>
         <v>1474.8881249999999</v>
       </c>
-      <c r="P16">
-        <f t="shared" si="1"/>
+      <c r="P18" s="3">
+        <f t="shared" si="3"/>
         <v>1474.5694920000001</v>
       </c>
-      <c r="Q16">
-        <f t="shared" si="1"/>
+      <c r="Q18" s="3">
+        <f t="shared" si="3"/>
         <v>1474.8110744999999</v>
       </c>
-      <c r="R16">
-        <f t="shared" si="1"/>
+      <c r="R18" s="3">
+        <f t="shared" si="3"/>
         <v>1499.8724609999999</v>
       </c>
-      <c r="S16">
-        <f t="shared" si="1"/>
+      <c r="S18" s="3">
+        <f t="shared" si="3"/>
         <v>1499.91957</v>
       </c>
-      <c r="T16">
-        <f t="shared" si="1"/>
+      <c r="T18" s="3">
+        <f t="shared" si="3"/>
         <v>1499.5458985</v>
       </c>
-      <c r="U16">
-        <f t="shared" si="1"/>
+      <c r="U18" s="3">
+        <f t="shared" si="3"/>
         <v>1499.9457419999999</v>
       </c>
-      <c r="V16">
-        <f t="shared" si="1"/>
+      <c r="V18" s="3">
+        <f t="shared" si="3"/>
         <v>1480.4778515624998</v>
       </c>
-      <c r="W16">
-        <f t="shared" si="1"/>
+      <c r="W18" s="3">
+        <f t="shared" si="3"/>
         <v>1480.7025195312499</v>
       </c>
-      <c r="X16">
-        <f t="shared" si="1"/>
+      <c r="X18" s="3">
+        <f t="shared" si="3"/>
         <v>1480.5711328124999</v>
       </c>
-      <c r="Y16">
-        <f t="shared" si="1"/>
+      <c r="Y18" s="3">
+        <f t="shared" si="3"/>
         <v>1480.5255468750001</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="19" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>500</v>
       </c>
-      <c r="B17">
+      <c r="B19" s="3">
         <v>1516.523164</v>
       </c>
-      <c r="C17">
+      <c r="C19" s="3">
         <v>1516.451016</v>
       </c>
-      <c r="D17">
+      <c r="D19" s="3">
         <v>1516.3618750000001</v>
       </c>
-      <c r="E17">
+      <c r="E19" s="3">
         <v>1516.5005080000001</v>
       </c>
-      <c r="F17">
+      <c r="F19" s="3">
         <v>1478.368477</v>
       </c>
-      <c r="G17">
+      <c r="G19" s="3">
         <v>1476.7136330000001</v>
       </c>
-      <c r="H17">
+      <c r="H19" s="3">
         <v>1476.5976949999999</v>
       </c>
-      <c r="I17">
+      <c r="I19" s="3">
         <v>1479.132734</v>
       </c>
-      <c r="J17">
+      <c r="J19" s="3">
         <v>1472.388281</v>
       </c>
-      <c r="K17">
+      <c r="K19" s="3">
         <v>1474.1528129999999</v>
       </c>
-      <c r="L17">
+      <c r="L19" s="3">
         <v>1471.516719</v>
       </c>
-      <c r="M17">
+      <c r="M19" s="3">
         <v>1472.564805</v>
       </c>
-      <c r="N17">
+      <c r="N19" s="3">
         <v>1475.0349610000001</v>
       </c>
-      <c r="O17">
+      <c r="O19" s="3">
         <v>1474.533672</v>
       </c>
-      <c r="P17">
+      <c r="P19" s="3">
         <v>1474.29125</v>
       </c>
-      <c r="Q17">
+      <c r="Q19" s="3">
         <v>1474.6615629999999</v>
       </c>
-      <c r="R17">
+      <c r="R19" s="3">
         <v>1498.4537110000001</v>
       </c>
-      <c r="S17">
+      <c r="S19" s="3">
         <v>1498.3751560000001</v>
       </c>
-      <c r="T17">
+      <c r="T19" s="3">
         <v>1498.1142580000001</v>
       </c>
-      <c r="U17">
+      <c r="U19" s="3">
         <v>1498.5975390000001</v>
       </c>
-      <c r="V17">
+      <c r="V19" s="3">
         <v>1480.7921875</v>
       </c>
-      <c r="W17">
+      <c r="W19" s="3">
         <v>1481.0853125000001</v>
       </c>
-      <c r="X17">
+      <c r="X19" s="3">
         <v>1480.9728124999999</v>
       </c>
-      <c r="Y17">
+      <c r="Y19" s="3">
         <v>1480.926953125</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="20" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>550</v>
       </c>
-      <c r="B18">
-        <f t="shared" ref="B18:Y18" si="2">B17+(B19-B17)/2</f>
+      <c r="B20" s="3">
+        <f t="shared" ref="B20:Y20" si="4">B19+(B21-B19)/2</f>
         <v>1517.1454490000001</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="2"/>
+      <c r="C20" s="3">
+        <f t="shared" si="4"/>
         <v>1517.1143360000001</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
+      <c r="D20" s="3">
+        <f t="shared" si="4"/>
         <v>1516.8857815000001</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
+      <c r="E20" s="3">
+        <f t="shared" si="4"/>
         <v>1517.1271485000002</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
+      <c r="F20" s="3">
+        <f t="shared" si="4"/>
         <v>1476.3881054999999</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
+      <c r="G20" s="3">
+        <f t="shared" si="4"/>
         <v>1475.0300000000002</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
+      <c r="H20" s="3">
+        <f t="shared" si="4"/>
         <v>1475.1743750000001</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="2"/>
+      <c r="I20" s="3">
+        <f t="shared" si="4"/>
         <v>1477.4155074999999</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="2"/>
+      <c r="J20" s="3">
+        <f t="shared" si="4"/>
         <v>1472.8697655000001</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="2"/>
+      <c r="K20" s="3">
+        <f t="shared" si="4"/>
         <v>1474.5950785</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="2"/>
+      <c r="L20" s="3">
+        <f t="shared" si="4"/>
         <v>1471.7936135</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="2"/>
+      <c r="M20" s="3">
+        <f t="shared" si="4"/>
         <v>1473.0950785</v>
       </c>
-      <c r="N18">
-        <f t="shared" si="2"/>
+      <c r="N20" s="3">
+        <f t="shared" si="4"/>
         <v>1475.3484375</v>
       </c>
-      <c r="O18">
-        <f t="shared" si="2"/>
+      <c r="O20" s="3">
+        <f t="shared" si="4"/>
         <v>1474.8780470000002</v>
       </c>
-      <c r="P18">
-        <f t="shared" si="2"/>
+      <c r="P20" s="3">
+        <f t="shared" si="4"/>
         <v>1474.721074</v>
       </c>
-      <c r="Q18">
-        <f t="shared" si="2"/>
+      <c r="Q20" s="3">
+        <f t="shared" si="4"/>
         <v>1475.1936525000001</v>
       </c>
-      <c r="R18">
-        <f t="shared" si="2"/>
+      <c r="R20" s="3">
+        <f t="shared" si="4"/>
         <v>1497.2042775</v>
       </c>
-      <c r="S18">
-        <f t="shared" si="2"/>
+      <c r="S20" s="3">
+        <f t="shared" si="4"/>
         <v>1497.1057420000002</v>
       </c>
-      <c r="T18">
-        <f t="shared" si="2"/>
+      <c r="T20" s="3">
+        <f t="shared" si="4"/>
         <v>1497.0359765000001</v>
       </c>
-      <c r="U18">
-        <f t="shared" si="2"/>
+      <c r="U20" s="3">
+        <f t="shared" si="4"/>
         <v>1497.3011915000002</v>
       </c>
-      <c r="V18">
-        <f t="shared" si="2"/>
+      <c r="V20" s="3">
+        <f t="shared" si="4"/>
         <v>1480.9862499999999</v>
       </c>
-      <c r="W18">
-        <f t="shared" si="2"/>
+      <c r="W20" s="3">
+        <f t="shared" si="4"/>
         <v>1481.17140625</v>
       </c>
-      <c r="X18">
-        <f t="shared" si="2"/>
+      <c r="X20" s="3">
+        <f t="shared" si="4"/>
         <v>1480.9155078125</v>
       </c>
-      <c r="Y18">
-        <f t="shared" si="2"/>
+      <c r="Y20" s="3">
+        <f t="shared" si="4"/>
         <v>1480.93673828125</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="21" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>600</v>
       </c>
-      <c r="B19">
+      <c r="B21" s="3">
         <v>1517.767734</v>
       </c>
-      <c r="C19">
+      <c r="C21" s="3">
         <v>1517.777656</v>
       </c>
-      <c r="D19">
+      <c r="D21" s="3">
         <v>1517.409688</v>
       </c>
-      <c r="E19">
+      <c r="E21" s="3">
         <v>1517.7537890000001</v>
       </c>
-      <c r="F19">
+      <c r="F21" s="3">
         <v>1474.4077339999999</v>
       </c>
-      <c r="G19">
+      <c r="G21" s="3">
         <v>1473.3463670000001</v>
       </c>
-      <c r="H19">
+      <c r="H21" s="3">
         <v>1473.751055</v>
       </c>
-      <c r="I19">
+      <c r="I21" s="3">
         <v>1475.698281</v>
       </c>
-      <c r="J19">
+      <c r="J21" s="3">
         <v>1473.3512499999999</v>
       </c>
-      <c r="K19">
+      <c r="K21" s="3">
         <v>1475.0373440000001</v>
       </c>
-      <c r="L19">
+      <c r="L21" s="3">
         <v>1472.070508</v>
       </c>
-      <c r="M19">
+      <c r="M21" s="3">
         <v>1473.625352</v>
       </c>
-      <c r="N19">
+      <c r="N21" s="3">
         <v>1475.661914</v>
       </c>
-      <c r="O19">
+      <c r="O21" s="3">
         <v>1475.2224220000001</v>
       </c>
-      <c r="P19">
+      <c r="P21" s="3">
         <v>1475.1508980000001</v>
       </c>
-      <c r="Q19">
+      <c r="Q21" s="3">
         <v>1475.7257420000001</v>
       </c>
-      <c r="R19">
+      <c r="R21" s="3">
         <v>1495.9548440000001</v>
       </c>
-      <c r="S19">
+      <c r="S21" s="3">
         <v>1495.8363280000001</v>
       </c>
-      <c r="T19">
+      <c r="T21" s="3">
         <v>1495.9576950000001</v>
       </c>
-      <c r="U19">
+      <c r="U21" s="3">
         <v>1496.004844</v>
       </c>
-      <c r="V19">
+      <c r="V21" s="3">
         <v>1481.1803124999999</v>
       </c>
-      <c r="W19">
+      <c r="W21" s="3">
         <v>1481.2574999999999</v>
       </c>
-      <c r="X19">
+      <c r="X21" s="3">
         <v>1480.858203125</v>
       </c>
-      <c r="Y19">
+      <c r="Y21" s="3">
         <v>1480.9465234375</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="22" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>650</v>
       </c>
-      <c r="B20">
-        <f t="shared" ref="B20:Y20" si="3">B19+(B21-B19)/2</f>
+      <c r="B22" s="3">
+        <f t="shared" ref="B22:Y22" si="5">B21+(B23-B21)/2</f>
         <v>1518.3868944999999</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="3"/>
+      <c r="C22" s="3">
+        <f t="shared" si="5"/>
         <v>1518.360371</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="3"/>
+      <c r="D22" s="3">
+        <f t="shared" si="5"/>
         <v>1518.21127</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="3"/>
+      <c r="E22" s="3">
+        <f t="shared" si="5"/>
         <v>1518.3868750000001</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="3"/>
+      <c r="F22" s="3">
+        <f t="shared" si="5"/>
         <v>1472.5625</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="3"/>
+      <c r="G22" s="3">
+        <f t="shared" si="5"/>
         <v>1471.2070699999999</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="3"/>
+      <c r="H22" s="3">
+        <f t="shared" si="5"/>
         <v>1471.586309</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="3"/>
+      <c r="I22" s="3">
+        <f t="shared" si="5"/>
         <v>1473.4102929999999</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="3"/>
+      <c r="J22" s="3">
+        <f t="shared" si="5"/>
         <v>1473.3871095</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="3"/>
+      <c r="K22" s="3">
+        <f t="shared" si="5"/>
         <v>1475.0689065000001</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="3"/>
+      <c r="L22" s="3">
+        <f t="shared" si="5"/>
         <v>1473.0569335</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="3"/>
+      <c r="M22" s="3">
+        <f t="shared" si="5"/>
         <v>1474.1133595000001</v>
       </c>
-      <c r="N20">
-        <f t="shared" si="3"/>
+      <c r="N22" s="3">
+        <f t="shared" si="5"/>
         <v>1476.0782225</v>
       </c>
-      <c r="O20">
-        <f t="shared" si="3"/>
+      <c r="O22" s="3">
+        <f t="shared" si="5"/>
         <v>1475.649883</v>
       </c>
-      <c r="P20">
-        <f t="shared" si="3"/>
+      <c r="P22" s="3">
+        <f t="shared" si="5"/>
         <v>1475.4968555</v>
       </c>
-      <c r="Q20">
-        <f t="shared" si="3"/>
+      <c r="Q22" s="3">
+        <f t="shared" si="5"/>
         <v>1476.1013670000002</v>
       </c>
-      <c r="R20">
-        <f t="shared" si="3"/>
+      <c r="R22" s="3">
+        <f t="shared" si="5"/>
         <v>1494.96</v>
       </c>
-      <c r="S20">
-        <f t="shared" si="3"/>
+      <c r="S22" s="3">
+        <f t="shared" si="5"/>
         <v>1494.8534180000001</v>
       </c>
-      <c r="T20">
-        <f t="shared" si="3"/>
+      <c r="T22" s="3">
+        <f t="shared" si="5"/>
         <v>1494.8388085000001</v>
       </c>
-      <c r="U20">
-        <f t="shared" si="3"/>
+      <c r="U22" s="3">
+        <f t="shared" si="5"/>
         <v>1494.8987500000001</v>
       </c>
-      <c r="V20">
-        <f t="shared" si="3"/>
+      <c r="V22" s="3">
+        <f t="shared" si="5"/>
         <v>1481.1761328124999</v>
       </c>
-      <c r="W20">
-        <f t="shared" si="3"/>
+      <c r="W22" s="3">
+        <f t="shared" si="5"/>
         <v>1481.2382421875</v>
       </c>
-      <c r="X20">
-        <f t="shared" si="3"/>
+      <c r="X22" s="3">
+        <f t="shared" si="5"/>
         <v>1480.91255859375</v>
       </c>
-      <c r="Y20">
-        <f t="shared" si="3"/>
+      <c r="Y22" s="3">
+        <f t="shared" si="5"/>
         <v>1481.00341796875</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="23" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>700</v>
       </c>
-      <c r="B21">
+      <c r="B23" s="3">
         <v>1519.0060550000001</v>
       </c>
-      <c r="C21">
+      <c r="C23" s="3">
         <v>1518.943086</v>
       </c>
-      <c r="D21">
+      <c r="D23" s="3">
         <v>1519.0128520000001</v>
       </c>
-      <c r="E21">
+      <c r="E23" s="3">
         <v>1519.019961</v>
       </c>
-      <c r="F21">
+      <c r="F23" s="3">
         <v>1470.7172660000001</v>
       </c>
-      <c r="G21">
+      <c r="G23" s="3">
         <v>1469.067773</v>
       </c>
-      <c r="H21">
+      <c r="H23" s="3">
         <v>1469.4215630000001</v>
       </c>
-      <c r="I21">
+      <c r="I23" s="3">
         <v>1471.1223050000001</v>
       </c>
-      <c r="J21">
+      <c r="J23" s="3">
         <v>1473.422969</v>
       </c>
-      <c r="K21">
+      <c r="K23" s="3">
         <v>1475.100469</v>
       </c>
-      <c r="L21">
+      <c r="L23" s="3">
         <v>1474.043359</v>
       </c>
-      <c r="M21">
+      <c r="M23" s="3">
         <v>1474.601367</v>
       </c>
-      <c r="N21">
+      <c r="N23" s="3">
         <v>1476.4945310000001</v>
       </c>
-      <c r="O21">
+      <c r="O23" s="3">
         <v>1476.077344</v>
       </c>
-      <c r="P21">
+      <c r="P23" s="3">
         <v>1475.842813</v>
       </c>
-      <c r="Q21">
+      <c r="Q23" s="3">
         <v>1476.4769920000001</v>
       </c>
-      <c r="R21">
+      <c r="R23" s="3">
         <v>1493.965156</v>
       </c>
-      <c r="S21">
+      <c r="S23" s="3">
         <v>1493.870508</v>
       </c>
-      <c r="T21">
+      <c r="T23" s="3">
         <v>1493.719922</v>
       </c>
-      <c r="U21">
+      <c r="U23" s="3">
         <v>1493.7926560000001</v>
       </c>
-      <c r="V21">
+      <c r="V23" s="3">
         <v>1481.1719531250001</v>
       </c>
-      <c r="W21">
+      <c r="W23" s="3">
         <v>1481.218984375</v>
       </c>
-      <c r="X21">
+      <c r="X23" s="3">
         <v>1480.9669140625001</v>
       </c>
-      <c r="Y21">
+      <c r="Y23" s="3">
         <v>1481.0603125</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="24" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>750</v>
       </c>
-      <c r="B22">
-        <f t="shared" ref="B22:Y22" si="4">B21+(B23-B21)/2</f>
+      <c r="B24" s="3">
+        <f t="shared" ref="B24:Y24" si="6">B23+(B25-B23)/2</f>
         <v>1519.770215</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="4"/>
+      <c r="C24" s="3">
+        <f t="shared" si="6"/>
         <v>1519.6938474999999</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="4"/>
+      <c r="D24" s="3">
+        <f t="shared" si="6"/>
         <v>1519.7205665000001</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="4"/>
+      <c r="E24" s="3">
+        <f t="shared" si="6"/>
         <v>1519.794785</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="4"/>
+      <c r="F24" s="3">
+        <f t="shared" si="6"/>
         <v>1468.1802540000001</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="4"/>
+      <c r="G24" s="3">
+        <f t="shared" si="6"/>
         <v>1467.1525779999999</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="4"/>
+      <c r="H24" s="3">
+        <f t="shared" si="6"/>
         <v>1467.6490429999999</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="4"/>
+      <c r="I24" s="3">
+        <f t="shared" si="6"/>
         <v>1469.7756250000002</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="4"/>
+      <c r="J24" s="3">
+        <f t="shared" si="6"/>
         <v>1473.8252539999999</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="4"/>
+      <c r="K24" s="3">
+        <f t="shared" si="6"/>
         <v>1474.7616210000001</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="4"/>
+      <c r="L24" s="3">
+        <f t="shared" si="6"/>
         <v>1474.2738279999999</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="4"/>
+      <c r="M24" s="3">
+        <f t="shared" si="6"/>
         <v>1474.8601169999999</v>
       </c>
-      <c r="N22">
-        <f t="shared" si="4"/>
+      <c r="N24" s="3">
+        <f t="shared" si="6"/>
         <v>1476.7236324999999</v>
       </c>
-      <c r="O22">
-        <f t="shared" si="4"/>
+      <c r="O24" s="3">
+        <f t="shared" si="6"/>
         <v>1476.4506445000002</v>
       </c>
-      <c r="P22">
-        <f t="shared" si="4"/>
+      <c r="P24" s="3">
+        <f t="shared" si="6"/>
         <v>1476.3140825</v>
       </c>
-      <c r="Q22">
-        <f t="shared" si="4"/>
+      <c r="Q24" s="3">
+        <f t="shared" si="6"/>
         <v>1476.9211325000001</v>
       </c>
-      <c r="R22">
-        <f t="shared" si="4"/>
+      <c r="R24" s="3">
+        <f t="shared" si="6"/>
         <v>1493.1319334999998</v>
       </c>
-      <c r="S22">
-        <f t="shared" si="4"/>
+      <c r="S24" s="3">
+        <f t="shared" si="6"/>
         <v>1492.9921875</v>
       </c>
-      <c r="T22">
-        <f t="shared" si="4"/>
+      <c r="T24" s="3">
+        <f t="shared" si="6"/>
         <v>1492.8970705000002</v>
       </c>
-      <c r="U22">
-        <f t="shared" si="4"/>
+      <c r="U24" s="3">
+        <f t="shared" si="6"/>
         <v>1493.0822655000002</v>
       </c>
-      <c r="V22">
-        <f t="shared" si="4"/>
+      <c r="V24" s="3">
+        <f t="shared" si="6"/>
         <v>1481.38818359375</v>
       </c>
-      <c r="W22">
-        <f t="shared" si="4"/>
+      <c r="W24" s="3">
+        <f t="shared" si="6"/>
         <v>1481.43826171875</v>
       </c>
-      <c r="X22">
-        <f t="shared" si="4"/>
+      <c r="X24" s="3">
+        <f t="shared" si="6"/>
         <v>1481.1612695312501</v>
       </c>
-      <c r="Y22">
-        <f t="shared" si="4"/>
+      <c r="Y24" s="3">
+        <f t="shared" si="6"/>
         <v>1481.26001953125</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="25" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>800</v>
       </c>
-      <c r="B23">
+      <c r="B25" s="3">
         <v>1520.534375</v>
       </c>
-      <c r="C23">
+      <c r="C25" s="3">
         <v>1520.4446089999999</v>
       </c>
-      <c r="D23">
+      <c r="D25" s="3">
         <v>1520.428281</v>
       </c>
-      <c r="E23">
+      <c r="E25" s="3">
         <v>1520.5696089999999</v>
       </c>
-      <c r="F23">
+      <c r="F25" s="3">
         <v>1465.6432420000001</v>
       </c>
-      <c r="G23">
+      <c r="G25" s="3">
         <v>1465.2373829999999</v>
       </c>
-      <c r="H23">
+      <c r="H25" s="3">
         <v>1465.8765229999999</v>
       </c>
-      <c r="I23">
+      <c r="I25" s="3">
         <v>1468.4289450000001</v>
       </c>
-      <c r="J23">
+      <c r="J25" s="3">
         <v>1474.227539</v>
       </c>
-      <c r="K23">
+      <c r="K25" s="3">
         <v>1474.422773</v>
       </c>
-      <c r="L23">
+      <c r="L25" s="3">
         <v>1474.504297</v>
       </c>
-      <c r="M23">
+      <c r="M25" s="3">
         <v>1475.1188669999999</v>
       </c>
-      <c r="N23">
+      <c r="N25" s="3">
         <v>1476.952734</v>
       </c>
-      <c r="O23">
+      <c r="O25" s="3">
         <v>1476.8239450000001</v>
       </c>
-      <c r="P23">
+      <c r="P25" s="3">
         <v>1476.7853520000001</v>
       </c>
-      <c r="Q23">
+      <c r="Q25" s="3">
         <v>1477.3652729999999</v>
       </c>
-      <c r="R23">
+      <c r="R25" s="3">
         <v>1492.2987109999999</v>
       </c>
-      <c r="S23">
+      <c r="S25" s="3">
         <v>1492.113867</v>
       </c>
-      <c r="T23">
+      <c r="T25" s="3">
         <v>1492.0742190000001</v>
       </c>
-      <c r="U23">
+      <c r="U25" s="3">
         <v>1492.371875</v>
       </c>
-      <c r="V23">
+      <c r="V25" s="3">
         <v>1481.6044140624999</v>
       </c>
-      <c r="W23">
+      <c r="W25" s="3">
         <v>1481.6575390625001</v>
       </c>
-      <c r="X23">
+      <c r="X25" s="3">
         <v>1481.3556249999999</v>
       </c>
-      <c r="Y23">
+      <c r="Y25" s="3">
         <v>1481.4597265625</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="26" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>850</v>
       </c>
-      <c r="B24">
-        <f t="shared" ref="B24:Y24" si="5">B23+(B25-B23)/2</f>
+      <c r="B26" s="3">
+        <f t="shared" ref="B26:Y26" si="7">B25+(B27-B25)/2</f>
         <v>1521.2582615000001</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="5"/>
+      <c r="C26" s="3">
+        <f t="shared" si="7"/>
         <v>1521.2323240000001</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="5"/>
+      <c r="D26" s="3">
+        <f t="shared" si="7"/>
         <v>1521.2091989999999</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="5"/>
+      <c r="E26" s="3">
+        <f t="shared" si="7"/>
         <v>1521.2701950000001</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="5"/>
+      <c r="F26" s="3">
+        <f t="shared" si="7"/>
         <v>1465.0787110000001</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="5"/>
+      <c r="G26" s="3">
+        <f t="shared" si="7"/>
         <v>1464.7344925</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="5"/>
+      <c r="H26" s="3">
+        <f t="shared" si="7"/>
         <v>1465.0337304999998</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="5"/>
+      <c r="I26" s="3">
+        <f t="shared" si="7"/>
         <v>1466.9506835000002</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="5"/>
+      <c r="J26" s="3">
+        <f t="shared" si="7"/>
         <v>1474.8513865</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="5"/>
+      <c r="K26" s="3">
+        <f t="shared" si="7"/>
         <v>1474.9796679999999</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="5"/>
+      <c r="L26" s="3">
+        <f t="shared" si="7"/>
         <v>1474.977578</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="5"/>
+      <c r="M26" s="3">
+        <f t="shared" si="7"/>
         <v>1475.3697849999999</v>
       </c>
-      <c r="N24">
-        <f t="shared" si="5"/>
+      <c r="N26" s="3">
+        <f t="shared" si="7"/>
         <v>1477.3989645000001</v>
       </c>
-      <c r="O24">
-        <f t="shared" si="5"/>
+      <c r="O26" s="3">
+        <f t="shared" si="7"/>
         <v>1477.3309960000001</v>
       </c>
-      <c r="P24">
-        <f t="shared" si="5"/>
+      <c r="P26" s="3">
+        <f t="shared" si="7"/>
         <v>1477.2515235000001</v>
       </c>
-      <c r="Q24">
-        <f t="shared" si="5"/>
+      <c r="Q26" s="3">
+        <f t="shared" si="7"/>
         <v>1477.6835739999999</v>
       </c>
-      <c r="R24">
-        <f t="shared" si="5"/>
+      <c r="R26" s="3">
+        <f t="shared" si="7"/>
         <v>1491.9751759999999</v>
       </c>
-      <c r="S24">
-        <f t="shared" si="5"/>
+      <c r="S26" s="3">
+        <f t="shared" si="7"/>
         <v>1492.0337890000001</v>
       </c>
-      <c r="T24">
-        <f t="shared" si="5"/>
+      <c r="T26" s="3">
+        <f t="shared" si="7"/>
         <v>1491.8491015</v>
       </c>
-      <c r="U24">
-        <f t="shared" si="5"/>
+      <c r="U26" s="3">
+        <f t="shared" si="7"/>
         <v>1492.0845705000002</v>
       </c>
-      <c r="V24">
-        <f t="shared" si="5"/>
+      <c r="V26" s="3">
+        <f t="shared" si="7"/>
         <v>1481.3201562499999</v>
       </c>
-      <c r="W24">
-        <f t="shared" si="5"/>
+      <c r="W26" s="3">
+        <f t="shared" si="7"/>
         <v>1481.3959374999999</v>
       </c>
-      <c r="X24">
-        <f t="shared" si="5"/>
+      <c r="X26" s="3">
+        <f t="shared" si="7"/>
         <v>1481.15138671875</v>
       </c>
-      <c r="Y24">
-        <f t="shared" si="5"/>
+      <c r="Y26" s="3">
+        <f t="shared" si="7"/>
         <v>1481.2944140625</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="27" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>900</v>
       </c>
-      <c r="B25">
+      <c r="B27" s="3">
         <v>1521.9821480000001</v>
       </c>
-      <c r="C25">
+      <c r="C27" s="3">
         <v>1522.020039</v>
       </c>
-      <c r="D25">
+      <c r="D27" s="3">
         <v>1521.9901170000001</v>
       </c>
-      <c r="E25">
+      <c r="E27" s="3">
         <v>1521.970781</v>
       </c>
-      <c r="F25">
+      <c r="F27" s="3">
         <v>1464.5141799999999</v>
       </c>
-      <c r="G25">
+      <c r="G27" s="3">
         <v>1464.2316020000001</v>
       </c>
-      <c r="H25">
+      <c r="H27" s="3">
         <v>1464.190938</v>
       </c>
-      <c r="I25">
+      <c r="I27" s="3">
         <v>1465.4724220000001</v>
       </c>
-      <c r="J25">
+      <c r="J27" s="3">
         <v>1475.475234</v>
       </c>
-      <c r="K25">
+      <c r="K27" s="3">
         <v>1475.5365629999999</v>
       </c>
-      <c r="L25">
+      <c r="L27" s="3">
         <v>1475.450859</v>
       </c>
-      <c r="M25">
+      <c r="M27" s="3">
         <v>1475.620703</v>
       </c>
-      <c r="N25">
+      <c r="N27" s="3">
         <v>1477.8451950000001</v>
       </c>
-      <c r="O25">
+      <c r="O27" s="3">
         <v>1477.838047</v>
       </c>
-      <c r="P25">
+      <c r="P27" s="3">
         <v>1477.717695</v>
       </c>
-      <c r="Q25">
+      <c r="Q27" s="3">
         <v>1478.0018749999999</v>
       </c>
-      <c r="R25">
+      <c r="R27" s="3">
         <v>1491.6516409999999</v>
       </c>
-      <c r="S25">
+      <c r="S27" s="3">
         <v>1491.9537110000001</v>
       </c>
-      <c r="T25">
+      <c r="T27" s="3">
         <v>1491.6239840000001</v>
       </c>
-      <c r="U25">
+      <c r="U27" s="3">
         <v>1491.797266</v>
       </c>
-      <c r="V25">
+      <c r="V27" s="3">
         <v>1481.0358984375</v>
       </c>
-      <c r="W25">
+      <c r="W27" s="3">
         <v>1481.1343359375001</v>
       </c>
-      <c r="X25">
+      <c r="X27" s="3">
         <v>1480.9471484374999</v>
       </c>
-      <c r="Y25">
+      <c r="Y27" s="3">
         <v>1481.1291015625</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="28" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>950</v>
       </c>
-      <c r="B26">
-        <f t="shared" ref="B26:Y26" si="6">B25+(B27-B25)/2</f>
+      <c r="B28" s="3">
+        <f t="shared" ref="B28:Y28" si="8">B27+(B29-B27)/2</f>
         <v>1522.744414</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="6"/>
+      <c r="C28" s="3">
+        <f t="shared" si="8"/>
         <v>1522.7851759999999</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="6"/>
+      <c r="D28" s="3">
+        <f t="shared" si="8"/>
         <v>1522.7403125000001</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="6"/>
+      <c r="E28" s="3">
+        <f t="shared" si="8"/>
         <v>1522.8062110000001</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="6"/>
+      <c r="F28" s="3">
+        <f t="shared" si="8"/>
         <v>1464.2823245</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="6"/>
+      <c r="G28" s="3">
+        <f t="shared" si="8"/>
         <v>1464.200918</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="6"/>
+      <c r="H28" s="3">
+        <f t="shared" si="8"/>
         <v>1464.0230274999999</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="6"/>
+      <c r="I28" s="3">
+        <f t="shared" si="8"/>
         <v>1464.9803514999999</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="6"/>
+      <c r="J28" s="3">
+        <f t="shared" si="8"/>
         <v>1475.9346089999999</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="6"/>
+      <c r="K28" s="3">
+        <f t="shared" si="8"/>
         <v>1476.1303129999999</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="6"/>
+      <c r="L28" s="3">
+        <f t="shared" si="8"/>
         <v>1475.7575194999999</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="6"/>
+      <c r="M28" s="3">
+        <f t="shared" si="8"/>
         <v>1476.0933985000001</v>
       </c>
-      <c r="N26">
-        <f t="shared" si="6"/>
+      <c r="N28" s="3">
+        <f t="shared" si="8"/>
         <v>1478.2592380000001</v>
       </c>
-      <c r="O26">
-        <f t="shared" si="6"/>
+      <c r="O28" s="3">
+        <f t="shared" si="8"/>
         <v>1478.2394724999999</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="6"/>
+      <c r="P28" s="3">
+        <f t="shared" si="8"/>
         <v>1478.1686915</v>
       </c>
-      <c r="Q26">
-        <f t="shared" si="6"/>
+      <c r="Q28" s="3">
+        <f t="shared" si="8"/>
         <v>1478.3829489999998</v>
       </c>
-      <c r="R26">
-        <f t="shared" si="6"/>
+      <c r="R28" s="3">
+        <f t="shared" si="8"/>
         <v>1491.8273829999998</v>
       </c>
-      <c r="S26">
-        <f t="shared" si="6"/>
+      <c r="S28" s="3">
+        <f t="shared" si="8"/>
         <v>1492.0814260000002</v>
       </c>
-      <c r="T26">
-        <f t="shared" si="6"/>
+      <c r="T28" s="3">
+        <f t="shared" si="8"/>
         <v>1491.7361325000002</v>
       </c>
-      <c r="U26">
-        <f t="shared" si="6"/>
+      <c r="U28" s="3">
+        <f t="shared" si="8"/>
         <v>1491.8194925</v>
       </c>
-      <c r="V26">
-        <f t="shared" si="6"/>
+      <c r="V28" s="3">
+        <f t="shared" si="8"/>
         <v>1481.1234570312499</v>
       </c>
-      <c r="W26">
-        <f t="shared" si="6"/>
+      <c r="W28" s="3">
+        <f t="shared" si="8"/>
         <v>1481.2032812500001</v>
       </c>
-      <c r="X26">
-        <f t="shared" si="6"/>
+      <c r="X28" s="3">
+        <f t="shared" si="8"/>
         <v>1480.9640039062499</v>
       </c>
-      <c r="Y26">
-        <f t="shared" si="6"/>
+      <c r="Y28" s="3">
+        <f t="shared" si="8"/>
         <v>1481.1564257812499</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="29" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>1000</v>
       </c>
-      <c r="B27">
+      <c r="B29" s="3">
         <v>1523.50668</v>
       </c>
-      <c r="C27">
+      <c r="C29" s="3">
         <v>1523.550313</v>
       </c>
-      <c r="D27">
+      <c r="D29" s="3">
         <v>1523.4905080000001</v>
       </c>
-      <c r="E27">
+      <c r="E29" s="3">
         <v>1523.6416409999999</v>
       </c>
-      <c r="F27">
+      <c r="F29" s="3">
         <v>1464.050469</v>
       </c>
-      <c r="G27">
+      <c r="G29" s="3">
         <v>1464.1702339999999</v>
       </c>
-      <c r="H27">
+      <c r="H29" s="3">
         <v>1463.8551170000001</v>
       </c>
-      <c r="I27">
+      <c r="I29" s="3">
         <v>1464.4882809999999</v>
       </c>
-      <c r="J27">
+      <c r="J29" s="3">
         <v>1476.393984</v>
       </c>
-      <c r="K27">
+      <c r="K29" s="3">
         <v>1476.7240629999999</v>
       </c>
-      <c r="L27">
+      <c r="L29" s="3">
         <v>1476.0641800000001</v>
       </c>
-      <c r="M27">
+      <c r="M29" s="3">
         <v>1476.566094</v>
       </c>
-      <c r="N27">
+      <c r="N29" s="3">
         <v>1478.6732810000001</v>
       </c>
-      <c r="O27">
+      <c r="O29" s="3">
         <v>1478.6408980000001</v>
       </c>
-      <c r="P27">
+      <c r="P29" s="3">
         <v>1478.619688</v>
       </c>
-      <c r="Q27">
+      <c r="Q29" s="3">
         <v>1478.764023</v>
       </c>
-      <c r="R27">
+      <c r="R29" s="3">
         <v>1492.003125</v>
       </c>
-      <c r="S27">
+      <c r="S29" s="3">
         <v>1492.209141</v>
       </c>
-      <c r="T27">
+      <c r="T29" s="3">
         <v>1491.848281</v>
       </c>
-      <c r="U27">
+      <c r="U29" s="3">
         <v>1491.841719</v>
       </c>
-      <c r="V27">
+      <c r="V29" s="3">
         <v>1481.2110156250001</v>
       </c>
-      <c r="W27">
+      <c r="W29" s="3">
         <v>1481.2722265625</v>
       </c>
-      <c r="X27">
+      <c r="X29" s="3">
         <v>1480.9808593749999</v>
       </c>
-      <c r="Y27">
+      <c r="Y29" s="3">
         <v>1481.1837499999999</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="30" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>1050</v>
       </c>
-      <c r="B28">
-        <f t="shared" ref="B28:Y28" si="7">B27+(B29-B27)/2</f>
+      <c r="B30" s="3">
+        <f t="shared" ref="B30:Y30" si="9">B29+(B31-B29)/2</f>
         <v>1524.3022464999999</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="7"/>
+      <c r="C30" s="3">
+        <f t="shared" si="9"/>
         <v>1524.3734770000001</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="7"/>
+      <c r="D30" s="3">
+        <f t="shared" si="9"/>
         <v>1524.3079299999999</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="7"/>
+      <c r="E30" s="3">
+        <f t="shared" si="9"/>
         <v>1524.4506645000001</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="7"/>
+      <c r="F30" s="3">
+        <f t="shared" si="9"/>
         <v>1464.380547</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="7"/>
+      <c r="G30" s="3">
+        <f t="shared" si="9"/>
         <v>1464.4809375</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="7"/>
+      <c r="H30" s="3">
+        <f t="shared" si="9"/>
         <v>1464.3630275</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="7"/>
+      <c r="I30" s="3">
+        <f t="shared" si="9"/>
         <v>1464.6075390000001</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="7"/>
+      <c r="J30" s="3">
+        <f t="shared" si="9"/>
         <v>1476.853574</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="7"/>
+      <c r="K30" s="3">
+        <f t="shared" si="9"/>
         <v>1477.0881055</v>
       </c>
-      <c r="L28">
-        <f t="shared" si="7"/>
+      <c r="L30" s="3">
+        <f t="shared" si="9"/>
         <v>1476.8118945000001</v>
       </c>
-      <c r="M28">
-        <f t="shared" si="7"/>
+      <c r="M30" s="3">
+        <f t="shared" si="9"/>
         <v>1477.1178125000001</v>
       </c>
-      <c r="N28">
-        <f t="shared" si="7"/>
+      <c r="N30" s="3">
+        <f t="shared" si="9"/>
         <v>1479.1371875</v>
       </c>
-      <c r="O28">
-        <f t="shared" si="7"/>
+      <c r="O30" s="3">
+        <f t="shared" si="9"/>
         <v>1479.0790625</v>
       </c>
-      <c r="P28">
-        <f t="shared" si="7"/>
+      <c r="P30" s="3">
+        <f t="shared" si="9"/>
         <v>1479.1106055</v>
       </c>
-      <c r="Q28">
-        <f t="shared" si="7"/>
+      <c r="Q30" s="3">
+        <f t="shared" si="9"/>
         <v>1479.2394140000001</v>
       </c>
-      <c r="R28">
-        <f t="shared" si="7"/>
+      <c r="R30" s="3">
+        <f t="shared" si="9"/>
         <v>1492.2425389999999</v>
       </c>
-      <c r="S28">
-        <f t="shared" si="7"/>
+      <c r="S30" s="3">
+        <f t="shared" si="9"/>
         <v>1492.417383</v>
       </c>
-      <c r="T28">
-        <f t="shared" si="7"/>
+      <c r="T30" s="3">
+        <f t="shared" si="9"/>
         <v>1492.1945700000001</v>
       </c>
-      <c r="U28">
-        <f t="shared" si="7"/>
+      <c r="U30" s="3">
+        <f t="shared" si="9"/>
         <v>1492.0911719999999</v>
       </c>
-      <c r="V28">
-        <f t="shared" si="7"/>
+      <c r="V30" s="3">
+        <f t="shared" si="9"/>
         <v>1481.3721875000001</v>
       </c>
-      <c r="W28">
-        <f t="shared" si="7"/>
+      <c r="W30" s="3">
+        <f t="shared" si="9"/>
         <v>1481.4353125</v>
       </c>
-      <c r="X28">
-        <f t="shared" si="7"/>
+      <c r="X30" s="3">
+        <f t="shared" si="9"/>
         <v>1481.2051367187501</v>
       </c>
-      <c r="Y28">
-        <f t="shared" si="7"/>
+      <c r="Y30" s="3">
+        <f t="shared" si="9"/>
         <v>1481.3370507812501</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="31" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>1100</v>
       </c>
-      <c r="B29">
+      <c r="B31" s="3">
         <v>1525.0978130000001</v>
       </c>
-      <c r="C29">
+      <c r="C31" s="3">
         <v>1525.196641</v>
       </c>
-      <c r="D29">
+      <c r="D31" s="3">
         <v>1525.125352</v>
       </c>
-      <c r="E29">
+      <c r="E31" s="3">
         <v>1525.2596880000001</v>
       </c>
-      <c r="F29">
+      <c r="F31" s="3">
         <v>1464.7106249999999</v>
       </c>
-      <c r="G29">
+      <c r="G31" s="3">
         <v>1464.791641</v>
       </c>
-      <c r="H29">
+      <c r="H31" s="3">
         <v>1464.870938</v>
       </c>
-      <c r="I29">
+      <c r="I31" s="3">
         <v>1464.726797</v>
       </c>
-      <c r="J29">
+      <c r="J31" s="3">
         <v>1477.3131639999999</v>
       </c>
-      <c r="K29">
+      <c r="K31" s="3">
         <v>1477.4521480000001</v>
       </c>
-      <c r="L29">
+      <c r="L31" s="3">
         <v>1477.5596089999999</v>
       </c>
-      <c r="M29">
+      <c r="M31" s="3">
         <v>1477.669531</v>
       </c>
-      <c r="N29">
+      <c r="N31" s="3">
         <v>1479.6010940000001</v>
       </c>
-      <c r="O29">
+      <c r="O31" s="3">
         <v>1479.517227</v>
       </c>
-      <c r="P29">
+      <c r="P31" s="3">
         <v>1479.601523</v>
       </c>
-      <c r="Q29">
+      <c r="Q31" s="3">
         <v>1479.7148050000001</v>
       </c>
-      <c r="R29">
+      <c r="R31" s="3">
         <v>1492.481953</v>
       </c>
-      <c r="S29">
+      <c r="S31" s="3">
         <v>1492.6256249999999</v>
       </c>
-      <c r="T29">
+      <c r="T31" s="3">
         <v>1492.540859</v>
       </c>
-      <c r="U29">
+      <c r="U31" s="3">
         <v>1492.340625</v>
       </c>
-      <c r="V29">
+      <c r="V31" s="3">
         <v>1481.5333593749999</v>
       </c>
-      <c r="W29">
+      <c r="W31" s="3">
         <v>1481.5983984375</v>
       </c>
-      <c r="X29">
+      <c r="X31" s="3">
         <v>1481.4294140625</v>
       </c>
-      <c r="Y29">
+      <c r="Y31" s="3">
         <v>1481.4903515625001</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="32" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>1150</v>
       </c>
-      <c r="B30">
-        <f t="shared" ref="B30:Y30" si="8">B29+(B31-B29)/2</f>
+      <c r="B32" s="3">
+        <f t="shared" ref="B32:Y32" si="10">B31+(B33-B31)/2</f>
         <v>1525.9330665</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="8"/>
+      <c r="C32" s="3">
+        <f t="shared" si="10"/>
         <v>1526.0188869999999</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="8"/>
+      <c r="D32" s="3">
+        <f t="shared" si="10"/>
         <v>1525.9560354999999</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="8"/>
+      <c r="E32" s="3">
+        <f t="shared" si="10"/>
         <v>1526.0552735000001</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="8"/>
+      <c r="F32" s="3">
+        <f t="shared" si="10"/>
         <v>1465.4459959999999</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="8"/>
+      <c r="G32" s="3">
+        <f t="shared" si="10"/>
         <v>1465.4136524999999</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="8"/>
+      <c r="H32" s="3">
+        <f t="shared" si="10"/>
         <v>1465.4426370000001</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="8"/>
+      <c r="I32" s="3">
+        <f t="shared" si="10"/>
         <v>1465.3699609999999</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="8"/>
+      <c r="J32" s="3">
+        <f t="shared" si="10"/>
         <v>1477.8290625</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="8"/>
+      <c r="K32" s="3">
+        <f t="shared" si="10"/>
         <v>1477.9952929999999</v>
       </c>
-      <c r="L30">
-        <f t="shared" si="8"/>
+      <c r="L32" s="3">
+        <f t="shared" si="10"/>
         <v>1477.9313474999999</v>
       </c>
-      <c r="M30">
-        <f t="shared" si="8"/>
+      <c r="M32" s="3">
+        <f t="shared" si="10"/>
         <v>1478.2385935</v>
       </c>
-      <c r="N30">
-        <f t="shared" si="8"/>
+      <c r="N32" s="3">
+        <f t="shared" si="10"/>
         <v>1480.0672265000001</v>
       </c>
-      <c r="O30">
-        <f t="shared" si="8"/>
+      <c r="O32" s="3">
+        <f t="shared" si="10"/>
         <v>1480.0532035000001</v>
       </c>
-      <c r="P30">
-        <f t="shared" si="8"/>
+      <c r="P32" s="3">
+        <f t="shared" si="10"/>
         <v>1480.103398</v>
       </c>
-      <c r="Q30">
-        <f t="shared" si="8"/>
+      <c r="Q32" s="3">
+        <f t="shared" si="10"/>
         <v>1480.225723</v>
       </c>
-      <c r="R30">
-        <f t="shared" si="8"/>
+      <c r="R32" s="3">
+        <f t="shared" si="10"/>
         <v>1492.7146094999998</v>
       </c>
-      <c r="S30">
-        <f t="shared" si="8"/>
+      <c r="S32" s="3">
+        <f t="shared" si="10"/>
         <v>1492.8024805</v>
       </c>
-      <c r="T30">
-        <f t="shared" si="8"/>
+      <c r="T32" s="3">
+        <f t="shared" si="10"/>
         <v>1492.6823825000001</v>
       </c>
-      <c r="U30">
-        <f t="shared" si="8"/>
+      <c r="U32" s="3">
+        <f t="shared" si="10"/>
         <v>1492.5907225000001</v>
       </c>
-      <c r="V30">
-        <f t="shared" si="8"/>
+      <c r="V32" s="3">
+        <f t="shared" si="10"/>
         <v>1481.8746484375001</v>
       </c>
-      <c r="W30">
-        <f t="shared" si="8"/>
+      <c r="W32" s="3">
+        <f t="shared" si="10"/>
         <v>1481.9328515625</v>
       </c>
-      <c r="X30">
-        <f t="shared" si="8"/>
+      <c r="X32" s="3">
+        <f t="shared" si="10"/>
         <v>1481.7254882812499</v>
       </c>
-      <c r="Y30">
-        <f t="shared" si="8"/>
+      <c r="Y32" s="3">
+        <f t="shared" si="10"/>
         <v>1481.8331250000001</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="33" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>1200</v>
       </c>
-      <c r="B31">
+      <c r="B33" s="3">
         <v>1526.7683199999999</v>
       </c>
-      <c r="C31">
+      <c r="C33" s="3">
         <v>1526.8411329999999</v>
       </c>
-      <c r="D31">
+      <c r="D33" s="3">
         <v>1526.7867189999999</v>
       </c>
-      <c r="E31">
+      <c r="E33" s="3">
         <v>1526.8508589999999</v>
       </c>
-      <c r="F31">
+      <c r="F33" s="3">
         <v>1466.1813669999999</v>
       </c>
-      <c r="G31">
+      <c r="G33" s="3">
         <v>1466.035664</v>
       </c>
-      <c r="H31">
+      <c r="H33" s="3">
         <v>1466.014336</v>
       </c>
-      <c r="I31">
+      <c r="I33" s="3">
         <v>1466.0131249999999</v>
       </c>
-      <c r="J31">
+      <c r="J33" s="3">
         <v>1478.344961</v>
       </c>
-      <c r="K31">
+      <c r="K33" s="3">
         <v>1478.538438</v>
       </c>
-      <c r="L31">
+      <c r="L33" s="3">
         <v>1478.3030859999999</v>
       </c>
-      <c r="M31">
+      <c r="M33" s="3">
         <v>1478.807656</v>
       </c>
-      <c r="N31">
+      <c r="N33" s="3">
         <v>1480.533359</v>
       </c>
-      <c r="O31">
+      <c r="O33" s="3">
         <v>1480.5891799999999</v>
       </c>
-      <c r="P31">
+      <c r="P33" s="3">
         <v>1480.6052729999999</v>
       </c>
-      <c r="Q31">
+      <c r="Q33" s="3">
         <v>1480.736641</v>
       </c>
-      <c r="R31">
+      <c r="R33" s="3">
         <v>1492.9472659999999</v>
       </c>
-      <c r="S31">
+      <c r="S33" s="3">
         <v>1492.9793360000001</v>
       </c>
-      <c r="T31">
+      <c r="T33" s="3">
         <v>1492.8239060000001</v>
       </c>
-      <c r="U31">
+      <c r="U33" s="3">
         <v>1492.8408199999999</v>
       </c>
-      <c r="V31">
+      <c r="V33" s="3">
         <v>1482.2159375000001</v>
       </c>
-      <c r="W31">
+      <c r="W33" s="3">
         <v>1482.2673046875</v>
       </c>
-      <c r="X31">
+      <c r="X33" s="3">
         <v>1482.0215625000001</v>
       </c>
-      <c r="Y31">
+      <c r="Y33" s="3">
         <v>1482.1758984375001</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="34" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>1250</v>
       </c>
-      <c r="B32">
-        <f t="shared" ref="B32:Y32" si="9">B31+(B33-B31)/2</f>
+      <c r="B34" s="3">
+        <f t="shared" ref="B34:Y34" si="11">B33+(B35-B33)/2</f>
         <v>1527.5906249999998</v>
       </c>
-      <c r="C32">
-        <f t="shared" si="9"/>
+      <c r="C34" s="3">
+        <f t="shared" si="11"/>
         <v>1527.6698634999998</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="9"/>
+      <c r="D34" s="3">
+        <f t="shared" si="11"/>
         <v>1527.6401759999999</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="9"/>
+      <c r="E34" s="3">
+        <f t="shared" si="11"/>
         <v>1527.6459179999999</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="9"/>
+      <c r="F34" s="3">
+        <f t="shared" si="11"/>
         <v>1466.6745310000001</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="9"/>
+      <c r="G34" s="3">
+        <f t="shared" si="11"/>
         <v>1466.6342385</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="9"/>
+      <c r="H34" s="3">
+        <f t="shared" si="11"/>
         <v>1466.5975975000001</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="9"/>
+      <c r="I34" s="3">
+        <f t="shared" si="11"/>
         <v>1466.6288475000001</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="9"/>
+      <c r="J34" s="3">
+        <f t="shared" si="11"/>
         <v>1479.0877734999999</v>
       </c>
-      <c r="K32">
-        <f t="shared" si="9"/>
+      <c r="K34" s="3">
+        <f t="shared" si="11"/>
         <v>1479.1948634999999</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="9"/>
+      <c r="L34" s="3">
+        <f t="shared" si="11"/>
         <v>1479.012168</v>
       </c>
-      <c r="M32">
-        <f t="shared" si="9"/>
+      <c r="M34" s="3">
+        <f t="shared" si="11"/>
         <v>1479.2927344999998</v>
       </c>
-      <c r="N32">
-        <f t="shared" si="9"/>
+      <c r="N34" s="3">
+        <f t="shared" si="11"/>
         <v>1481.0516404999998</v>
       </c>
-      <c r="O32">
-        <f t="shared" si="9"/>
+      <c r="O34" s="3">
+        <f t="shared" si="11"/>
         <v>1481.0794535</v>
       </c>
-      <c r="P32">
-        <f t="shared" si="9"/>
+      <c r="P34" s="3">
+        <f t="shared" si="11"/>
         <v>1481.0902729999998</v>
       </c>
-      <c r="Q32">
-        <f t="shared" si="9"/>
+      <c r="Q34" s="3">
+        <f t="shared" si="11"/>
         <v>1481.242559</v>
       </c>
-      <c r="R32">
-        <f t="shared" si="9"/>
+      <c r="R34" s="3">
+        <f t="shared" si="11"/>
         <v>1493.2017189999999</v>
       </c>
-      <c r="S32">
-        <f t="shared" si="9"/>
+      <c r="S34" s="3">
+        <f t="shared" si="11"/>
         <v>1493.1747654999999</v>
       </c>
-      <c r="T32">
-        <f t="shared" si="9"/>
+      <c r="T34" s="3">
+        <f t="shared" si="11"/>
         <v>1493.0476560000002</v>
       </c>
-      <c r="U32">
-        <f t="shared" si="9"/>
+      <c r="U34" s="3">
+        <f t="shared" si="11"/>
         <v>1493.0004100000001</v>
       </c>
-      <c r="V32">
-        <f t="shared" si="9"/>
+      <c r="V34" s="3">
+        <f t="shared" si="11"/>
         <v>1482.7379687500002</v>
       </c>
-      <c r="W32">
-        <f t="shared" si="9"/>
+      <c r="W34" s="3">
+        <f t="shared" si="11"/>
         <v>1482.7879101562498</v>
       </c>
-      <c r="X32">
-        <f t="shared" si="9"/>
+      <c r="X34" s="3">
+        <f t="shared" si="11"/>
         <v>1482.6297070312501</v>
       </c>
-      <c r="Y32">
-        <f t="shared" si="9"/>
+      <c r="Y34" s="3">
+        <f t="shared" si="11"/>
         <v>1482.6956250000001</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="35" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>1300</v>
       </c>
-      <c r="B33">
+      <c r="B35" s="3">
         <v>1528.41293</v>
       </c>
-      <c r="C33">
+      <c r="C35" s="3">
         <v>1528.4985939999999</v>
       </c>
-      <c r="D33">
+      <c r="D35" s="3">
         <v>1528.493633</v>
       </c>
-      <c r="E33">
+      <c r="E35" s="3">
         <v>1528.440977</v>
       </c>
-      <c r="F33">
+      <c r="F35" s="3">
         <v>1467.1676950000001</v>
       </c>
-      <c r="G33">
+      <c r="G35" s="3">
         <v>1467.2328130000001</v>
       </c>
-      <c r="H33">
+      <c r="H35" s="3">
         <v>1467.1808590000001</v>
       </c>
-      <c r="I33">
+      <c r="I35" s="3">
         <v>1467.2445700000001</v>
       </c>
-      <c r="J33">
+      <c r="J35" s="3">
         <v>1479.830586</v>
       </c>
-      <c r="K33">
+      <c r="K35" s="3">
         <v>1479.851289</v>
       </c>
-      <c r="L33">
+      <c r="L35" s="3">
         <v>1479.7212500000001</v>
       </c>
-      <c r="M33">
+      <c r="M35" s="3">
         <v>1479.7778129999999</v>
       </c>
-      <c r="N33">
+      <c r="N35" s="3">
         <v>1481.5699219999999</v>
       </c>
-      <c r="O33">
+      <c r="O35" s="3">
         <v>1481.5697270000001</v>
       </c>
-      <c r="P33">
+      <c r="P35" s="3">
         <v>1481.5752729999999</v>
       </c>
-      <c r="Q33">
+      <c r="Q35" s="3">
         <v>1481.7484770000001</v>
       </c>
-      <c r="R33">
+      <c r="R35" s="3">
         <v>1493.4561719999999</v>
       </c>
-      <c r="S33">
+      <c r="S35" s="3">
         <v>1493.370195</v>
       </c>
-      <c r="T33">
+      <c r="T35" s="3">
         <v>1493.2714060000001</v>
       </c>
-      <c r="U33">
+      <c r="U35" s="3">
         <v>1493.16</v>
       </c>
-      <c r="V33">
+      <c r="V35" s="3">
         <v>1483.26</v>
       </c>
-      <c r="W33">
+      <c r="W35" s="3">
         <v>1483.3085156249999</v>
       </c>
-      <c r="X33">
+      <c r="X35" s="3">
         <v>1483.2378515625001</v>
       </c>
-      <c r="Y33">
+      <c r="Y35" s="3">
         <v>1483.2153515625</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="36" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>1350</v>
       </c>
-      <c r="B34">
-        <f t="shared" ref="B34:Y34" si="10">B33+(B35-B33)/2</f>
+      <c r="B36" s="3">
+        <f t="shared" ref="B36:Y36" si="12">B35+(B37-B35)/2</f>
         <v>1529.2372070000001</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="10"/>
+      <c r="C36" s="3">
+        <f t="shared" si="12"/>
         <v>1529.3319925000001</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="10"/>
+      <c r="D36" s="3">
+        <f t="shared" si="12"/>
         <v>1529.292637</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="10"/>
+      <c r="E36" s="3">
+        <f t="shared" si="12"/>
         <v>1529.2762895000001</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="10"/>
+      <c r="F36" s="3">
+        <f t="shared" si="12"/>
         <v>1467.914824</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="10"/>
+      <c r="G36" s="3">
+        <f t="shared" si="12"/>
         <v>1467.9537895000001</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="10"/>
+      <c r="H36" s="3">
+        <f t="shared" si="12"/>
         <v>1467.88582</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="10"/>
+      <c r="I36" s="3">
+        <f t="shared" si="12"/>
         <v>1467.9238475000002</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="10"/>
+      <c r="J36" s="3">
+        <f t="shared" si="12"/>
         <v>1480.5698440000001</v>
       </c>
-      <c r="K34">
-        <f t="shared" si="10"/>
+      <c r="K36" s="3">
+        <f t="shared" si="12"/>
         <v>1480.6312499999999</v>
       </c>
-      <c r="L34">
-        <f t="shared" si="10"/>
+      <c r="L36" s="3">
+        <f t="shared" si="12"/>
         <v>1480.3707615000001</v>
       </c>
-      <c r="M34">
-        <f t="shared" si="10"/>
+      <c r="M36" s="3">
+        <f t="shared" si="12"/>
         <v>1480.5056255</v>
       </c>
-      <c r="N34">
-        <f t="shared" si="10"/>
+      <c r="N36" s="3">
+        <f t="shared" si="12"/>
         <v>1482.1012499999999</v>
       </c>
-      <c r="O34">
-        <f t="shared" si="10"/>
+      <c r="O36" s="3">
+        <f t="shared" si="12"/>
         <v>1482.117344</v>
       </c>
-      <c r="P34">
-        <f t="shared" si="10"/>
+      <c r="P36" s="3">
+        <f t="shared" si="12"/>
         <v>1482.1235154999999</v>
       </c>
-      <c r="Q34">
-        <f t="shared" si="10"/>
+      <c r="Q36" s="3">
+        <f t="shared" si="12"/>
         <v>1482.240918</v>
       </c>
-      <c r="R34">
-        <f t="shared" si="10"/>
+      <c r="R36" s="3">
+        <f t="shared" si="12"/>
         <v>1493.5886329999998</v>
       </c>
-      <c r="S34">
-        <f t="shared" si="10"/>
+      <c r="S36" s="3">
+        <f t="shared" si="12"/>
         <v>1493.3734570000001</v>
       </c>
-      <c r="T34">
-        <f t="shared" si="10"/>
+      <c r="T36" s="3">
+        <f t="shared" si="12"/>
         <v>1493.4794529999999</v>
       </c>
-      <c r="U34">
-        <f t="shared" si="10"/>
+      <c r="U36" s="3">
+        <f t="shared" si="12"/>
         <v>1493.386426</v>
       </c>
-      <c r="V34">
-        <f t="shared" si="10"/>
+      <c r="V36" s="3">
+        <f t="shared" si="12"/>
         <v>1483.8715625</v>
       </c>
-      <c r="W34">
-        <f t="shared" si="10"/>
+      <c r="W36" s="3">
+        <f t="shared" si="12"/>
         <v>1483.90380859375</v>
       </c>
-      <c r="X34">
-        <f t="shared" si="10"/>
+      <c r="X36" s="3">
+        <f t="shared" si="12"/>
         <v>1483.79591796875</v>
       </c>
-      <c r="Y34">
-        <f t="shared" si="10"/>
+      <c r="Y36" s="3">
+        <f t="shared" si="12"/>
         <v>1483.8104687499999</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="37" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>1400</v>
       </c>
-      <c r="B35">
+      <c r="B37" s="3">
         <v>1530.0614840000001</v>
       </c>
-      <c r="C35">
+      <c r="C37" s="3">
         <v>1530.165391</v>
       </c>
-      <c r="D35">
+      <c r="D37" s="3">
         <v>1530.091641</v>
       </c>
-      <c r="E35">
+      <c r="E37" s="3">
         <v>1530.1116019999999</v>
       </c>
-      <c r="F35">
+      <c r="F37" s="3">
         <v>1468.661953</v>
       </c>
-      <c r="G35">
+      <c r="G37" s="3">
         <v>1468.6747660000001</v>
       </c>
-      <c r="H35">
+      <c r="H37" s="3">
         <v>1468.5907810000001</v>
       </c>
-      <c r="I35">
+      <c r="I37" s="3">
         <v>1468.6031250000001</v>
       </c>
-      <c r="J35">
+      <c r="J37" s="3">
         <v>1481.3091019999999</v>
       </c>
-      <c r="K35">
+      <c r="K37" s="3">
         <v>1481.4112110000001</v>
       </c>
-      <c r="L35">
+      <c r="L37" s="3">
         <v>1481.0202730000001</v>
       </c>
-      <c r="M35">
+      <c r="M37" s="3">
         <v>1481.233438</v>
       </c>
-      <c r="N35">
+      <c r="N37" s="3">
         <v>1482.632578</v>
       </c>
-      <c r="O35">
+      <c r="O37" s="3">
         <v>1482.6649609999999</v>
       </c>
-      <c r="P35">
+      <c r="P37" s="3">
         <v>1482.671758</v>
       </c>
-      <c r="Q35">
+      <c r="Q37" s="3">
         <v>1482.7333590000001</v>
       </c>
-      <c r="R35">
+      <c r="R37" s="3">
         <v>1493.721094</v>
       </c>
-      <c r="S35">
+      <c r="S37" s="3">
         <v>1493.3767190000001</v>
       </c>
-      <c r="T35">
+      <c r="T37" s="3">
         <v>1493.6875</v>
       </c>
-      <c r="U35">
+      <c r="U37" s="3">
         <v>1493.612852</v>
       </c>
-      <c r="V35">
+      <c r="V37" s="3">
         <v>1484.483125</v>
       </c>
-      <c r="W35">
+      <c r="W37" s="3">
         <v>1484.4991015625001</v>
       </c>
-      <c r="X35">
+      <c r="X37" s="3">
         <v>1484.353984375</v>
       </c>
-      <c r="Y35">
+      <c r="Y37" s="3">
         <v>1484.4055859375001</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="38" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>1450</v>
       </c>
-      <c r="B36">
-        <f t="shared" ref="B36:Y36" si="11">B35+(B37-B35)/2</f>
+      <c r="B38" s="3">
+        <f t="shared" ref="B38:Y38" si="13">B37+(B39-B37)/2</f>
         <v>1530.8956054999999</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="11"/>
+      <c r="C38" s="3">
+        <f t="shared" si="13"/>
         <v>1530.9715624999999</v>
       </c>
-      <c r="D36">
-        <f t="shared" si="11"/>
+      <c r="D38" s="3">
+        <f t="shared" si="13"/>
         <v>1530.9170509999999</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="11"/>
+      <c r="E38" s="3">
+        <f t="shared" si="13"/>
         <v>1530.9906055000001</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="11"/>
+      <c r="F38" s="3">
+        <f t="shared" si="13"/>
         <v>1469.4187305</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="11"/>
+      <c r="G38" s="3">
+        <f t="shared" si="13"/>
         <v>1469.3841995</v>
       </c>
-      <c r="H36">
-        <f t="shared" si="11"/>
+      <c r="H38" s="3">
+        <f t="shared" si="13"/>
         <v>1469.3336325</v>
       </c>
-      <c r="I36">
-        <f t="shared" si="11"/>
+      <c r="I38" s="3">
+        <f t="shared" si="13"/>
         <v>1469.271504</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="11"/>
+      <c r="J38" s="3">
+        <f t="shared" si="13"/>
         <v>1481.8000200000001</v>
       </c>
-      <c r="K36">
-        <f t="shared" si="11"/>
+      <c r="K38" s="3">
+        <f t="shared" si="13"/>
         <v>1481.8980860000001</v>
       </c>
-      <c r="L36">
-        <f t="shared" si="11"/>
+      <c r="L38" s="3">
+        <f t="shared" si="13"/>
         <v>1481.6895115000002</v>
       </c>
-      <c r="M36">
-        <f t="shared" si="11"/>
+      <c r="M38" s="3">
+        <f t="shared" si="13"/>
         <v>1481.7530274999999</v>
       </c>
-      <c r="N36">
-        <f t="shared" si="11"/>
+      <c r="N38" s="3">
+        <f t="shared" si="13"/>
         <v>1483.1761915</v>
       </c>
-      <c r="O36">
-        <f t="shared" si="11"/>
+      <c r="O38" s="3">
+        <f t="shared" si="13"/>
         <v>1483.231133</v>
       </c>
-      <c r="P36">
-        <f t="shared" si="11"/>
+      <c r="P38" s="3">
+        <f t="shared" si="13"/>
         <v>1483.2496679999999</v>
       </c>
-      <c r="Q36">
-        <f t="shared" si="11"/>
+      <c r="Q38" s="3">
+        <f t="shared" si="13"/>
         <v>1483.2312305</v>
       </c>
-      <c r="R36">
-        <f t="shared" si="11"/>
+      <c r="R38" s="3">
+        <f t="shared" si="13"/>
         <v>1493.851582</v>
       </c>
-      <c r="S36">
-        <f t="shared" si="11"/>
+      <c r="S38" s="3">
+        <f t="shared" si="13"/>
         <v>1493.4649804999999</v>
       </c>
-      <c r="T36">
-        <f t="shared" si="11"/>
+      <c r="T38" s="3">
+        <f t="shared" si="13"/>
         <v>1493.65959</v>
       </c>
-      <c r="U36">
-        <f t="shared" si="11"/>
+      <c r="U38" s="3">
+        <f t="shared" si="13"/>
         <v>1493.8061135</v>
       </c>
-      <c r="V36">
-        <f t="shared" si="11"/>
+      <c r="V38" s="3">
+        <f t="shared" si="13"/>
         <v>1485.0437890624999</v>
       </c>
-      <c r="W36">
-        <f t="shared" si="11"/>
+      <c r="W38" s="3">
+        <f t="shared" si="13"/>
         <v>1485.0538867187502</v>
       </c>
-      <c r="X36">
-        <f t="shared" si="11"/>
+      <c r="X38" s="3">
+        <f t="shared" si="13"/>
         <v>1484.9132031250001</v>
       </c>
-      <c r="Y36">
-        <f t="shared" si="11"/>
+      <c r="Y38" s="3">
+        <f t="shared" si="13"/>
         <v>1484.9884375000001</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="39" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>1500</v>
       </c>
-      <c r="B37">
+      <c r="B39" s="3">
         <v>1531.7297269999999</v>
       </c>
-      <c r="C37">
+      <c r="C39" s="3">
         <v>1531.777734</v>
       </c>
-      <c r="D37">
+      <c r="D39" s="3">
         <v>1531.742461</v>
       </c>
-      <c r="E37">
+      <c r="E39" s="3">
         <v>1531.8696090000001</v>
       </c>
-      <c r="F37">
+      <c r="F39" s="3">
         <v>1470.175508</v>
       </c>
-      <c r="G37">
+      <c r="G39" s="3">
         <v>1470.093633</v>
       </c>
-      <c r="H37">
+      <c r="H39" s="3">
         <v>1470.0764839999999</v>
       </c>
-      <c r="I37">
+      <c r="I39" s="3">
         <v>1469.939883</v>
       </c>
-      <c r="J37">
+      <c r="J39" s="3">
         <v>1482.2909380000001</v>
       </c>
-      <c r="K37">
+      <c r="K39" s="3">
         <v>1482.384961</v>
       </c>
-      <c r="L37">
+      <c r="L39" s="3">
         <v>1482.3587500000001</v>
       </c>
-      <c r="M37">
+      <c r="M39" s="3">
         <v>1482.2726170000001</v>
       </c>
-      <c r="N37">
+      <c r="N39" s="3">
         <v>1483.719805</v>
       </c>
-      <c r="O37">
+      <c r="O39" s="3">
         <v>1483.7973050000001</v>
       </c>
-      <c r="P37">
+      <c r="P39" s="3">
         <v>1483.8275779999999</v>
       </c>
-      <c r="Q37">
+      <c r="Q39" s="3">
         <v>1483.729102</v>
       </c>
-      <c r="R37">
+      <c r="R39" s="3">
         <v>1493.98207</v>
       </c>
-      <c r="S37">
+      <c r="S39" s="3">
         <v>1493.553242</v>
       </c>
-      <c r="T37">
+      <c r="T39" s="3">
         <v>1493.63168</v>
       </c>
-      <c r="U37">
+      <c r="U39" s="3">
         <v>1493.9993750000001</v>
       </c>
-      <c r="V37">
+      <c r="V39" s="3">
         <v>1485.604453125</v>
       </c>
-      <c r="W37">
+      <c r="W39" s="3">
         <v>1485.608671875</v>
       </c>
-      <c r="X37">
+      <c r="X39" s="3">
         <v>1485.472421875</v>
       </c>
-      <c r="Y37">
+      <c r="Y39" s="3">
         <v>1485.5712890625</v>
       </c>
     </row>
